--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19320" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="235">
   <si>
     <t>系统</t>
   </si>
@@ -923,6 +924,12 @@
   <si>
     <t>完成情况</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>进行中</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1296,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1454,6 +1461,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2787,9 +2797,9 @@
   </sheetPr>
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4888,8 +4898,12 @@
       <c r="F118" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
+      <c r="G118" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H118" s="55">
+        <v>42651</v>
+      </c>
       <c r="I118" s="47"/>
     </row>
     <row r="119" spans="1:9" ht="25.5" customHeight="1">
@@ -4905,8 +4919,12 @@
       <c r="F119" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
+      <c r="G119" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H119" s="55">
+        <v>42651</v>
+      </c>
       <c r="I119" s="47"/>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1">
@@ -4939,8 +4957,12 @@
       <c r="F121" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
+      <c r="G121" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H121" s="55">
+        <v>42655</v>
+      </c>
       <c r="I121" s="47"/>
     </row>
     <row r="122" spans="1:9" ht="18" customHeight="1">
@@ -4956,8 +4978,12 @@
       <c r="F122" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
+      <c r="G122" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H122" s="55">
+        <v>42655</v>
+      </c>
       <c r="I122" s="47"/>
     </row>
     <row r="123" spans="1:9" ht="18" customHeight="1">
@@ -4973,8 +4999,12 @@
       <c r="F123" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
+      <c r="G123" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H123" s="55">
+        <v>42655</v>
+      </c>
       <c r="I123" s="47"/>
     </row>
     <row r="124" spans="1:9" ht="18" customHeight="1">
@@ -4990,8 +5020,12 @@
       <c r="F124" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
+      <c r="G124" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H124" s="55">
+        <v>42656</v>
+      </c>
       <c r="I124" s="47"/>
     </row>
     <row r="125" spans="1:9" ht="18" customHeight="1">
@@ -5007,8 +5041,12 @@
       <c r="F125" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
+      <c r="G125" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H125" s="55">
+        <v>42657</v>
+      </c>
       <c r="I125" s="47"/>
     </row>
     <row r="126" spans="1:9" ht="18" customHeight="1">
@@ -5024,8 +5062,12 @@
       <c r="F126" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
+      <c r="G126" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H126" s="55">
+        <v>42661</v>
+      </c>
       <c r="I126" s="47"/>
     </row>
     <row r="127" spans="1:9" ht="18" customHeight="1">
@@ -5041,8 +5083,12 @@
       <c r="F127" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
+      <c r="G127" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H127" s="55">
+        <v>42661</v>
+      </c>
       <c r="I127" s="47"/>
     </row>
     <row r="128" spans="1:9" ht="18" customHeight="1">
@@ -5058,8 +5104,12 @@
       <c r="F128" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
+      <c r="G128" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H128" s="55">
+        <v>42664</v>
+      </c>
       <c r="I128" s="47"/>
     </row>
     <row r="129" spans="1:9" ht="18.95" customHeight="1">
@@ -5075,7 +5125,9 @@
       <c r="F129" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G129" s="47"/>
+      <c r="G129" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H129" s="47"/>
       <c r="I129" s="47"/>
     </row>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="19320" windowHeight="6075"/>
+    <workbookView xWindow="5130" yWindow="75" windowWidth="19320" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="235">
   <si>
     <t>系统</t>
   </si>
@@ -1450,6 +1449,9 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1461,9 +1463,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2798,8 +2797,8 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
@@ -2874,7 +2873,9 @@
       <c r="F3" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
@@ -2891,7 +2892,9 @@
       <c r="F4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
@@ -2927,7 +2930,9 @@
       <c r="F6" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
     </row>
@@ -2944,7 +2949,9 @@
       <c r="F7" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
     </row>
@@ -2980,7 +2987,9 @@
       <c r="F9" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
     </row>
@@ -2997,7 +3006,9 @@
       <c r="F10" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
     </row>
@@ -3033,7 +3044,9 @@
       <c r="F12" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
     </row>
@@ -3050,7 +3063,9 @@
       <c r="F13" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
     </row>
@@ -4172,7 +4187,9 @@
       <c r="F77" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G77" s="47"/>
+      <c r="G77" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
     </row>
@@ -4189,7 +4206,9 @@
       <c r="F78" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G78" s="47"/>
+      <c r="G78" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
     </row>
@@ -4206,7 +4225,9 @@
       <c r="F79" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G79" s="47"/>
+      <c r="G79" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
     </row>
@@ -4223,7 +4244,9 @@
       <c r="F80" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G80" s="47"/>
+      <c r="G80" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
     </row>
@@ -4240,7 +4263,9 @@
       <c r="F81" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G81" s="47"/>
+      <c r="G81" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
     </row>
@@ -4257,7 +4282,9 @@
       <c r="F82" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="G82" s="47"/>
+      <c r="G82" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
     </row>
@@ -4751,7 +4778,7 @@
       <c r="B110" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="52" t="s">
         <v>161</v>
       </c>
       <c r="D110" s="22" t="s">
@@ -4770,7 +4797,7 @@
     <row r="111" spans="1:9" ht="21.95" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="52"/>
+      <c r="C111" s="53"/>
       <c r="D111" s="22" t="s">
         <v>24</v>
       </c>
@@ -4787,7 +4814,7 @@
     <row r="112" spans="1:9" ht="21.95" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="52"/>
+      <c r="C112" s="53"/>
       <c r="D112" s="22" t="s">
         <v>25</v>
       </c>
@@ -4886,7 +4913,7 @@
       <c r="B118" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="54" t="s">
         <v>162</v>
       </c>
       <c r="D118" s="27" t="s">
@@ -4901,7 +4928,7 @@
       <c r="G118" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H118" s="55">
+      <c r="H118" s="51">
         <v>42651</v>
       </c>
       <c r="I118" s="47"/>
@@ -4909,7 +4936,7 @@
     <row r="119" spans="1:9" ht="25.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
-      <c r="C119" s="54"/>
+      <c r="C119" s="55"/>
       <c r="D119" s="27" t="s">
         <v>154</v>
       </c>
@@ -4922,7 +4949,7 @@
       <c r="G119" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H119" s="55">
+      <c r="H119" s="51">
         <v>42651</v>
       </c>
       <c r="I119" s="47"/>
@@ -4930,7 +4957,7 @@
     <row r="120" spans="1:9" ht="18" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
-      <c r="C120" s="54"/>
+      <c r="C120" s="55"/>
       <c r="D120" s="27" t="s">
         <v>150</v>
       </c>
@@ -4947,7 +4974,7 @@
     <row r="121" spans="1:9" ht="18" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="54"/>
+      <c r="C121" s="55"/>
       <c r="D121" s="27" t="s">
         <v>156</v>
       </c>
@@ -4960,7 +4987,7 @@
       <c r="G121" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H121" s="55">
+      <c r="H121" s="51">
         <v>42655</v>
       </c>
       <c r="I121" s="47"/>
@@ -4968,7 +4995,7 @@
     <row r="122" spans="1:9" ht="18" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="54"/>
+      <c r="C122" s="55"/>
       <c r="D122" s="27" t="s">
         <v>157</v>
       </c>
@@ -4981,7 +5008,7 @@
       <c r="G122" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H122" s="55">
+      <c r="H122" s="51">
         <v>42655</v>
       </c>
       <c r="I122" s="47"/>
@@ -4989,7 +5016,7 @@
     <row r="123" spans="1:9" ht="18" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="54"/>
+      <c r="C123" s="55"/>
       <c r="D123" s="27" t="s">
         <v>151</v>
       </c>
@@ -5002,7 +5029,7 @@
       <c r="G123" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H123" s="55">
+      <c r="H123" s="51">
         <v>42655</v>
       </c>
       <c r="I123" s="47"/>
@@ -5010,7 +5037,7 @@
     <row r="124" spans="1:9" ht="18" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="54"/>
+      <c r="C124" s="55"/>
       <c r="D124" s="27" t="s">
         <v>152</v>
       </c>
@@ -5023,7 +5050,7 @@
       <c r="G124" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H124" s="55">
+      <c r="H124" s="51">
         <v>42656</v>
       </c>
       <c r="I124" s="47"/>
@@ -5031,7 +5058,7 @@
     <row r="125" spans="1:9" ht="18" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="54"/>
+      <c r="C125" s="55"/>
       <c r="D125" s="27" t="s">
         <v>153</v>
       </c>
@@ -5044,7 +5071,7 @@
       <c r="G125" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H125" s="55">
+      <c r="H125" s="51">
         <v>42657</v>
       </c>
       <c r="I125" s="47"/>
@@ -5052,7 +5079,7 @@
     <row r="126" spans="1:9" ht="18" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="54"/>
+      <c r="C126" s="55"/>
       <c r="D126" s="27" t="s">
         <v>217</v>
       </c>
@@ -5065,7 +5092,7 @@
       <c r="G126" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H126" s="55">
+      <c r="H126" s="51">
         <v>42661</v>
       </c>
       <c r="I126" s="47"/>
@@ -5073,7 +5100,7 @@
     <row r="127" spans="1:9" ht="18" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="54"/>
+      <c r="C127" s="55"/>
       <c r="D127" s="27" t="s">
         <v>218</v>
       </c>
@@ -5086,7 +5113,7 @@
       <c r="G127" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H127" s="55">
+      <c r="H127" s="51">
         <v>42661</v>
       </c>
       <c r="I127" s="47"/>
@@ -5107,7 +5134,7 @@
       <c r="G128" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="H128" s="55">
+      <c r="H128" s="51">
         <v>42664</v>
       </c>
       <c r="I128" s="47"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="75" windowWidth="19320" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="3690"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="235">
   <si>
     <t>系统</t>
   </si>
@@ -2797,8 +2798,8 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77:D82"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4967,7 +4968,9 @@
       <c r="F120" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G120" s="47"/>
+      <c r="G120" s="47" t="s">
+        <v>234</v>
+      </c>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
     </row>
@@ -5153,9 +5156,11 @@
         <v>224</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="H129" s="47"/>
+        <v>233</v>
+      </c>
+      <c r="H129" s="51">
+        <v>42667</v>
+      </c>
       <c r="I129" s="47"/>
     </row>
     <row r="130" spans="1:9" ht="18.95" customHeight="1">

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="3690"/>
   </bookViews>
@@ -12,11 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="239">
   <si>
     <t>系统</t>
   </si>
@@ -910,10 +911,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>范翔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>完成时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -930,13 +927,34 @@
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>孟月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购记录
+延迟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/portal/reception/init</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选状态选中有问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单为空未验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -987,6 +1005,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1291,12 +1322,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1465,9 +1499,13 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2791,18 +2829,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
@@ -2810,11 +2848,13 @@
     <col min="4" max="4" width="40.8984375" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" style="44" customWidth="1"/>
     <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="255" width="7.59765625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="7.59765625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" style="7" customWidth="1"/>
+    <col min="10" max="255" width="7.59765625" style="7" customWidth="1"/>
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.25" customHeight="1">
+    <row r="1" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2830,7 +2870,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>209</v>
@@ -2848,16 +2888,16 @@
         <v>221</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="59.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>67</v>
@@ -2875,12 +2915,12 @@
         <v>222</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:9" ht="36.75" customHeight="1">
+    <row r="4" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2894,12 +2934,12 @@
         <v>222</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:9" ht="36.75" customHeight="1">
+    <row r="5" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -2916,7 +2956,7 @@
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25" customHeight="1">
+    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -2932,12 +2972,12 @@
         <v>222</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1">
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2951,12 +2991,12 @@
         <v>222</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
     </row>
-    <row r="8" spans="1:9" ht="42.75" customHeight="1">
+    <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2973,7 +3013,7 @@
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:9" ht="54.75" customHeight="1">
+    <row r="9" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -2989,12 +3029,12 @@
         <v>222</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1">
+    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3008,12 +3048,12 @@
         <v>222</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
     </row>
-    <row r="11" spans="1:9" ht="38.25" customHeight="1">
+    <row r="11" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3030,7 +3070,7 @@
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
     </row>
-    <row r="12" spans="1:9" ht="90.75" customHeight="1">
+    <row r="12" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3046,12 +3086,12 @@
         <v>222</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
     </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1">
+    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3065,12 +3105,12 @@
         <v>222</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1">
+    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3087,7 +3127,7 @@
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1">
+    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3106,7 +3146,7 @@
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1">
+    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3123,7 +3163,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
     </row>
-    <row r="17" spans="1:9" ht="18.95" customHeight="1">
+    <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3140,7 +3180,7 @@
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:9" ht="18.95" customHeight="1">
+    <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>185</v>
@@ -3155,13 +3195,17 @@
         <v>99</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>232</v>
+      </c>
       <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:9" ht="39" customHeight="1">
+      <c r="I18" s="47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3172,13 +3216,15 @@
         <v>99</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
     </row>
-    <row r="20" spans="1:9" ht="18.95" customHeight="1">
+    <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3189,13 +3235,15 @@
         <v>99</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
     </row>
-    <row r="21" spans="1:9" ht="18.95" customHeight="1">
+    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3206,13 +3254,15 @@
         <v>99</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:9" ht="83.25" customHeight="1">
+    <row r="22" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3223,13 +3273,17 @@
         <v>99</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.95" customHeight="1">
+      <c r="I22" s="47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3240,13 +3294,13 @@
         <v>99</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
     </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1">
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3257,13 +3311,13 @@
         <v>105</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
     </row>
-    <row r="25" spans="1:9" ht="21.75" customHeight="1">
+    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3274,13 +3328,13 @@
         <v>215</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
     </row>
-    <row r="26" spans="1:9" ht="34.5" customHeight="1">
+    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3291,13 +3345,13 @@
         <v>105</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3310,13 +3364,13 @@
         <v>103</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3327,13 +3381,13 @@
         <v>103</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
     </row>
-    <row r="29" spans="1:9" ht="37.5" customHeight="1">
+    <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3344,13 +3398,13 @@
         <v>103</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3361,13 +3415,13 @@
         <v>103</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
     </row>
-    <row r="31" spans="1:9" ht="18.95" customHeight="1">
+    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3380,13 +3434,17 @@
         <v>105</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>232</v>
+      </c>
       <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1">
+      <c r="I31" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3397,13 +3455,17 @@
         <v>105</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>232</v>
+      </c>
       <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.95" customHeight="1">
+      <c r="I32" s="47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3416,13 +3478,13 @@
         <v>105</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
     </row>
-    <row r="34" spans="1:9" ht="70.5" customHeight="1">
+    <row r="34" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3433,13 +3495,13 @@
         <v>105</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
     </row>
-    <row r="35" spans="1:9" ht="73.5" customHeight="1">
+    <row r="35" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3450,13 +3512,13 @@
         <v>105</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
     </row>
-    <row r="36" spans="1:9" ht="18.95" customHeight="1">
+    <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
@@ -3469,13 +3531,13 @@
         <v>99</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
     </row>
-    <row r="37" spans="1:9" ht="18.95" customHeight="1">
+    <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3486,13 +3548,13 @@
         <v>99</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
     </row>
-    <row r="38" spans="1:9" ht="18.95" customHeight="1">
+    <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3503,13 +3565,13 @@
         <v>99</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
     </row>
-    <row r="39" spans="1:9" ht="18.95" customHeight="1">
+    <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3520,13 +3582,13 @@
         <v>99</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
-    <row r="40" spans="1:9" ht="18.95" customHeight="1">
+    <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3537,13 +3599,13 @@
         <v>99</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
     </row>
-    <row r="41" spans="1:9" ht="18.95" customHeight="1">
+    <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
@@ -3556,13 +3618,13 @@
         <v>99</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
     </row>
-    <row r="42" spans="1:9" ht="18.95" customHeight="1">
+    <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3573,13 +3635,13 @@
         <v>99</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
     </row>
-    <row r="43" spans="1:9" ht="18.95" customHeight="1">
+    <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
@@ -3592,13 +3654,13 @@
         <v>125</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:9" ht="21.75" customHeight="1">
+    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
@@ -3609,13 +3671,13 @@
         <v>99</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" ht="21.75" customHeight="1">
+    <row r="45" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
@@ -3626,13 +3688,13 @@
         <v>99</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
     </row>
-    <row r="46" spans="1:9" ht="21.75" customHeight="1">
+    <row r="46" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -3643,13 +3705,13 @@
         <v>99</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
     </row>
-    <row r="47" spans="1:9" ht="42" customHeight="1">
+    <row r="47" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
@@ -3658,13 +3720,13 @@
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
     </row>
-    <row r="48" spans="1:9" ht="38.25" customHeight="1">
+    <row r="48" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>186</v>
@@ -3679,13 +3741,13 @@
         <v>105</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -3696,13 +3758,13 @@
         <v>105</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
     </row>
-    <row r="50" spans="1:9" ht="54.75" customHeight="1">
+    <row r="50" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
@@ -3715,13 +3777,13 @@
         <v>105</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -3732,13 +3794,13 @@
         <v>105</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" ht="18.95" customHeight="1">
+    <row r="52" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
@@ -3751,13 +3813,13 @@
         <v>99</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3768,13 +3830,13 @@
         <v>99</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" ht="18.95" customHeight="1">
+    <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3785,13 +3847,13 @@
         <v>99</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:9" ht="18.95" customHeight="1">
+    <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -3804,13 +3866,13 @@
         <v>125</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:9" ht="18.95" customHeight="1">
+    <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
@@ -3821,13 +3883,13 @@
         <v>125</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
       <c r="I56" s="47"/>
     </row>
-    <row r="57" spans="1:9" ht="18.95" customHeight="1">
+    <row r="57" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -3838,13 +3900,13 @@
         <v>125</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
     </row>
-    <row r="58" spans="1:9" ht="18.95" customHeight="1">
+    <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -3855,13 +3917,13 @@
         <v>175</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
     </row>
-    <row r="59" spans="1:9" ht="18.95" customHeight="1">
+    <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -3872,13 +3934,13 @@
         <v>125</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
     </row>
-    <row r="60" spans="1:9" ht="18.95" customHeight="1">
+    <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -3889,13 +3951,13 @@
         <v>125</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" ht="18.95" customHeight="1">
+    <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -3906,13 +3968,13 @@
         <v>125</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" ht="37.5" customHeight="1">
+    <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
@@ -3923,13 +3985,13 @@
         <v>125</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="1:9" ht="37.5" customHeight="1">
+    <row r="63" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
@@ -3939,16 +4001,16 @@
         <v>114</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" ht="21.75" customHeight="1">
+    <row r="64" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
@@ -3956,16 +4018,16 @@
         <v>123</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="1:9" ht="18.95" customHeight="1">
+    <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -3973,16 +4035,16 @@
         <v>115</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="1:9" ht="18.95" customHeight="1">
+    <row r="66" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -3990,16 +4052,16 @@
         <v>116</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
       <c r="I66" s="47"/>
     </row>
-    <row r="67" spans="1:9" ht="18.95" customHeight="1">
+    <row r="67" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4007,16 +4069,16 @@
         <v>126</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" ht="18.95" customHeight="1">
+    <row r="68" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4024,16 +4086,16 @@
         <v>196</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
     </row>
-    <row r="69" spans="1:9" ht="18.95" customHeight="1">
+    <row r="69" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4041,16 +4103,16 @@
         <v>121</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
       <c r="I69" s="47"/>
     </row>
-    <row r="70" spans="1:9" ht="18.95" customHeight="1">
+    <row r="70" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
@@ -4060,16 +4122,16 @@
         <v>118</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
       <c r="I70" s="47"/>
     </row>
-    <row r="71" spans="1:9" ht="18.95" customHeight="1">
+    <row r="71" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4077,101 +4139,101 @@
         <v>119</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="1:9" ht="18.95" customHeight="1">
+    <row r="72" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>130</v>
+      <c r="E72" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
       <c r="I72" s="47"/>
     </row>
-    <row r="73" spans="1:9" ht="20.25" customHeight="1">
+    <row r="73" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="40" t="s">
-        <v>130</v>
+      <c r="E73" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
       <c r="I73" s="47"/>
     </row>
-    <row r="74" spans="1:9" ht="18.95" customHeight="1">
+    <row r="74" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="40" t="s">
-        <v>130</v>
+      <c r="E74" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="40" t="s">
-        <v>130</v>
+      <c r="E75" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
       <c r="I75" s="47"/>
     </row>
-    <row r="76" spans="1:9" ht="18.95" customHeight="1">
+    <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="40" t="s">
-        <v>130</v>
+      <c r="E76" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
       <c r="I76" s="47"/>
     </row>
-    <row r="77" spans="1:9" ht="36" customHeight="1">
+    <row r="77" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
         <v>184</v>
@@ -4189,12 +4251,12 @@
         <v>223</v>
       </c>
       <c r="G77" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
     </row>
-    <row r="78" spans="1:9" ht="18.95" customHeight="1">
+    <row r="78" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
@@ -4208,12 +4270,12 @@
         <v>223</v>
       </c>
       <c r="G78" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
     </row>
-    <row r="79" spans="1:9" ht="18.95" customHeight="1">
+    <row r="79" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4227,12 +4289,12 @@
         <v>223</v>
       </c>
       <c r="G79" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
     </row>
-    <row r="80" spans="1:9" ht="18.95" customHeight="1">
+    <row r="80" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4246,12 +4308,12 @@
         <v>223</v>
       </c>
       <c r="G80" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
     </row>
-    <row r="81" spans="1:9" ht="36" customHeight="1">
+    <row r="81" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4265,12 +4327,12 @@
         <v>223</v>
       </c>
       <c r="G81" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
     </row>
-    <row r="82" spans="1:9" ht="21" customHeight="1" thickBot="1">
+    <row r="82" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4284,12 +4346,12 @@
         <v>223</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
     </row>
-    <row r="83" spans="1:9" ht="18.95" customHeight="1" thickBot="1">
+    <row r="83" spans="1:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
@@ -4308,7 +4370,7 @@
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
     </row>
-    <row r="84" spans="1:9" ht="36.75" customHeight="1">
+    <row r="84" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
@@ -4327,7 +4389,7 @@
       <c r="H84" s="47"/>
       <c r="I84" s="47"/>
     </row>
-    <row r="85" spans="1:9" ht="26.25" customHeight="1">
+    <row r="85" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
@@ -4344,7 +4406,7 @@
       <c r="H85" s="47"/>
       <c r="I85" s="47"/>
     </row>
-    <row r="86" spans="1:9" ht="26.25" customHeight="1">
+    <row r="86" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
@@ -4361,7 +4423,7 @@
       <c r="H86" s="47"/>
       <c r="I86" s="47"/>
     </row>
-    <row r="87" spans="1:9" ht="128.25" customHeight="1">
+    <row r="87" spans="1:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4378,7 +4440,7 @@
       <c r="H87" s="47"/>
       <c r="I87" s="47"/>
     </row>
-    <row r="88" spans="1:9" ht="24" customHeight="1">
+    <row r="88" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4395,7 +4457,7 @@
       <c r="H88" s="47"/>
       <c r="I88" s="47"/>
     </row>
-    <row r="89" spans="1:9" ht="56.25" customHeight="1">
+    <row r="89" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4412,7 +4474,7 @@
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
     </row>
-    <row r="90" spans="1:9" ht="19.5" customHeight="1">
+    <row r="90" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
@@ -4431,7 +4493,7 @@
       <c r="H90" s="47"/>
       <c r="I90" s="47"/>
     </row>
-    <row r="91" spans="1:9" ht="19.5" customHeight="1">
+    <row r="91" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
@@ -4448,7 +4510,7 @@
       <c r="H91" s="47"/>
       <c r="I91" s="47"/>
     </row>
-    <row r="92" spans="1:9" ht="18.95" customHeight="1">
+    <row r="92" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4467,7 +4529,7 @@
       <c r="H92" s="47"/>
       <c r="I92" s="47"/>
     </row>
-    <row r="93" spans="1:9" ht="41.25" customHeight="1">
+    <row r="93" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
@@ -4484,7 +4546,7 @@
       <c r="H93" s="47"/>
       <c r="I93" s="47"/>
     </row>
-    <row r="94" spans="1:9" ht="39" customHeight="1">
+    <row r="94" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4503,7 +4565,7 @@
       <c r="H94" s="47"/>
       <c r="I94" s="47"/>
     </row>
-    <row r="95" spans="1:9" ht="37.5" customHeight="1">
+    <row r="95" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
@@ -4522,7 +4584,7 @@
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
     </row>
-    <row r="96" spans="1:9" ht="38.25" customHeight="1">
+    <row r="96" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
@@ -4539,7 +4601,7 @@
       <c r="H96" s="47"/>
       <c r="I96" s="47"/>
     </row>
-    <row r="97" spans="1:9" ht="69.75" customHeight="1">
+    <row r="97" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
@@ -4556,7 +4618,7 @@
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
     </row>
-    <row r="98" spans="1:9" ht="19.5" customHeight="1">
+    <row r="98" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
@@ -4573,7 +4635,7 @@
       <c r="H98" s="47"/>
       <c r="I98" s="47"/>
     </row>
-    <row r="99" spans="1:9" ht="19.5" customHeight="1">
+    <row r="99" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
@@ -4592,7 +4654,7 @@
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
     </row>
-    <row r="100" spans="1:9" ht="19.5" customHeight="1">
+    <row r="100" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
@@ -4609,7 +4671,7 @@
       <c r="H100" s="47"/>
       <c r="I100" s="47"/>
     </row>
-    <row r="101" spans="1:9" ht="19.5" customHeight="1">
+    <row r="101" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
@@ -4626,7 +4688,7 @@
       <c r="H101" s="47"/>
       <c r="I101" s="47"/>
     </row>
-    <row r="102" spans="1:9" ht="19.5" customHeight="1">
+    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
@@ -4645,7 +4707,7 @@
       <c r="H102" s="47"/>
       <c r="I102" s="47"/>
     </row>
-    <row r="103" spans="1:9" ht="19.5" customHeight="1">
+    <row r="103" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -4662,7 +4724,7 @@
       <c r="H103" s="47"/>
       <c r="I103" s="47"/>
     </row>
-    <row r="104" spans="1:9" ht="34.5" customHeight="1">
+    <row r="104" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>68</v>
@@ -4683,7 +4745,7 @@
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
     </row>
-    <row r="105" spans="1:9" ht="18.95" customHeight="1">
+    <row r="105" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
@@ -4700,7 +4762,7 @@
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
     </row>
-    <row r="106" spans="1:9" ht="18.95" customHeight="1">
+    <row r="106" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
@@ -4717,7 +4779,7 @@
       <c r="H106" s="47"/>
       <c r="I106" s="47"/>
     </row>
-    <row r="107" spans="1:9" ht="18.95" customHeight="1">
+    <row r="107" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
@@ -4736,7 +4798,7 @@
       <c r="H107" s="47"/>
       <c r="I107" s="47"/>
     </row>
-    <row r="108" spans="1:9" ht="18.95" customHeight="1">
+    <row r="108" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
@@ -4755,7 +4817,7 @@
       <c r="H108" s="47"/>
       <c r="I108" s="47"/>
     </row>
-    <row r="109" spans="1:9" ht="18.95" customHeight="1">
+    <row r="109" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
@@ -4774,7 +4836,7 @@
       <c r="H109" s="47"/>
       <c r="I109" s="47"/>
     </row>
-    <row r="110" spans="1:9" ht="21.95" customHeight="1">
+    <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
         <v>69</v>
@@ -4795,7 +4857,7 @@
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
     </row>
-    <row r="111" spans="1:9" ht="21.95" customHeight="1">
+    <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
       <c r="C111" s="53"/>
@@ -4812,7 +4874,7 @@
       <c r="H111" s="47"/>
       <c r="I111" s="47"/>
     </row>
-    <row r="112" spans="1:9" ht="21.95" customHeight="1">
+    <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
       <c r="C112" s="53"/>
@@ -4829,7 +4891,7 @@
       <c r="H112" s="47"/>
       <c r="I112" s="47"/>
     </row>
-    <row r="113" spans="1:9" ht="21.95" customHeight="1">
+    <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
@@ -4845,7 +4907,7 @@
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
     </row>
-    <row r="114" spans="1:9" ht="21.95" customHeight="1">
+    <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
@@ -4861,7 +4923,7 @@
       <c r="H114" s="47"/>
       <c r="I114" s="47"/>
     </row>
-    <row r="115" spans="1:9" ht="21.95" customHeight="1">
+    <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
@@ -4877,7 +4939,7 @@
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
     </row>
-    <row r="116" spans="1:9" ht="21.95" customHeight="1">
+    <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
@@ -4893,7 +4955,7 @@
       <c r="H116" s="47"/>
       <c r="I116" s="47"/>
     </row>
-    <row r="117" spans="1:9" ht="21.95" customHeight="1">
+    <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
@@ -4909,7 +4971,7 @@
       <c r="H117" s="47"/>
       <c r="I117" s="47"/>
     </row>
-    <row r="118" spans="1:9" ht="24" customHeight="1">
+    <row r="118" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
         <v>31</v>
@@ -4927,14 +4989,14 @@
         <v>224</v>
       </c>
       <c r="G118" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H118" s="51">
         <v>42651</v>
       </c>
       <c r="I118" s="47"/>
     </row>
-    <row r="119" spans="1:9" ht="25.5" customHeight="1">
+    <row r="119" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
       <c r="C119" s="55"/>
@@ -4948,14 +5010,14 @@
         <v>224</v>
       </c>
       <c r="G119" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H119" s="51">
         <v>42651</v>
       </c>
       <c r="I119" s="47"/>
     </row>
-    <row r="120" spans="1:9" ht="18" customHeight="1">
+    <row r="120" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
       <c r="C120" s="55"/>
@@ -4969,12 +5031,12 @@
         <v>224</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
     </row>
-    <row r="121" spans="1:9" ht="18" customHeight="1">
+    <row r="121" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
       <c r="C121" s="55"/>
@@ -4988,14 +5050,14 @@
         <v>224</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H121" s="51">
         <v>42655</v>
       </c>
       <c r="I121" s="47"/>
     </row>
-    <row r="122" spans="1:9" ht="18" customHeight="1">
+    <row r="122" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
       <c r="C122" s="55"/>
@@ -5009,14 +5071,14 @@
         <v>224</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H122" s="51">
         <v>42655</v>
       </c>
       <c r="I122" s="47"/>
     </row>
-    <row r="123" spans="1:9" ht="18" customHeight="1">
+    <row r="123" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
       <c r="C123" s="55"/>
@@ -5030,14 +5092,14 @@
         <v>224</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H123" s="51">
         <v>42655</v>
       </c>
       <c r="I123" s="47"/>
     </row>
-    <row r="124" spans="1:9" ht="18" customHeight="1">
+    <row r="124" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
       <c r="C124" s="55"/>
@@ -5051,14 +5113,14 @@
         <v>224</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H124" s="51">
         <v>42656</v>
       </c>
       <c r="I124" s="47"/>
     </row>
-    <row r="125" spans="1:9" ht="18" customHeight="1">
+    <row r="125" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
       <c r="C125" s="55"/>
@@ -5072,14 +5134,14 @@
         <v>224</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H125" s="51">
         <v>42657</v>
       </c>
       <c r="I125" s="47"/>
     </row>
-    <row r="126" spans="1:9" ht="18" customHeight="1">
+    <row r="126" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
       <c r="C126" s="55"/>
@@ -5093,14 +5155,14 @@
         <v>224</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H126" s="51">
         <v>42661</v>
       </c>
       <c r="I126" s="47"/>
     </row>
-    <row r="127" spans="1:9" ht="18" customHeight="1">
+    <row r="127" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
       <c r="C127" s="55"/>
@@ -5114,14 +5176,14 @@
         <v>224</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H127" s="51">
         <v>42661</v>
       </c>
       <c r="I127" s="47"/>
     </row>
-    <row r="128" spans="1:9" ht="18" customHeight="1">
+    <row r="128" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
@@ -5135,14 +5197,14 @@
         <v>224</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H128" s="51">
         <v>42664</v>
       </c>
       <c r="I128" s="47"/>
     </row>
-    <row r="129" spans="1:9" ht="18.95" customHeight="1">
+    <row r="129" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
@@ -5156,14 +5218,14 @@
         <v>224</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H129" s="51">
         <v>42667</v>
       </c>
       <c r="I129" s="47"/>
     </row>
-    <row r="130" spans="1:9" ht="18.95" customHeight="1">
+    <row r="130" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
@@ -5182,7 +5244,7 @@
       <c r="H130" s="47"/>
       <c r="I130" s="47"/>
     </row>
-    <row r="131" spans="1:9" ht="18.95" customHeight="1">
+    <row r="131" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
@@ -5199,7 +5261,7 @@
       <c r="H131" s="47"/>
       <c r="I131" s="47"/>
     </row>
-    <row r="132" spans="1:9" ht="18.95" customHeight="1">
+    <row r="132" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
         <v>70</v>
@@ -5220,7 +5282,7 @@
       <c r="H132" s="47"/>
       <c r="I132" s="47"/>
     </row>
-    <row r="133" spans="1:9" ht="18.95" customHeight="1">
+    <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -5237,7 +5299,7 @@
       <c r="H133" s="47"/>
       <c r="I133" s="47"/>
     </row>
-    <row r="134" spans="1:9" ht="71.25" customHeight="1">
+    <row r="134" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5254,7 +5316,7 @@
       <c r="H134" s="47"/>
       <c r="I134" s="47"/>
     </row>
-    <row r="135" spans="1:9" ht="18.95" customHeight="1">
+    <row r="135" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5271,7 +5333,7 @@
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
     </row>
-    <row r="136" spans="1:9" ht="18.95" customHeight="1">
+    <row r="136" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -5288,7 +5350,7 @@
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
     </row>
-    <row r="137" spans="1:9" ht="18.95" customHeight="1">
+    <row r="137" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
@@ -5307,7 +5369,7 @@
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
     </row>
-    <row r="138" spans="1:9" ht="18.95" customHeight="1">
+    <row r="138" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5324,7 +5386,7 @@
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
     </row>
-    <row r="139" spans="1:9" ht="18.95" customHeight="1">
+    <row r="139" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -5341,7 +5403,7 @@
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
     </row>
-    <row r="140" spans="1:9" ht="18.95" customHeight="1">
+    <row r="140" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
@@ -5360,7 +5422,7 @@
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
     </row>
-    <row r="141" spans="1:9" ht="18.95" customHeight="1">
+    <row r="141" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5377,7 +5439,7 @@
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
     </row>
-    <row r="142" spans="1:9" ht="18.95" customHeight="1">
+    <row r="142" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -5394,7 +5456,7 @@
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
     </row>
-    <row r="143" spans="1:9" ht="18.95" customHeight="1">
+    <row r="143" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
@@ -5413,7 +5475,7 @@
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
     </row>
-    <row r="144" spans="1:9" ht="38.25" customHeight="1">
+    <row r="144" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5430,7 +5492,7 @@
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
     </row>
-    <row r="145" spans="1:9" ht="18.95" customHeight="1">
+    <row r="145" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -5447,7 +5509,7 @@
       <c r="H145" s="47"/>
       <c r="I145" s="47"/>
     </row>
-    <row r="146" spans="1:9" ht="18.95" customHeight="1">
+    <row r="146" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
@@ -5466,7 +5528,7 @@
       <c r="H146" s="47"/>
       <c r="I146" s="47"/>
     </row>
-    <row r="147" spans="1:9" ht="18.95" customHeight="1">
+    <row r="147" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5483,7 +5545,7 @@
       <c r="H147" s="47"/>
       <c r="I147" s="47"/>
     </row>
-    <row r="148" spans="1:9" ht="18.95" customHeight="1">
+    <row r="148" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -5502,7 +5564,7 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
     </row>
-    <row r="149" spans="1:9" ht="18.95" customHeight="1">
+    <row r="149" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5519,7 +5581,7 @@
       <c r="H149" s="47"/>
       <c r="I149" s="47"/>
     </row>
-    <row r="150" spans="1:9" ht="18.95" customHeight="1">
+    <row r="150" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5536,7 +5598,7 @@
       <c r="H150" s="47"/>
       <c r="I150" s="47"/>
     </row>
-    <row r="151" spans="1:9" ht="18.95" customHeight="1">
+    <row r="151" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -5553,7 +5615,7 @@
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
     </row>
-    <row r="152" spans="1:9" ht="18.95" customHeight="1">
+    <row r="152" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
@@ -5572,7 +5634,7 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
     </row>
-    <row r="153" spans="1:9" ht="18.95" customHeight="1">
+    <row r="153" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
@@ -5591,7 +5653,7 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
     </row>
-    <row r="154" spans="1:9" ht="18.95" customHeight="1">
+    <row r="154" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -5608,7 +5670,7 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
     </row>
-    <row r="155" spans="1:9" ht="18.95" customHeight="1">
+    <row r="155" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
@@ -5638,8 +5700,11 @@
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I31" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -5647,84 +5712,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5742,84 +5807,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="240">
   <si>
     <t>系统</t>
   </si>
@@ -58,9 +58,6 @@
     <t>首次查询-录入电话号码</t>
   </si>
   <si>
-    <t>开始接待</t>
-  </si>
-  <si>
     <t>选择购买商品</t>
   </si>
   <si>
@@ -251,10 +248,6 @@
   </si>
   <si>
     <t>仓库管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定业务员显示</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -860,93 +853,105 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>登门表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出单表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库明细表（按照商品、礼品订单类别分别统计）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗文强</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗文强</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏政委</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>订单修改管理</t>
+  </si>
+  <si>
+    <t>展厅客户对接业绩详情表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>孟月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购记录
+延迟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/portal/reception/init</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选状态选中有问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单为空未验证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面已经完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定业务员显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始接待</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>首次登门－录入基本信息（姓名，生日，电话，地区）
 标明是否黑名单客户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登门表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出单表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库明细表（按照商品、礼品订单类别分别统计）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗文强</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗文强</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏政委</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>订单修改管理</t>
-  </si>
-  <si>
-    <t>展厅客户对接业绩详情表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>孟月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购记录
-延迟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/portal/reception/init</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选状态选中有问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单为空未验证</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2837,7 +2842,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2873,49 +2878,49 @@
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>212</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -2925,16 +2930,16 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -2944,13 +2949,13 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
@@ -2963,16 +2968,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>99</v>
-      </c>
       <c r="F6" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -2982,16 +2987,16 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -3001,13 +3006,13 @@
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -3017,19 +3022,19 @@
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -3039,16 +3044,16 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -3058,13 +3063,13 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -3074,19 +3079,19 @@
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -3096,16 +3101,16 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -3118,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
@@ -3131,16 +3136,16 @@
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>102</v>
-      </c>
       <c r="F15" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
@@ -3151,13 +3156,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -3168,13 +3173,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
       <c r="D17" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
@@ -3183,7 +3188,7 @@
     <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>8</v>
@@ -3192,17 +3197,17 @@
         <v>9</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3210,35 +3215,37 @@
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="I19" s="47" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
@@ -3248,16 +3255,16 @@
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -3267,20 +3274,20 @@
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3288,13 +3295,13 @@
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
@@ -3305,13 +3312,13 @@
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
       <c r="D24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
@@ -3322,13 +3329,13 @@
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
@@ -3339,13 +3346,13 @@
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
       <c r="D26" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -3355,16 +3362,16 @@
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="E27" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -3375,13 +3382,13 @@
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
       <c r="D28" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -3392,13 +3399,13 @@
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
       <c r="D29" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
@@ -3409,13 +3416,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
       <c r="D30" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -3425,23 +3432,23 @@
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="56" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3449,36 +3456,36 @@
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
@@ -3489,13 +3496,13 @@
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
       <c r="D34" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
@@ -3506,13 +3513,13 @@
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
       <c r="D35" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
@@ -3525,13 +3532,13 @@
         <v>7</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
@@ -3542,13 +3549,13 @@
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
@@ -3559,13 +3566,13 @@
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -3576,13 +3583,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3593,13 +3600,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -3609,16 +3616,16 @@
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
@@ -3629,13 +3636,13 @@
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
       <c r="D42" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -3645,16 +3652,16 @@
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -3665,13 +3672,13 @@
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
       <c r="D44" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
@@ -3682,13 +3689,13 @@
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
       <c r="D45" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
@@ -3699,13 +3706,13 @@
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
       <c r="D46" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
@@ -3716,11 +3723,11 @@
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
       <c r="D47" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
@@ -3729,19 +3736,19 @@
     <row r="48" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
@@ -3752,13 +3759,13 @@
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
       <c r="D49" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -3768,16 +3775,16 @@
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
@@ -3788,13 +3795,13 @@
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
       <c r="D51" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
@@ -3804,16 +3811,16 @@
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
@@ -3824,13 +3831,13 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
@@ -3841,13 +3848,13 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
@@ -3857,16 +3864,16 @@
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="E55" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
@@ -3877,13 +3884,13 @@
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
       <c r="D56" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
@@ -3894,13 +3901,13 @@
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
       <c r="D57" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
@@ -3911,13 +3918,13 @@
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
       <c r="D58" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
@@ -3928,13 +3935,13 @@
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
       <c r="D59" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
@@ -3945,13 +3952,13 @@
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
       <c r="D60" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
@@ -3962,13 +3969,13 @@
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
       <c r="D61" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
@@ -3979,13 +3986,13 @@
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
       <c r="D62" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
@@ -3995,16 +4002,16 @@
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
@@ -4015,13 +4022,13 @@
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
       <c r="D64" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
@@ -4032,13 +4039,13 @@
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
       <c r="D65" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
@@ -4049,13 +4056,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
       <c r="D66" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
@@ -4066,13 +4073,13 @@
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
       <c r="D67" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
@@ -4083,13 +4090,13 @@
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
@@ -4100,13 +4107,13 @@
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
       <c r="D69" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
@@ -4116,16 +4123,16 @@
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
@@ -4136,13 +4143,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
@@ -4153,13 +4160,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
@@ -4170,13 +4177,13 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
@@ -4187,13 +4194,13 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
@@ -4204,13 +4211,13 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
@@ -4221,13 +4228,13 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
@@ -4236,22 +4243,22 @@
     <row r="77" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G77" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
@@ -4261,16 +4268,16 @@
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
       <c r="D78" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G78" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
@@ -4280,16 +4287,16 @@
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
       <c r="D79" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G79" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
@@ -4299,16 +4306,16 @@
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
       <c r="D80" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G80" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
@@ -4318,16 +4325,16 @@
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
       <c r="D81" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G81" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
@@ -4337,16 +4344,16 @@
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
       <c r="D82" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
@@ -4355,16 +4362,16 @@
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G83" s="47"/>
       <c r="H83" s="47"/>
@@ -4374,16 +4381,16 @@
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F84" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G84" s="47"/>
       <c r="H84" s="47"/>
@@ -4394,13 +4401,13 @@
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
       <c r="D85" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F85" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
@@ -4411,13 +4418,13 @@
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
       <c r="D86" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G86" s="47"/>
       <c r="H86" s="47"/>
@@ -4428,13 +4435,13 @@
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
       <c r="D87" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
@@ -4445,13 +4452,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
       <c r="D88" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
@@ -4462,13 +4469,13 @@
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
       <c r="D89" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
@@ -4478,16 +4485,16 @@
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
@@ -4498,13 +4505,13 @@
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
       <c r="D91" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
@@ -4514,16 +4521,16 @@
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
@@ -4534,13 +4541,13 @@
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
       <c r="D93" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
@@ -4550,16 +4557,16 @@
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
@@ -4569,16 +4576,16 @@
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
@@ -4589,13 +4596,13 @@
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
       <c r="D96" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
@@ -4606,13 +4613,13 @@
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
       <c r="D97" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
@@ -4623,13 +4630,13 @@
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
       <c r="D98" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
@@ -4639,16 +4646,16 @@
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
@@ -4659,13 +4666,13 @@
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
       <c r="D100" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
@@ -4676,13 +4683,13 @@
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
       <c r="D101" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
@@ -4692,16 +4699,16 @@
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
@@ -4712,13 +4719,13 @@
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
       <c r="D103" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
@@ -4727,19 +4734,19 @@
     <row r="104" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="E104" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
@@ -4750,13 +4757,13 @@
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
       <c r="D105" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
@@ -4767,13 +4774,13 @@
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
       <c r="D106" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
@@ -4783,16 +4790,16 @@
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E107" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
@@ -4802,16 +4809,16 @@
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E108" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
@@ -4821,16 +4828,16 @@
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
@@ -4839,19 +4846,19 @@
     <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G110" s="47"/>
       <c r="H110" s="47"/>
@@ -4862,13 +4869,13 @@
       <c r="B111" s="11"/>
       <c r="C111" s="53"/>
       <c r="D111" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
@@ -4879,13 +4886,13 @@
       <c r="B112" s="11"/>
       <c r="C112" s="53"/>
       <c r="D112" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G112" s="47"/>
       <c r="H112" s="47"/>
@@ -4895,13 +4902,13 @@
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" s="47"/>
       <c r="H113" s="47"/>
@@ -4911,13 +4918,13 @@
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" s="47"/>
       <c r="H114" s="47"/>
@@ -4927,13 +4934,13 @@
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
@@ -4943,13 +4950,13 @@
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" s="47"/>
       <c r="H116" s="47"/>
@@ -4959,13 +4966,13 @@
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
@@ -4974,22 +4981,22 @@
     <row r="118" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H118" s="51">
         <v>42651</v>
@@ -5001,16 +5008,16 @@
       <c r="B119" s="31"/>
       <c r="C119" s="55"/>
       <c r="D119" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H119" s="51">
         <v>42651</v>
@@ -5022,16 +5029,16 @@
       <c r="B120" s="31"/>
       <c r="C120" s="55"/>
       <c r="D120" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
@@ -5041,16 +5048,16 @@
       <c r="B121" s="31"/>
       <c r="C121" s="55"/>
       <c r="D121" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H121" s="51">
         <v>42655</v>
@@ -5062,16 +5069,16 @@
       <c r="B122" s="31"/>
       <c r="C122" s="55"/>
       <c r="D122" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H122" s="51">
         <v>42655</v>
@@ -5083,16 +5090,16 @@
       <c r="B123" s="31"/>
       <c r="C123" s="55"/>
       <c r="D123" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H123" s="51">
         <v>42655</v>
@@ -5104,16 +5111,16 @@
       <c r="B124" s="31"/>
       <c r="C124" s="55"/>
       <c r="D124" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H124" s="51">
         <v>42656</v>
@@ -5125,16 +5132,16 @@
       <c r="B125" s="31"/>
       <c r="C125" s="55"/>
       <c r="D125" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H125" s="51">
         <v>42657</v>
@@ -5146,16 +5153,16 @@
       <c r="B126" s="31"/>
       <c r="C126" s="55"/>
       <c r="D126" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H126" s="51">
         <v>42661</v>
@@ -5167,16 +5174,16 @@
       <c r="B127" s="31"/>
       <c r="C127" s="55"/>
       <c r="D127" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H127" s="51">
         <v>42661</v>
@@ -5188,16 +5195,16 @@
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
       <c r="D128" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H128" s="51">
         <v>42664</v>
@@ -5209,16 +5216,16 @@
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
       <c r="D129" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H129" s="51">
         <v>42667</v>
@@ -5229,16 +5236,16 @@
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G130" s="47"/>
       <c r="H130" s="47"/>
@@ -5249,13 +5256,13 @@
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
       <c r="D131" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G131" s="47"/>
       <c r="H131" s="47"/>
@@ -5264,19 +5271,19 @@
     <row r="132" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C132" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="E132" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
@@ -5287,13 +5294,13 @@
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E133" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
@@ -5304,13 +5311,13 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
@@ -5321,13 +5328,13 @@
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
@@ -5338,13 +5345,13 @@
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
       <c r="D136" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
@@ -5354,16 +5361,16 @@
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="E137" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
@@ -5374,13 +5381,13 @@
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
@@ -5391,13 +5398,13 @@
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
       <c r="D139" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
@@ -5407,16 +5414,16 @@
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="E140" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
@@ -5427,13 +5434,13 @@
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
@@ -5444,13 +5451,13 @@
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E142" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
@@ -5460,16 +5467,16 @@
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D143" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="E143" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
@@ -5480,13 +5487,13 @@
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
@@ -5497,13 +5504,13 @@
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
       <c r="D145" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
@@ -5513,16 +5520,16 @@
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="E146" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
@@ -5533,13 +5540,13 @@
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
@@ -5549,16 +5556,16 @@
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E148" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
@@ -5569,13 +5576,13 @@
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
@@ -5586,13 +5593,13 @@
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
@@ -5603,13 +5610,13 @@
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
       <c r="D151" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
@@ -5619,16 +5626,16 @@
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E152" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
@@ -5638,16 +5645,16 @@
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D153" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E153" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
@@ -5658,13 +5665,13 @@
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
       <c r="D154" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
@@ -5674,16 +5681,16 @@
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D155" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="E155" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="246">
   <si>
     <t>系统</t>
   </si>
@@ -926,15 +926,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:8080/portal/reception/init</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>复选状态选中有问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单为空未验证</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -952,6 +944,84 @@
   <si>
     <t>首次登门－录入基本信息（姓名，生日，电话，地区）
 标明是否黑名单客户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/portal/reception/init</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/portal/visit/query</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车按钮有问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>portal/visit/first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+新加用户：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>portal/visit/add</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面略丑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/visit/first</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/visit/second
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本信息、接待信息已经完毕。
+还差订单内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1090,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1045,7 +1115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1326,6 +1396,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1335,7 +1420,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1504,8 +1589,14 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2838,11 +2929,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2855,11 +2946,12 @@
     <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.59765625" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.796875" style="7" customWidth="1"/>
-    <col min="10" max="255" width="7.59765625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="56" customWidth="1"/>
+    <col min="11" max="255" width="7.59765625" style="7" customWidth="1"/>
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2874,8 +2966,9 @@
         <v>3</v>
       </c>
       <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>207</v>
@@ -2901,8 +2994,11 @@
       <c r="I2" s="39" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -2924,8 +3020,9 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2943,8 +3040,9 @@
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -2960,8 +3058,9 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -2981,8 +3080,9 @@
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3000,8 +3100,9 @@
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3017,8 +3118,9 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3038,8 +3140,9 @@
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3057,8 +3160,9 @@
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3074,8 +3178,9 @@
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3095,8 +3200,9 @@
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3114,8 +3220,9 @@
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3131,8 +3238,9 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3150,8 +3258,9 @@
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3167,8 +3276,9 @@
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3184,8 +3294,9 @@
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>183</v>
@@ -3207,15 +3318,18 @@
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>97</v>
@@ -3224,19 +3338,22 @@
         <v>231</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>97</v>
@@ -3245,17 +3362,22 @@
         <v>231</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>97</v>
@@ -3264,12 +3386,13 @@
         <v>231</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3289,8 +3412,11 @@
       <c r="I22" s="47" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3306,8 +3432,9 @@
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3323,8 +3450,9 @@
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-    </row>
-    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3340,8 +3468,9 @@
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-    </row>
-    <row r="26" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3357,8 +3486,9 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="58"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3376,8 +3506,9 @@
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="58"/>
+    </row>
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3393,8 +3524,9 @@
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="58"/>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3410,8 +3542,9 @@
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3427,8 +3560,9 @@
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="58"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3447,11 +3581,12 @@
         <v>229</v>
       </c>
       <c r="H31" s="47"/>
-      <c r="I31" s="56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="57"/>
+      <c r="J31" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3469,10 +3604,11 @@
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="J32" s="58"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3490,8 +3626,9 @@
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
-    </row>
-    <row r="34" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3507,8 +3644,9 @@
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3524,8 +3662,9 @@
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
@@ -3543,8 +3682,9 @@
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="58"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3560,8 +3700,9 @@
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="58"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3577,8 +3718,9 @@
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="58"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3594,8 +3736,9 @@
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3611,8 +3754,9 @@
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="58"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
@@ -3630,8 +3774,9 @@
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3647,8 +3792,9 @@
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
@@ -3666,8 +3812,9 @@
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
-    </row>
-    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
@@ -3683,8 +3830,9 @@
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
-    </row>
-    <row r="45" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
@@ -3700,8 +3848,9 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-    </row>
-    <row r="46" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -3717,8 +3866,9 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
@@ -3732,8 +3882,9 @@
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
-    </row>
-    <row r="48" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>184</v>
@@ -3753,8 +3904,9 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -3770,8 +3922,9 @@
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
-    </row>
-    <row r="50" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
@@ -3789,8 +3942,9 @@
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="58"/>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -3806,8 +3960,9 @@
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="58"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
@@ -3825,8 +3980,9 @@
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
-    </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3842,8 +3998,9 @@
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="58"/>
+    </row>
+    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3859,8 +4016,9 @@
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
-    </row>
-    <row r="55" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="58"/>
+    </row>
+    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -3878,8 +4036,9 @@
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="58"/>
+    </row>
+    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
@@ -3895,8 +4054,9 @@
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
       <c r="I56" s="47"/>
-    </row>
-    <row r="57" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="58"/>
+    </row>
+    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -3912,8 +4072,9 @@
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="58"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -3929,8 +4090,9 @@
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="58"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -3946,8 +4108,9 @@
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
-    </row>
-    <row r="60" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="58"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -3963,8 +4126,9 @@
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
-    </row>
-    <row r="61" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="58"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -3980,8 +4144,9 @@
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
-    </row>
-    <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="58"/>
+    </row>
+    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
@@ -3997,8 +4162,9 @@
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
-    </row>
-    <row r="63" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="58"/>
+    </row>
+    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
@@ -4016,8 +4182,9 @@
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
       <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="58"/>
+    </row>
+    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
@@ -4033,8 +4200,9 @@
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="58"/>
+    </row>
+    <row r="65" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4050,8 +4218,9 @@
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
       <c r="I65" s="47"/>
-    </row>
-    <row r="66" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="58"/>
+    </row>
+    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4067,8 +4236,9 @@
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
       <c r="I66" s="47"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="58"/>
+    </row>
+    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4084,8 +4254,9 @@
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
       <c r="I67" s="47"/>
-    </row>
-    <row r="68" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="58"/>
+    </row>
+    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4101,8 +4272,9 @@
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
-    </row>
-    <row r="69" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="58"/>
+    </row>
+    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4118,8 +4290,9 @@
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
       <c r="I69" s="47"/>
-    </row>
-    <row r="70" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="58"/>
+    </row>
+    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
@@ -4137,8 +4310,9 @@
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
       <c r="I70" s="47"/>
-    </row>
-    <row r="71" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="58"/>
+    </row>
+    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4154,8 +4328,9 @@
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
-    </row>
-    <row r="72" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="58"/>
+    </row>
+    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4171,8 +4346,9 @@
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
       <c r="I72" s="47"/>
-    </row>
-    <row r="73" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="58"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4188,8 +4364,9 @@
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
       <c r="I73" s="47"/>
-    </row>
-    <row r="74" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="58"/>
+    </row>
+    <row r="74" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4205,8 +4382,9 @@
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="58"/>
+    </row>
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4222,8 +4400,9 @@
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
       <c r="I75" s="47"/>
-    </row>
-    <row r="76" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="58"/>
+    </row>
+    <row r="76" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4239,8 +4418,9 @@
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
       <c r="I76" s="47"/>
-    </row>
-    <row r="77" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="58"/>
+    </row>
+    <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
         <v>182</v>
@@ -4262,8 +4442,9 @@
       </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="58"/>
+    </row>
+    <row r="78" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
@@ -4281,8 +4462,9 @@
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
-    </row>
-    <row r="79" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="58"/>
+    </row>
+    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4300,8 +4482,9 @@
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
-    </row>
-    <row r="80" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="58"/>
+    </row>
+    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4319,8 +4502,9 @@
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
-    </row>
-    <row r="81" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="58"/>
+    </row>
+    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4338,8 +4522,9 @@
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
-    </row>
-    <row r="82" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="58"/>
+    </row>
+    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4357,8 +4542,9 @@
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
-    </row>
-    <row r="83" spans="1:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="58"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
@@ -4376,8 +4562,9 @@
       <c r="G83" s="47"/>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
-    </row>
-    <row r="84" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="58"/>
+    </row>
+    <row r="84" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
@@ -4395,8 +4582,9 @@
       <c r="G84" s="47"/>
       <c r="H84" s="47"/>
       <c r="I84" s="47"/>
-    </row>
-    <row r="85" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="58"/>
+    </row>
+    <row r="85" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
@@ -4412,8 +4600,9 @@
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
       <c r="I85" s="47"/>
-    </row>
-    <row r="86" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="58"/>
+    </row>
+    <row r="86" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
@@ -4429,8 +4618,9 @@
       <c r="G86" s="47"/>
       <c r="H86" s="47"/>
       <c r="I86" s="47"/>
-    </row>
-    <row r="87" spans="1:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="58"/>
+    </row>
+    <row r="87" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4446,8 +4636,9 @@
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
       <c r="I87" s="47"/>
-    </row>
-    <row r="88" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="58"/>
+    </row>
+    <row r="88" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4463,8 +4654,9 @@
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
       <c r="I88" s="47"/>
-    </row>
-    <row r="89" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="58"/>
+    </row>
+    <row r="89" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4480,8 +4672,9 @@
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
-    </row>
-    <row r="90" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="58"/>
+    </row>
+    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
@@ -4499,8 +4692,9 @@
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
       <c r="I90" s="47"/>
-    </row>
-    <row r="91" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="58"/>
+    </row>
+    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
@@ -4516,8 +4710,9 @@
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
       <c r="I91" s="47"/>
-    </row>
-    <row r="92" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="58"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4535,8 +4730,9 @@
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
       <c r="I92" s="47"/>
-    </row>
-    <row r="93" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="58"/>
+    </row>
+    <row r="93" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
@@ -4552,8 +4748,9 @@
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
       <c r="I93" s="47"/>
-    </row>
-    <row r="94" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="58"/>
+    </row>
+    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4571,8 +4768,9 @@
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
       <c r="I94" s="47"/>
-    </row>
-    <row r="95" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="58"/>
+    </row>
+    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
@@ -4590,8 +4788,9 @@
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
-    </row>
-    <row r="96" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="58"/>
+    </row>
+    <row r="96" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
@@ -4607,8 +4806,9 @@
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
       <c r="I96" s="47"/>
-    </row>
-    <row r="97" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="58"/>
+    </row>
+    <row r="97" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
@@ -4624,8 +4824,9 @@
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
-    </row>
-    <row r="98" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="58"/>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
@@ -4641,8 +4842,9 @@
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
       <c r="I98" s="47"/>
-    </row>
-    <row r="99" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="58"/>
+    </row>
+    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
@@ -4660,8 +4862,9 @@
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
-    </row>
-    <row r="100" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="58"/>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
@@ -4677,8 +4880,9 @@
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
       <c r="I100" s="47"/>
-    </row>
-    <row r="101" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="58"/>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
@@ -4694,8 +4898,9 @@
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
       <c r="I101" s="47"/>
-    </row>
-    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="58"/>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
@@ -4713,8 +4918,9 @@
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
       <c r="I102" s="47"/>
-    </row>
-    <row r="103" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="58"/>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -4730,8 +4936,9 @@
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
       <c r="I103" s="47"/>
-    </row>
-    <row r="104" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="58"/>
+    </row>
+    <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>67</v>
@@ -4751,8 +4958,9 @@
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
-    </row>
-    <row r="105" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="58"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
@@ -4768,8 +4976,9 @@
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
-    </row>
-    <row r="106" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="58"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
@@ -4785,8 +4994,9 @@
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
       <c r="I106" s="47"/>
-    </row>
-    <row r="107" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="58"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
@@ -4804,8 +5014,9 @@
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
       <c r="I107" s="47"/>
-    </row>
-    <row r="108" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="58"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
@@ -4823,8 +5034,9 @@
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
       <c r="I108" s="47"/>
-    </row>
-    <row r="109" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="58"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
@@ -4842,8 +5054,9 @@
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
       <c r="I109" s="47"/>
-    </row>
-    <row r="110" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="58"/>
+    </row>
+    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
         <v>68</v>
@@ -4863,8 +5076,9 @@
       <c r="G110" s="47"/>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
-    </row>
-    <row r="111" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="58"/>
+    </row>
+    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
       <c r="C111" s="53"/>
@@ -4880,8 +5094,9 @@
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
       <c r="I111" s="47"/>
-    </row>
-    <row r="112" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="58"/>
+    </row>
+    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
       <c r="C112" s="53"/>
@@ -4897,8 +5112,9 @@
       <c r="G112" s="47"/>
       <c r="H112" s="47"/>
       <c r="I112" s="47"/>
-    </row>
-    <row r="113" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="58"/>
+    </row>
+    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
@@ -4913,8 +5129,9 @@
       <c r="G113" s="47"/>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
-    </row>
-    <row r="114" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="58"/>
+    </row>
+    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
@@ -4929,8 +5146,9 @@
       <c r="G114" s="47"/>
       <c r="H114" s="47"/>
       <c r="I114" s="47"/>
-    </row>
-    <row r="115" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="58"/>
+    </row>
+    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
@@ -4945,8 +5163,9 @@
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
-    </row>
-    <row r="116" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="58"/>
+    </row>
+    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
@@ -4961,8 +5180,9 @@
       <c r="G116" s="47"/>
       <c r="H116" s="47"/>
       <c r="I116" s="47"/>
-    </row>
-    <row r="117" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="58"/>
+    </row>
+    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
@@ -4977,8 +5197,9 @@
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
       <c r="I117" s="47"/>
-    </row>
-    <row r="118" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="58"/>
+    </row>
+    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
         <v>30</v>
@@ -5002,8 +5223,9 @@
         <v>42651</v>
       </c>
       <c r="I118" s="47"/>
-    </row>
-    <row r="119" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="58"/>
+    </row>
+    <row r="119" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
       <c r="C119" s="55"/>
@@ -5023,8 +5245,9 @@
         <v>42651</v>
       </c>
       <c r="I119" s="47"/>
-    </row>
-    <row r="120" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="58"/>
+    </row>
+    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
       <c r="C120" s="55"/>
@@ -5042,8 +5265,9 @@
       </c>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
-    </row>
-    <row r="121" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="58"/>
+    </row>
+    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
       <c r="C121" s="55"/>
@@ -5063,8 +5287,9 @@
         <v>42655</v>
       </c>
       <c r="I121" s="47"/>
-    </row>
-    <row r="122" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="58"/>
+    </row>
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
       <c r="C122" s="55"/>
@@ -5084,8 +5309,9 @@
         <v>42655</v>
       </c>
       <c r="I122" s="47"/>
-    </row>
-    <row r="123" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="58"/>
+    </row>
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
       <c r="C123" s="55"/>
@@ -5105,8 +5331,9 @@
         <v>42655</v>
       </c>
       <c r="I123" s="47"/>
-    </row>
-    <row r="124" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="58"/>
+    </row>
+    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
       <c r="C124" s="55"/>
@@ -5126,8 +5353,9 @@
         <v>42656</v>
       </c>
       <c r="I124" s="47"/>
-    </row>
-    <row r="125" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="58"/>
+    </row>
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
       <c r="C125" s="55"/>
@@ -5147,8 +5375,9 @@
         <v>42657</v>
       </c>
       <c r="I125" s="47"/>
-    </row>
-    <row r="126" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="58"/>
+    </row>
+    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
       <c r="C126" s="55"/>
@@ -5168,8 +5397,9 @@
         <v>42661</v>
       </c>
       <c r="I126" s="47"/>
-    </row>
-    <row r="127" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="58"/>
+    </row>
+    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
       <c r="C127" s="55"/>
@@ -5189,8 +5419,9 @@
         <v>42661</v>
       </c>
       <c r="I127" s="47"/>
-    </row>
-    <row r="128" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="58"/>
+    </row>
+    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
@@ -5210,8 +5441,9 @@
         <v>42664</v>
       </c>
       <c r="I128" s="47"/>
-    </row>
-    <row r="129" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="58"/>
+    </row>
+    <row r="129" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
@@ -5231,8 +5463,9 @@
         <v>42667</v>
       </c>
       <c r="I129" s="47"/>
-    </row>
-    <row r="130" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="58"/>
+    </row>
+    <row r="130" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
@@ -5250,8 +5483,9 @@
       <c r="G130" s="47"/>
       <c r="H130" s="47"/>
       <c r="I130" s="47"/>
-    </row>
-    <row r="131" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="58"/>
+    </row>
+    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
@@ -5267,8 +5501,9 @@
       <c r="G131" s="47"/>
       <c r="H131" s="47"/>
       <c r="I131" s="47"/>
-    </row>
-    <row r="132" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="58"/>
+    </row>
+    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
         <v>69</v>
@@ -5288,8 +5523,9 @@
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
       <c r="I132" s="47"/>
-    </row>
-    <row r="133" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="58"/>
+    </row>
+    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -5305,8 +5541,9 @@
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
       <c r="I133" s="47"/>
-    </row>
-    <row r="134" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="58"/>
+    </row>
+    <row r="134" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5322,8 +5559,9 @@
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
       <c r="I134" s="47"/>
-    </row>
-    <row r="135" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="58"/>
+    </row>
+    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5339,8 +5577,9 @@
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
-    </row>
-    <row r="136" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="58"/>
+    </row>
+    <row r="136" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -5356,8 +5595,9 @@
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
-    </row>
-    <row r="137" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="58"/>
+    </row>
+    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
@@ -5375,8 +5615,9 @@
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
-    </row>
-    <row r="138" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="58"/>
+    </row>
+    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5392,8 +5633,9 @@
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
-    </row>
-    <row r="139" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="58"/>
+    </row>
+    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -5409,8 +5651,9 @@
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
-    </row>
-    <row r="140" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="58"/>
+    </row>
+    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
@@ -5428,8 +5671,9 @@
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
-    </row>
-    <row r="141" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="58"/>
+    </row>
+    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5445,8 +5689,9 @@
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
-    </row>
-    <row r="142" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="58"/>
+    </row>
+    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -5462,8 +5707,9 @@
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-    </row>
-    <row r="143" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="58"/>
+    </row>
+    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
@@ -5481,8 +5727,9 @@
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
-    </row>
-    <row r="144" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="58"/>
+    </row>
+    <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5498,8 +5745,9 @@
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
-    </row>
-    <row r="145" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="58"/>
+    </row>
+    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -5515,8 +5763,9 @@
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
       <c r="I145" s="47"/>
-    </row>
-    <row r="146" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="58"/>
+    </row>
+    <row r="146" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
@@ -5534,8 +5783,9 @@
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
       <c r="I146" s="47"/>
-    </row>
-    <row r="147" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="58"/>
+    </row>
+    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5551,8 +5801,9 @@
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
       <c r="I147" s="47"/>
-    </row>
-    <row r="148" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="58"/>
+    </row>
+    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -5570,8 +5821,9 @@
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
-    </row>
-    <row r="149" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="58"/>
+    </row>
+    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5587,8 +5839,9 @@
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
       <c r="I149" s="47"/>
-    </row>
-    <row r="150" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="58"/>
+    </row>
+    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5604,8 +5857,9 @@
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
       <c r="I150" s="47"/>
-    </row>
-    <row r="151" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="58"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -5621,8 +5875,9 @@
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
-    </row>
-    <row r="152" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="58"/>
+    </row>
+    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
@@ -5640,8 +5895,9 @@
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
-    </row>
-    <row r="153" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="58"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
@@ -5659,8 +5915,9 @@
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
-    </row>
-    <row r="154" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="58"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -5676,8 +5933,9 @@
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
-    </row>
-    <row r="155" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="58"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
@@ -5695,6 +5953,7 @@
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
+      <c r="J155" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5707,11 +5966,8 @@
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I31" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="3690"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="246">
   <si>
     <t>系统</t>
   </si>
@@ -1028,8 +1024,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1577,6 +1573,15 @@
     <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1588,15 +1593,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2925,18 +2921,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
@@ -2946,12 +2942,12 @@
     <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.59765625" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.796875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.796875" style="56" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="52" customWidth="1"/>
     <col min="11" max="255" width="7.59765625" style="7" customWidth="1"/>
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2968,7 +2964,7 @@
       <c r="F1" s="5"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>207</v>
@@ -2998,7 +2994,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -3020,9 +3016,9 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="58"/>
-    </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3040,9 +3036,9 @@
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="58"/>
-    </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -3058,9 +3054,9 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="58"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -3080,9 +3076,9 @@
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="58"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3100,9 +3096,9 @@
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3118,9 +3114,9 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="58"/>
-    </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" ht="54.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3140,9 +3136,9 @@
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="58"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3160,9 +3156,9 @@
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="58"/>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3178,9 +3174,9 @@
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="58"/>
-    </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" ht="90.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3200,9 +3196,9 @@
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.95" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3220,9 +3216,9 @@
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="58"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.95" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3238,9 +3234,9 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="58"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.95" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3258,9 +3254,9 @@
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="58"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3276,9 +3272,9 @@
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.95" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3294,9 +3290,9 @@
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.95" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>183</v>
@@ -3320,11 +3316,11 @@
       <c r="I18" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="39" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3344,11 +3340,11 @@
       <c r="I19" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3368,11 +3364,11 @@
       <c r="I20" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3390,9 +3386,9 @@
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="83.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3412,11 +3408,11 @@
       <c r="I22" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="18.95" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3432,9 +3428,9 @@
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3450,9 +3446,9 @@
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3468,9 +3464,9 @@
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3486,9 +3482,9 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3506,9 +3502,9 @@
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="22.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3524,9 +3520,9 @@
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="58"/>
-    </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3542,9 +3538,9 @@
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="58"/>
-    </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3560,9 +3556,9 @@
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="58"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.95" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3581,12 +3577,12 @@
         <v>229</v>
       </c>
       <c r="H31" s="47"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58" t="s">
+      <c r="I31" s="53"/>
+      <c r="J31" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3606,9 +3602,9 @@
       <c r="I32" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="J32" s="58"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.95" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3626,9 +3622,9 @@
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
-      <c r="J33" s="58"/>
-    </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="1:10" ht="70.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3644,9 +3640,9 @@
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
-      <c r="J34" s="58"/>
-    </row>
-    <row r="35" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="1:10" ht="73.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3662,9 +3658,9 @@
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="58"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.95" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
@@ -3682,9 +3678,9 @@
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="58"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.95" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3700,9 +3696,9 @@
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="58"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.95" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3718,9 +3714,9 @@
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
-      <c r="J38" s="58"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.95" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3736,9 +3732,9 @@
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="58"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="54"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.95" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3754,9 +3750,9 @@
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="58"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="54"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.95" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
@@ -3774,9 +3770,9 @@
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
-      <c r="J41" s="58"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.95" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3792,9 +3788,9 @@
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
-      <c r="J42" s="58"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.95" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
@@ -3812,9 +3808,9 @@
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
@@ -3830,9 +3826,9 @@
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="54"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
@@ -3848,9 +3844,9 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="54"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -3866,9 +3862,9 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="54"/>
+    </row>
+    <row r="47" spans="1:10" ht="42" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
@@ -3882,9 +3878,9 @@
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
-      <c r="J47" s="58"/>
-    </row>
-    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="54"/>
+    </row>
+    <row r="48" spans="1:10" ht="38.25" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>184</v>
@@ -3904,9 +3900,9 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
-      <c r="J48" s="58"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="54"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -3922,9 +3918,9 @@
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
-      <c r="J49" s="58"/>
-    </row>
-    <row r="50" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="54"/>
+    </row>
+    <row r="50" spans="1:10" ht="54.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
@@ -3942,9 +3938,9 @@
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
-      <c r="J50" s="58"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="54"/>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -3960,9 +3956,9 @@
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="58"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="54"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.95" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
@@ -3980,9 +3976,9 @@
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
-      <c r="J52" s="58"/>
-    </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="54"/>
+    </row>
+    <row r="53" spans="1:10" ht="18.95" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3998,9 +3994,9 @@
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
-      <c r="J53" s="58"/>
-    </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="54"/>
+    </row>
+    <row r="54" spans="1:10" ht="18.95" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4016,9 +4012,9 @@
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
-      <c r="J54" s="58"/>
-    </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="54"/>
+    </row>
+    <row r="55" spans="1:10" ht="18.95" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -4036,9 +4032,9 @@
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
-      <c r="J55" s="58"/>
-    </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="54"/>
+    </row>
+    <row r="56" spans="1:10" ht="18.95" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
@@ -4054,9 +4050,9 @@
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="58"/>
-    </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="54"/>
+    </row>
+    <row r="57" spans="1:10" ht="18.95" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -4072,9 +4068,9 @@
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="58"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="54"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -4090,9 +4086,9 @@
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
-      <c r="J58" s="58"/>
-    </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="54"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.95" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -4108,9 +4104,9 @@
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="J59" s="58"/>
-    </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="54"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.95" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -4126,9 +4122,9 @@
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
-      <c r="J60" s="58"/>
-    </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="54"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.95" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -4144,9 +4140,9 @@
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
-      <c r="J61" s="58"/>
-    </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="54"/>
+    </row>
+    <row r="62" spans="1:10" ht="37.5" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
@@ -4162,9 +4158,9 @@
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
-      <c r="J62" s="58"/>
-    </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="54"/>
+    </row>
+    <row r="63" spans="1:10" ht="37.5" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
@@ -4182,9 +4178,9 @@
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
       <c r="I63" s="47"/>
-      <c r="J63" s="58"/>
-    </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="54"/>
+    </row>
+    <row r="64" spans="1:10" ht="21.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
@@ -4200,9 +4196,9 @@
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
-      <c r="J64" s="58"/>
-    </row>
-    <row r="65" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="54"/>
+    </row>
+    <row r="65" spans="1:10" ht="18.95" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4218,9 +4214,9 @@
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
       <c r="I65" s="47"/>
-      <c r="J65" s="58"/>
-    </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="54"/>
+    </row>
+    <row r="66" spans="1:10" ht="18.95" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4236,9 +4232,9 @@
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
       <c r="I66" s="47"/>
-      <c r="J66" s="58"/>
-    </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="54"/>
+    </row>
+    <row r="67" spans="1:10" ht="18.95" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4254,9 +4250,9 @@
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
       <c r="I67" s="47"/>
-      <c r="J67" s="58"/>
-    </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="54"/>
+    </row>
+    <row r="68" spans="1:10" ht="18.95" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4272,9 +4268,9 @@
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
-      <c r="J68" s="58"/>
-    </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="54"/>
+    </row>
+    <row r="69" spans="1:10" ht="18.95" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4290,9 +4286,9 @@
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
       <c r="I69" s="47"/>
-      <c r="J69" s="58"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="54"/>
+    </row>
+    <row r="70" spans="1:10" ht="18.95" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
@@ -4310,9 +4306,9 @@
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
       <c r="I70" s="47"/>
-      <c r="J70" s="58"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="54"/>
+    </row>
+    <row r="71" spans="1:10" ht="18.95" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4328,9 +4324,9 @@
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
-      <c r="J71" s="58"/>
-    </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="54"/>
+    </row>
+    <row r="72" spans="1:10" ht="18.95" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4346,9 +4342,9 @@
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
       <c r="I72" s="47"/>
-      <c r="J72" s="58"/>
-    </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="54"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4364,9 +4360,9 @@
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
       <c r="I73" s="47"/>
-      <c r="J73" s="58"/>
-    </row>
-    <row r="74" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="54"/>
+    </row>
+    <row r="74" spans="1:10" ht="18.95" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4382,9 +4378,9 @@
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
-      <c r="J74" s="58"/>
-    </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="54"/>
+    </row>
+    <row r="75" spans="1:10" ht="18.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4400,9 +4396,9 @@
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
       <c r="I75" s="47"/>
-      <c r="J75" s="58"/>
-    </row>
-    <row r="76" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="54"/>
+    </row>
+    <row r="76" spans="1:10" ht="18.95" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4418,9 +4414,9 @@
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
       <c r="I76" s="47"/>
-      <c r="J76" s="58"/>
-    </row>
-    <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="54"/>
+    </row>
+    <row r="77" spans="1:10" ht="36" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
         <v>182</v>
@@ -4442,9 +4438,9 @@
       </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
-      <c r="J77" s="58"/>
-    </row>
-    <row r="78" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="18.95" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
@@ -4462,9 +4458,9 @@
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
-      <c r="J78" s="58"/>
-    </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="18.95" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4482,9 +4478,9 @@
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
-      <c r="J79" s="58"/>
-    </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="18.95" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4502,9 +4498,9 @@
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
-      <c r="J80" s="58"/>
-    </row>
-    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="54"/>
+    </row>
+    <row r="81" spans="1:10" ht="36" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4522,9 +4518,9 @@
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
-      <c r="J81" s="58"/>
-    </row>
-    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="54"/>
+    </row>
+    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4542,9 +4538,9 @@
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
-      <c r="J82" s="58"/>
-    </row>
-    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="54"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
@@ -4562,9 +4558,9 @@
       <c r="G83" s="47"/>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
-      <c r="J83" s="58"/>
-    </row>
-    <row r="84" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="54"/>
+    </row>
+    <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
@@ -4582,9 +4578,9 @@
       <c r="G84" s="47"/>
       <c r="H84" s="47"/>
       <c r="I84" s="47"/>
-      <c r="J84" s="58"/>
-    </row>
-    <row r="85" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="54"/>
+    </row>
+    <row r="85" spans="1:10" ht="26.25" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
@@ -4600,9 +4596,9 @@
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
       <c r="I85" s="47"/>
-      <c r="J85" s="58"/>
-    </row>
-    <row r="86" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="54"/>
+    </row>
+    <row r="86" spans="1:10" ht="26.25" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
@@ -4618,9 +4614,9 @@
       <c r="G86" s="47"/>
       <c r="H86" s="47"/>
       <c r="I86" s="47"/>
-      <c r="J86" s="58"/>
-    </row>
-    <row r="87" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="54"/>
+    </row>
+    <row r="87" spans="1:10" ht="128.25" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4636,9 +4632,9 @@
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
       <c r="I87" s="47"/>
-      <c r="J87" s="58"/>
-    </row>
-    <row r="88" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="54"/>
+    </row>
+    <row r="88" spans="1:10" ht="24" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4654,9 +4650,9 @@
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
       <c r="I88" s="47"/>
-      <c r="J88" s="58"/>
-    </row>
-    <row r="89" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="54"/>
+    </row>
+    <row r="89" spans="1:10" ht="56.25" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4672,9 +4668,9 @@
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
-      <c r="J89" s="58"/>
-    </row>
-    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="54"/>
+    </row>
+    <row r="90" spans="1:10" ht="19.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
@@ -4692,9 +4688,9 @@
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
       <c r="I90" s="47"/>
-      <c r="J90" s="58"/>
-    </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="54"/>
+    </row>
+    <row r="91" spans="1:10" ht="19.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
@@ -4710,9 +4706,9 @@
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
       <c r="I91" s="47"/>
-      <c r="J91" s="58"/>
-    </row>
-    <row r="92" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="54"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.95" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4730,9 +4726,9 @@
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
       <c r="I92" s="47"/>
-      <c r="J92" s="58"/>
-    </row>
-    <row r="93" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="54"/>
+    </row>
+    <row r="93" spans="1:10" ht="41.25" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
@@ -4748,9 +4744,9 @@
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
       <c r="I93" s="47"/>
-      <c r="J93" s="58"/>
-    </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="54"/>
+    </row>
+    <row r="94" spans="1:10" ht="39" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4768,9 +4764,9 @@
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
       <c r="I94" s="47"/>
-      <c r="J94" s="58"/>
-    </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="54"/>
+    </row>
+    <row r="95" spans="1:10" ht="37.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
@@ -4788,9 +4784,9 @@
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
-      <c r="J95" s="58"/>
-    </row>
-    <row r="96" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="54"/>
+    </row>
+    <row r="96" spans="1:10" ht="38.25" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
@@ -4806,9 +4802,9 @@
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
       <c r="I96" s="47"/>
-      <c r="J96" s="58"/>
-    </row>
-    <row r="97" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="54"/>
+    </row>
+    <row r="97" spans="1:10" ht="69.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
@@ -4824,9 +4820,9 @@
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
-      <c r="J97" s="58"/>
-    </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="54"/>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
@@ -4842,9 +4838,9 @@
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
       <c r="I98" s="47"/>
-      <c r="J98" s="58"/>
-    </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="54"/>
+    </row>
+    <row r="99" spans="1:10" ht="19.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
@@ -4862,9 +4858,9 @@
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
-      <c r="J99" s="58"/>
-    </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="54"/>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
@@ -4880,9 +4876,9 @@
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
       <c r="I100" s="47"/>
-      <c r="J100" s="58"/>
-    </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="54"/>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
@@ -4898,9 +4894,9 @@
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
       <c r="I101" s="47"/>
-      <c r="J101" s="58"/>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="54"/>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
@@ -4918,9 +4914,9 @@
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
       <c r="I102" s="47"/>
-      <c r="J102" s="58"/>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="54"/>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -4936,9 +4932,9 @@
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
       <c r="I103" s="47"/>
-      <c r="J103" s="58"/>
-    </row>
-    <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="54"/>
+    </row>
+    <row r="104" spans="1:10" ht="34.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>67</v>
@@ -4958,9 +4954,9 @@
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
-      <c r="J104" s="58"/>
-    </row>
-    <row r="105" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="54"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.95" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
@@ -4976,9 +4972,9 @@
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
-      <c r="J105" s="58"/>
-    </row>
-    <row r="106" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="54"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.95" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
@@ -4994,9 +4990,9 @@
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
       <c r="I106" s="47"/>
-      <c r="J106" s="58"/>
-    </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="54"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.95" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
@@ -5014,9 +5010,9 @@
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
       <c r="I107" s="47"/>
-      <c r="J107" s="58"/>
-    </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="54"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.95" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
@@ -5034,9 +5030,9 @@
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
       <c r="I108" s="47"/>
-      <c r="J108" s="58"/>
-    </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="54"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.95" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
@@ -5054,14 +5050,14 @@
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
       <c r="I109" s="47"/>
-      <c r="J109" s="58"/>
-    </row>
-    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="54"/>
+    </row>
+    <row r="110" spans="1:10" ht="21.95" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="55" t="s">
         <v>159</v>
       </c>
       <c r="D110" s="22" t="s">
@@ -5073,15 +5069,17 @@
       <c r="F110" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="G110" s="47"/>
+      <c r="G110" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
-      <c r="J110" s="58"/>
-    </row>
-    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="54"/>
+    </row>
+    <row r="111" spans="1:10" ht="21.95" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="53"/>
+      <c r="C111" s="56"/>
       <c r="D111" s="22" t="s">
         <v>23</v>
       </c>
@@ -5091,15 +5089,17 @@
       <c r="F111" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="47"/>
+      <c r="G111" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H111" s="47"/>
       <c r="I111" s="47"/>
-      <c r="J111" s="58"/>
-    </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="54"/>
+    </row>
+    <row r="112" spans="1:10" ht="21.95" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="53"/>
+      <c r="C112" s="56"/>
       <c r="D112" s="22" t="s">
         <v>24</v>
       </c>
@@ -5109,12 +5109,14 @@
       <c r="F112" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="G112" s="47"/>
+      <c r="G112" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H112" s="47"/>
       <c r="I112" s="47"/>
-      <c r="J112" s="58"/>
-    </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="54"/>
+    </row>
+    <row r="113" spans="1:10" ht="21.95" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
@@ -5126,12 +5128,14 @@
       <c r="F113" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="G113" s="47"/>
+      <c r="G113" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
-      <c r="J113" s="58"/>
-    </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="54"/>
+    </row>
+    <row r="114" spans="1:10" ht="21.95" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
@@ -5143,12 +5147,14 @@
       <c r="F114" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="G114" s="47"/>
+      <c r="G114" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H114" s="47"/>
       <c r="I114" s="47"/>
-      <c r="J114" s="58"/>
-    </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="54"/>
+    </row>
+    <row r="115" spans="1:10" ht="21.95" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
@@ -5163,9 +5169,9 @@
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
-      <c r="J115" s="58"/>
-    </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="54"/>
+    </row>
+    <row r="116" spans="1:10" ht="21.95" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
@@ -5180,9 +5186,9 @@
       <c r="G116" s="47"/>
       <c r="H116" s="47"/>
       <c r="I116" s="47"/>
-      <c r="J116" s="58"/>
-    </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="54"/>
+    </row>
+    <row r="117" spans="1:10" ht="21.95" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
@@ -5197,14 +5203,14 @@
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
       <c r="I117" s="47"/>
-      <c r="J117" s="58"/>
-    </row>
-    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="54"/>
+    </row>
+    <row r="118" spans="1:10" ht="24" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="54" t="s">
+      <c r="C118" s="57" t="s">
         <v>160</v>
       </c>
       <c r="D118" s="27" t="s">
@@ -5223,12 +5229,12 @@
         <v>42651</v>
       </c>
       <c r="I118" s="47"/>
-      <c r="J118" s="58"/>
-    </row>
-    <row r="119" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="54"/>
+    </row>
+    <row r="119" spans="1:10" ht="25.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
-      <c r="C119" s="55"/>
+      <c r="C119" s="58"/>
       <c r="D119" s="27" t="s">
         <v>152</v>
       </c>
@@ -5245,12 +5251,12 @@
         <v>42651</v>
       </c>
       <c r="I119" s="47"/>
-      <c r="J119" s="58"/>
-    </row>
-    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="54"/>
+    </row>
+    <row r="120" spans="1:10" ht="18" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
-      <c r="C120" s="55"/>
+      <c r="C120" s="58"/>
       <c r="D120" s="27" t="s">
         <v>148</v>
       </c>
@@ -5261,16 +5267,18 @@
         <v>221</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H120" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="H120" s="51">
+        <v>42670</v>
+      </c>
       <c r="I120" s="47"/>
-      <c r="J120" s="58"/>
-    </row>
-    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="54"/>
+    </row>
+    <row r="121" spans="1:10" ht="18" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="55"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="27" t="s">
         <v>154</v>
       </c>
@@ -5287,12 +5295,12 @@
         <v>42655</v>
       </c>
       <c r="I121" s="47"/>
-      <c r="J121" s="58"/>
-    </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="54"/>
+    </row>
+    <row r="122" spans="1:10" ht="18" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="55"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="27" t="s">
         <v>155</v>
       </c>
@@ -5309,12 +5317,12 @@
         <v>42655</v>
       </c>
       <c r="I122" s="47"/>
-      <c r="J122" s="58"/>
-    </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="54"/>
+    </row>
+    <row r="123" spans="1:10" ht="18" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="55"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="27" t="s">
         <v>149</v>
       </c>
@@ -5331,12 +5339,12 @@
         <v>42655</v>
       </c>
       <c r="I123" s="47"/>
-      <c r="J123" s="58"/>
-    </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="54"/>
+    </row>
+    <row r="124" spans="1:10" ht="18" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="55"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="27" t="s">
         <v>150</v>
       </c>
@@ -5353,12 +5361,12 @@
         <v>42656</v>
       </c>
       <c r="I124" s="47"/>
-      <c r="J124" s="58"/>
-    </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="54"/>
+    </row>
+    <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="55"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="27" t="s">
         <v>151</v>
       </c>
@@ -5375,12 +5383,12 @@
         <v>42657</v>
       </c>
       <c r="I125" s="47"/>
-      <c r="J125" s="58"/>
-    </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="54"/>
+    </row>
+    <row r="126" spans="1:10" ht="18" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="55"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="27" t="s">
         <v>214</v>
       </c>
@@ -5397,12 +5405,12 @@
         <v>42661</v>
       </c>
       <c r="I126" s="47"/>
-      <c r="J126" s="58"/>
-    </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="54"/>
+    </row>
+    <row r="127" spans="1:10" ht="18" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="55"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="27" t="s">
         <v>215</v>
       </c>
@@ -5419,9 +5427,9 @@
         <v>42661</v>
       </c>
       <c r="I127" s="47"/>
-      <c r="J127" s="58"/>
-    </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="54"/>
+    </row>
+    <row r="128" spans="1:10" ht="18" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
@@ -5441,9 +5449,9 @@
         <v>42664</v>
       </c>
       <c r="I128" s="47"/>
-      <c r="J128" s="58"/>
-    </row>
-    <row r="129" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="54"/>
+    </row>
+    <row r="129" spans="1:10" ht="18.95" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
@@ -5463,9 +5471,9 @@
         <v>42667</v>
       </c>
       <c r="I129" s="47"/>
-      <c r="J129" s="58"/>
-    </row>
-    <row r="130" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="54"/>
+    </row>
+    <row r="130" spans="1:10" ht="18.95" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
@@ -5483,9 +5491,9 @@
       <c r="G130" s="47"/>
       <c r="H130" s="47"/>
       <c r="I130" s="47"/>
-      <c r="J130" s="58"/>
-    </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="54"/>
+    </row>
+    <row r="131" spans="1:10" ht="18.95" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
@@ -5501,9 +5509,9 @@
       <c r="G131" s="47"/>
       <c r="H131" s="47"/>
       <c r="I131" s="47"/>
-      <c r="J131" s="58"/>
-    </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="54"/>
+    </row>
+    <row r="132" spans="1:10" ht="18.95" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
         <v>69</v>
@@ -5523,9 +5531,9 @@
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
       <c r="I132" s="47"/>
-      <c r="J132" s="58"/>
-    </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="54"/>
+    </row>
+    <row r="133" spans="1:10" ht="18.95" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -5541,9 +5549,9 @@
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
       <c r="I133" s="47"/>
-      <c r="J133" s="58"/>
-    </row>
-    <row r="134" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="54"/>
+    </row>
+    <row r="134" spans="1:10" ht="71.25" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5559,9 +5567,9 @@
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
       <c r="I134" s="47"/>
-      <c r="J134" s="58"/>
-    </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="54"/>
+    </row>
+    <row r="135" spans="1:10" ht="18.95" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5577,9 +5585,9 @@
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
-      <c r="J135" s="58"/>
-    </row>
-    <row r="136" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="54"/>
+    </row>
+    <row r="136" spans="1:10" ht="18.95" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -5595,9 +5603,9 @@
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
-      <c r="J136" s="58"/>
-    </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="54"/>
+    </row>
+    <row r="137" spans="1:10" ht="18.95" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
@@ -5615,9 +5623,9 @@
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
-      <c r="J137" s="58"/>
-    </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="54"/>
+    </row>
+    <row r="138" spans="1:10" ht="18.95" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5633,9 +5641,9 @@
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
-      <c r="J138" s="58"/>
-    </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="54"/>
+    </row>
+    <row r="139" spans="1:10" ht="18.95" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -5651,9 +5659,9 @@
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
-      <c r="J139" s="58"/>
-    </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="54"/>
+    </row>
+    <row r="140" spans="1:10" ht="18.95" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
@@ -5671,9 +5679,9 @@
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="58"/>
-    </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="54"/>
+    </row>
+    <row r="141" spans="1:10" ht="18.95" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5689,9 +5697,9 @@
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="58"/>
-    </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="54"/>
+    </row>
+    <row r="142" spans="1:10" ht="18.95" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -5707,9 +5715,9 @@
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="58"/>
-    </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="54"/>
+    </row>
+    <row r="143" spans="1:10" ht="18.95" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
@@ -5727,9 +5735,9 @@
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="58"/>
-    </row>
-    <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="54"/>
+    </row>
+    <row r="144" spans="1:10" ht="38.25" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5745,9 +5753,9 @@
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
-      <c r="J144" s="58"/>
-    </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="54"/>
+    </row>
+    <row r="145" spans="1:10" ht="18.95" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -5763,9 +5771,9 @@
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
       <c r="I145" s="47"/>
-      <c r="J145" s="58"/>
-    </row>
-    <row r="146" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="54"/>
+    </row>
+    <row r="146" spans="1:10" ht="18.95" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
@@ -5783,9 +5791,9 @@
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
       <c r="I146" s="47"/>
-      <c r="J146" s="58"/>
-    </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="54"/>
+    </row>
+    <row r="147" spans="1:10" ht="18.95" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5801,9 +5809,9 @@
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
       <c r="I147" s="47"/>
-      <c r="J147" s="58"/>
-    </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="54"/>
+    </row>
+    <row r="148" spans="1:10" ht="18.95" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -5821,9 +5829,9 @@
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
-      <c r="J148" s="58"/>
-    </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="54"/>
+    </row>
+    <row r="149" spans="1:10" ht="18.95" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5839,9 +5847,9 @@
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
       <c r="I149" s="47"/>
-      <c r="J149" s="58"/>
-    </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="54"/>
+    </row>
+    <row r="150" spans="1:10" ht="18.95" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5857,9 +5865,9 @@
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
       <c r="I150" s="47"/>
-      <c r="J150" s="58"/>
-    </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="54"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.95" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -5875,9 +5883,9 @@
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
-      <c r="J151" s="58"/>
-    </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="54"/>
+    </row>
+    <row r="152" spans="1:10" ht="18.95" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
@@ -5895,9 +5903,9 @@
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
-      <c r="J152" s="58"/>
-    </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="54"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.95" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
@@ -5915,9 +5923,9 @@
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
-      <c r="J153" s="58"/>
-    </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="54"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.95" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -5933,9 +5941,9 @@
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
-      <c r="J154" s="58"/>
-    </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="54"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.95" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
@@ -5953,7 +5961,7 @@
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
-      <c r="J155" s="58"/>
+      <c r="J155" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5975,7 +5983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -5983,76 +5991,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6070,7 +6078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6078,76 +6086,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="3255"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="2685"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -2927,9 +2927,9 @@
   </sheetPr>
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
+      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5070,9 +5070,11 @@
         <v>221</v>
       </c>
       <c r="G110" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H110" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="H110" s="51">
+        <v>42672</v>
+      </c>
       <c r="I110" s="47"/>
       <c r="J110" s="54"/>
     </row>
@@ -5090,9 +5092,11 @@
         <v>221</v>
       </c>
       <c r="G111" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H111" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="H111" s="51">
+        <v>42672</v>
+      </c>
       <c r="I111" s="47"/>
       <c r="J111" s="54"/>
     </row>
@@ -5110,9 +5114,11 @@
         <v>221</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H112" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="H112" s="51">
+        <v>42672</v>
+      </c>
       <c r="I112" s="47"/>
       <c r="J112" s="54"/>
     </row>
@@ -5129,9 +5135,11 @@
         <v>221</v>
       </c>
       <c r="G113" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H113" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="H113" s="51">
+        <v>42672</v>
+      </c>
       <c r="I113" s="47"/>
       <c r="J113" s="54"/>
     </row>
@@ -5148,9 +5156,11 @@
         <v>221</v>
       </c>
       <c r="G114" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H114" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="H114" s="51">
+        <v>42672</v>
+      </c>
       <c r="I114" s="47"/>
       <c r="J114" s="54"/>
     </row>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="2685"/>
   </bookViews>
@@ -11,8 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="250">
   <si>
     <t>系统</t>
   </si>
@@ -1020,12 +1024,30 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>在menu里面添加alter框
+但是获取不到客户信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/visit/quit?id="+id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示页面已经写完毕
+缺少保留按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/modify/basic?cid=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2921,22 +2943,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="6" customWidth="1"/>
     <col min="4" max="4" width="40.8984375" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" style="44" customWidth="1"/>
     <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
@@ -2947,7 +2969,7 @@
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2964,7 +2986,7 @@
       <c r="F1" s="5"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>207</v>
@@ -2994,7 +3016,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -3018,7 +3040,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1">
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3038,7 +3060,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -3056,7 +3078,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -3078,7 +3100,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3098,7 +3120,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3116,7 +3138,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1">
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3138,7 +3160,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3158,7 +3180,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3176,7 +3198,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1">
+    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3198,7 +3220,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3218,7 +3240,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3236,7 +3258,7 @@
       <c r="I14" s="47"/>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3256,7 +3278,7 @@
       <c r="I15" s="47"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3274,7 +3296,7 @@
       <c r="I16" s="47"/>
       <c r="J16" s="54"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3292,7 +3314,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="54"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>183</v>
@@ -3320,7 +3342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
+    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3344,7 +3366,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3368,7 +3390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3388,7 +3410,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1">
+    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3402,7 +3424,7 @@
         <v>231</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47" t="s">
@@ -3412,7 +3434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.95" customHeight="1">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3425,12 +3447,18 @@
       <c r="F23" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="47" t="s">
+        <v>229</v>
+      </c>
       <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="54"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1">
+      <c r="I23" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3443,12 +3471,18 @@
       <c r="F24" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
+      <c r="I24" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3461,12 +3495,14 @@
       <c r="F25" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="54"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3479,12 +3515,14 @@
       <c r="F26" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G26" s="47"/>
+      <c r="G26" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="54"/>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3504,7 +3542,7 @@
       <c r="I27" s="47"/>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3522,7 +3560,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="54"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3540,7 +3578,7 @@
       <c r="I29" s="47"/>
       <c r="J29" s="54"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3558,7 +3596,7 @@
       <c r="I30" s="47"/>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1">
+    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3582,7 +3620,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3604,7 +3642,7 @@
       </c>
       <c r="J32" s="54"/>
     </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1">
+    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3624,7 +3662,7 @@
       <c r="I33" s="47"/>
       <c r="J33" s="54"/>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3642,7 +3680,7 @@
       <c r="I34" s="47"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" ht="73.5" customHeight="1">
+    <row r="35" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3660,7 +3698,7 @@
       <c r="I35" s="47"/>
       <c r="J35" s="54"/>
     </row>
-    <row r="36" spans="1:10" ht="18.95" customHeight="1">
+    <row r="36" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
@@ -3680,7 +3718,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="54"/>
     </row>
-    <row r="37" spans="1:10" ht="18.95" customHeight="1">
+    <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3698,7 +3736,7 @@
       <c r="I37" s="47"/>
       <c r="J37" s="54"/>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3716,7 +3754,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="54"/>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3734,7 +3772,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="54"/>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3752,7 +3790,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
@@ -3772,7 +3810,7 @@
       <c r="I41" s="47"/>
       <c r="J41" s="54"/>
     </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1">
+    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3790,7 +3828,7 @@
       <c r="I42" s="47"/>
       <c r="J42" s="54"/>
     </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1">
+    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
@@ -3810,7 +3848,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="54"/>
     </row>
-    <row r="44" spans="1:10" ht="21.75" customHeight="1">
+    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
@@ -3828,7 +3866,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="54"/>
     </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
@@ -3846,7 +3884,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -3864,7 +3902,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="54"/>
     </row>
-    <row r="47" spans="1:10" ht="42" customHeight="1">
+    <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
@@ -3880,7 +3918,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="54"/>
     </row>
-    <row r="48" spans="1:10" ht="38.25" customHeight="1">
+    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>184</v>
@@ -3902,7 +3940,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="54"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -3920,7 +3958,7 @@
       <c r="I49" s="47"/>
       <c r="J49" s="54"/>
     </row>
-    <row r="50" spans="1:10" ht="54.75" customHeight="1">
+    <row r="50" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
@@ -3940,7 +3978,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="54"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -3958,7 +3996,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="54"/>
     </row>
-    <row r="52" spans="1:10" ht="18.95" customHeight="1">
+    <row r="52" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
@@ -3978,7 +4016,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="54"/>
     </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1">
+    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3996,7 +4034,7 @@
       <c r="I53" s="47"/>
       <c r="J53" s="54"/>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4014,7 +4052,7 @@
       <c r="I54" s="47"/>
       <c r="J54" s="54"/>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -4034,7 +4072,7 @@
       <c r="I55" s="47"/>
       <c r="J55" s="54"/>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
@@ -4052,7 +4090,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="54"/>
     </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1">
+    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -4070,7 +4108,7 @@
       <c r="I57" s="47"/>
       <c r="J57" s="54"/>
     </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1">
+    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -4088,7 +4126,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="54"/>
     </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1">
+    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -4106,7 +4144,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="54"/>
     </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1">
+    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -4124,7 +4162,7 @@
       <c r="I60" s="47"/>
       <c r="J60" s="54"/>
     </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1">
+    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -4142,7 +4180,7 @@
       <c r="I61" s="47"/>
       <c r="J61" s="54"/>
     </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1">
+    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
@@ -4160,7 +4198,7 @@
       <c r="I62" s="47"/>
       <c r="J62" s="54"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1">
+    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
@@ -4180,7 +4218,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="54"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1">
+    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
@@ -4198,7 +4236,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="54"/>
     </row>
-    <row r="65" spans="1:10" ht="18.95" customHeight="1">
+    <row r="65" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4216,7 +4254,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="54"/>
     </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1">
+    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4234,7 +4272,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="54"/>
     </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1">
+    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4252,7 +4290,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="54"/>
     </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1">
+    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4270,7 +4308,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="54"/>
     </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1">
+    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4288,7 +4326,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="54"/>
     </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1">
+    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
@@ -4308,7 +4346,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="54"/>
     </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1">
+    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4326,7 +4364,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="54"/>
     </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1">
+    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4344,7 +4382,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="54"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4362,7 +4400,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="54"/>
     </row>
-    <row r="74" spans="1:10" ht="18.95" customHeight="1">
+    <row r="74" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4380,7 +4418,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="54"/>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1">
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4398,7 +4436,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="54"/>
     </row>
-    <row r="76" spans="1:10" ht="18.95" customHeight="1">
+    <row r="76" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4416,7 +4454,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="54"/>
     </row>
-    <row r="77" spans="1:10" ht="36" customHeight="1">
+    <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
         <v>182</v>
@@ -4440,7 +4478,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="54"/>
     </row>
-    <row r="78" spans="1:10" ht="18.95" customHeight="1">
+    <row r="78" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
@@ -4460,7 +4498,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="54"/>
     </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1">
+    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4480,7 +4518,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="54"/>
     </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1">
+    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4500,7 +4538,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="54"/>
     </row>
-    <row r="81" spans="1:10" ht="36" customHeight="1">
+    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4520,7 +4558,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="54"/>
     </row>
-    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1">
+    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4540,7 +4578,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="54"/>
     </row>
-    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1">
+    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
@@ -4560,7 +4598,7 @@
       <c r="I83" s="47"/>
       <c r="J83" s="54"/>
     </row>
-    <row r="84" spans="1:10" ht="36.75" customHeight="1">
+    <row r="84" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
@@ -4580,7 +4618,7 @@
       <c r="I84" s="47"/>
       <c r="J84" s="54"/>
     </row>
-    <row r="85" spans="1:10" ht="26.25" customHeight="1">
+    <row r="85" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
@@ -4598,7 +4636,7 @@
       <c r="I85" s="47"/>
       <c r="J85" s="54"/>
     </row>
-    <row r="86" spans="1:10" ht="26.25" customHeight="1">
+    <row r="86" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
@@ -4616,7 +4654,7 @@
       <c r="I86" s="47"/>
       <c r="J86" s="54"/>
     </row>
-    <row r="87" spans="1:10" ht="128.25" customHeight="1">
+    <row r="87" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4634,7 +4672,7 @@
       <c r="I87" s="47"/>
       <c r="J87" s="54"/>
     </row>
-    <row r="88" spans="1:10" ht="24" customHeight="1">
+    <row r="88" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4652,7 +4690,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="54"/>
     </row>
-    <row r="89" spans="1:10" ht="56.25" customHeight="1">
+    <row r="89" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4670,7 +4708,7 @@
       <c r="I89" s="47"/>
       <c r="J89" s="54"/>
     </row>
-    <row r="90" spans="1:10" ht="19.5" customHeight="1">
+    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
@@ -4690,7 +4728,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="54"/>
     </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1">
+    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
@@ -4708,7 +4746,7 @@
       <c r="I91" s="47"/>
       <c r="J91" s="54"/>
     </row>
-    <row r="92" spans="1:10" ht="18.95" customHeight="1">
+    <row r="92" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4728,7 +4766,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="54"/>
     </row>
-    <row r="93" spans="1:10" ht="41.25" customHeight="1">
+    <row r="93" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
@@ -4746,7 +4784,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="54"/>
     </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1">
+    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4766,7 +4804,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="54"/>
     </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1">
+    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
@@ -4786,7 +4824,7 @@
       <c r="I95" s="47"/>
       <c r="J95" s="54"/>
     </row>
-    <row r="96" spans="1:10" ht="38.25" customHeight="1">
+    <row r="96" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
@@ -4804,7 +4842,7 @@
       <c r="I96" s="47"/>
       <c r="J96" s="54"/>
     </row>
-    <row r="97" spans="1:10" ht="69.75" customHeight="1">
+    <row r="97" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
@@ -4822,7 +4860,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="54"/>
     </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1">
+    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
@@ -4840,7 +4878,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="54"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1">
+    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
@@ -4860,7 +4898,7 @@
       <c r="I99" s="47"/>
       <c r="J99" s="54"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1">
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
@@ -4878,7 +4916,7 @@
       <c r="I100" s="47"/>
       <c r="J100" s="54"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1">
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
@@ -4896,7 +4934,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="54"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1">
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
@@ -4916,7 +4954,7 @@
       <c r="I102" s="47"/>
       <c r="J102" s="54"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1">
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -4934,7 +4972,7 @@
       <c r="I103" s="47"/>
       <c r="J103" s="54"/>
     </row>
-    <row r="104" spans="1:10" ht="34.5" customHeight="1">
+    <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>67</v>
@@ -4956,7 +4994,7 @@
       <c r="I104" s="47"/>
       <c r="J104" s="54"/>
     </row>
-    <row r="105" spans="1:10" ht="18.95" customHeight="1">
+    <row r="105" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
@@ -4974,7 +5012,7 @@
       <c r="I105" s="47"/>
       <c r="J105" s="54"/>
     </row>
-    <row r="106" spans="1:10" ht="18.95" customHeight="1">
+    <row r="106" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
@@ -4992,7 +5030,7 @@
       <c r="I106" s="47"/>
       <c r="J106" s="54"/>
     </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1">
+    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
@@ -5012,7 +5050,7 @@
       <c r="I107" s="47"/>
       <c r="J107" s="54"/>
     </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1">
+    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
@@ -5032,7 +5070,7 @@
       <c r="I108" s="47"/>
       <c r="J108" s="54"/>
     </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1">
+    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
@@ -5052,7 +5090,7 @@
       <c r="I109" s="47"/>
       <c r="J109" s="54"/>
     </row>
-    <row r="110" spans="1:10" ht="21.95" customHeight="1">
+    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
         <v>68</v>
@@ -5078,7 +5116,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="54"/>
     </row>
-    <row r="111" spans="1:10" ht="21.95" customHeight="1">
+    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
       <c r="C111" s="56"/>
@@ -5100,7 +5138,7 @@
       <c r="I111" s="47"/>
       <c r="J111" s="54"/>
     </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1">
+    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
       <c r="C112" s="56"/>
@@ -5122,7 +5160,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="54"/>
     </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1">
+    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
@@ -5143,7 +5181,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="54"/>
     </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1">
+    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
@@ -5164,7 +5202,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="54"/>
     </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1">
+    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
@@ -5181,7 +5219,7 @@
       <c r="I115" s="47"/>
       <c r="J115" s="54"/>
     </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1">
+    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
@@ -5198,7 +5236,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="54"/>
     </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1">
+    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
@@ -5215,7 +5253,7 @@
       <c r="I117" s="47"/>
       <c r="J117" s="54"/>
     </row>
-    <row r="118" spans="1:10" ht="24" customHeight="1">
+    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
         <v>30</v>
@@ -5241,7 +5279,7 @@
       <c r="I118" s="47"/>
       <c r="J118" s="54"/>
     </row>
-    <row r="119" spans="1:10" ht="25.5" customHeight="1">
+    <row r="119" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
       <c r="C119" s="58"/>
@@ -5263,7 +5301,7 @@
       <c r="I119" s="47"/>
       <c r="J119" s="54"/>
     </row>
-    <row r="120" spans="1:10" ht="18" customHeight="1">
+    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
       <c r="C120" s="58"/>
@@ -5285,7 +5323,7 @@
       <c r="I120" s="47"/>
       <c r="J120" s="54"/>
     </row>
-    <row r="121" spans="1:10" ht="18" customHeight="1">
+    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
       <c r="C121" s="58"/>
@@ -5307,7 +5345,7 @@
       <c r="I121" s="47"/>
       <c r="J121" s="54"/>
     </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1">
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
       <c r="C122" s="58"/>
@@ -5329,7 +5367,7 @@
       <c r="I122" s="47"/>
       <c r="J122" s="54"/>
     </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1">
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
       <c r="C123" s="58"/>
@@ -5351,7 +5389,7 @@
       <c r="I123" s="47"/>
       <c r="J123" s="54"/>
     </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1">
+    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
       <c r="C124" s="58"/>
@@ -5373,7 +5411,7 @@
       <c r="I124" s="47"/>
       <c r="J124" s="54"/>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1">
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
       <c r="C125" s="58"/>
@@ -5395,7 +5433,7 @@
       <c r="I125" s="47"/>
       <c r="J125" s="54"/>
     </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1">
+    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
       <c r="C126" s="58"/>
@@ -5417,7 +5455,7 @@
       <c r="I126" s="47"/>
       <c r="J126" s="54"/>
     </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1">
+    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
       <c r="C127" s="58"/>
@@ -5439,7 +5477,7 @@
       <c r="I127" s="47"/>
       <c r="J127" s="54"/>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1">
+    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
@@ -5461,7 +5499,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="54"/>
     </row>
-    <row r="129" spans="1:10" ht="18.95" customHeight="1">
+    <row r="129" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
@@ -5483,7 +5521,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="54"/>
     </row>
-    <row r="130" spans="1:10" ht="18.95" customHeight="1">
+    <row r="130" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
@@ -5503,7 +5541,7 @@
       <c r="I130" s="47"/>
       <c r="J130" s="54"/>
     </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1">
+    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
@@ -5521,7 +5559,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="54"/>
     </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1">
+    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
         <v>69</v>
@@ -5543,7 +5581,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="54"/>
     </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1">
+    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -5561,7 +5599,7 @@
       <c r="I133" s="47"/>
       <c r="J133" s="54"/>
     </row>
-    <row r="134" spans="1:10" ht="71.25" customHeight="1">
+    <row r="134" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5579,7 +5617,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="54"/>
     </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1">
+    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5597,7 +5635,7 @@
       <c r="I135" s="47"/>
       <c r="J135" s="54"/>
     </row>
-    <row r="136" spans="1:10" ht="18.95" customHeight="1">
+    <row r="136" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -5615,7 +5653,7 @@
       <c r="I136" s="47"/>
       <c r="J136" s="54"/>
     </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1">
+    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
@@ -5635,7 +5673,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="54"/>
     </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1">
+    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5653,7 +5691,7 @@
       <c r="I138" s="47"/>
       <c r="J138" s="54"/>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1">
+    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -5671,7 +5709,7 @@
       <c r="I139" s="47"/>
       <c r="J139" s="54"/>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1">
+    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
@@ -5691,7 +5729,7 @@
       <c r="I140" s="47"/>
       <c r="J140" s="54"/>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1">
+    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5709,7 +5747,7 @@
       <c r="I141" s="47"/>
       <c r="J141" s="54"/>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1">
+    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -5727,7 +5765,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="54"/>
     </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1">
+    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
@@ -5747,7 +5785,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="54"/>
     </row>
-    <row r="144" spans="1:10" ht="38.25" customHeight="1">
+    <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5765,7 +5803,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="54"/>
     </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1">
+    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -5783,7 +5821,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="54"/>
     </row>
-    <row r="146" spans="1:10" ht="18.95" customHeight="1">
+    <row r="146" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
@@ -5803,7 +5841,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="54"/>
     </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1">
+    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5821,7 +5859,7 @@
       <c r="I147" s="47"/>
       <c r="J147" s="54"/>
     </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1">
+    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -5841,7 +5879,7 @@
       <c r="I148" s="47"/>
       <c r="J148" s="54"/>
     </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1">
+    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5859,7 +5897,7 @@
       <c r="I149" s="47"/>
       <c r="J149" s="54"/>
     </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1">
+    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5877,7 +5915,7 @@
       <c r="I150" s="47"/>
       <c r="J150" s="54"/>
     </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1">
+    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -5895,7 +5933,7 @@
       <c r="I151" s="47"/>
       <c r="J151" s="54"/>
     </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1">
+    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
@@ -5915,7 +5953,7 @@
       <c r="I152" s="47"/>
       <c r="J152" s="54"/>
     </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1">
+    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
@@ -5935,7 +5973,7 @@
       <c r="I153" s="47"/>
       <c r="J153" s="54"/>
     </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1">
+    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -5953,7 +5991,7 @@
       <c r="I154" s="47"/>
       <c r="J154" s="54"/>
     </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1">
+    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
@@ -5993,7 +6031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6001,76 +6039,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6088,7 +6126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6096,76 +6134,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="2685"/>
+    <workbookView xWindow="7095" yWindow="-150" windowWidth="14520" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="250">
   <si>
     <t>系统</t>
   </si>
@@ -1046,8 +1041,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1438,7 +1433,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1615,6 +1610,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2943,18 +2941,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.296875" style="6" customWidth="1"/>
@@ -2969,7 +2967,7 @@
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2986,7 +2984,7 @@
       <c r="F1" s="5"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>207</v>
@@ -3016,7 +3014,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -3033,14 +3031,14 @@
       <c r="F3" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="59" t="s">
         <v>229</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3053,14 +3051,14 @@
       <c r="F4" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>230</v>
+      <c r="G4" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -3073,12 +3071,14 @@
       <c r="F5" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="59" t="s">
+        <v>229</v>
+      </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -3093,14 +3093,14 @@
       <c r="F6" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="59" t="s">
         <v>229</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3113,14 +3113,14 @@
       <c r="F7" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>230</v>
+      <c r="G7" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3133,12 +3133,14 @@
       <c r="F8" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="59" t="s">
+        <v>229</v>
+      </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="54.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3153,14 +3155,14 @@
       <c r="F9" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="59" t="s">
         <v>229</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3173,14 +3175,14 @@
       <c r="F10" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>230</v>
+      <c r="G10" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3193,12 +3195,14 @@
       <c r="F11" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="59" t="s">
+        <v>229</v>
+      </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="90.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3213,14 +3217,14 @@
       <c r="F12" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="59" t="s">
         <v>229</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="18.95" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3233,14 +3237,14 @@
       <c r="F13" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="47" t="s">
-        <v>230</v>
+      <c r="G13" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3253,12 +3257,14 @@
       <c r="F14" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="47"/>
+      <c r="G14" s="59" t="s">
+        <v>229</v>
+      </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="18.95" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3278,7 +3284,7 @@
       <c r="I15" s="47"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="18.95" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3296,7 +3302,7 @@
       <c r="I16" s="47"/>
       <c r="J16" s="54"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3314,7 +3320,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="54"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>183</v>
@@ -3342,7 +3348,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="39" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3366,7 +3372,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3390,7 +3396,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3410,7 +3416,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="83.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3434,7 +3440,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3458,7 +3464,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="24" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3482,7 +3488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3502,7 +3508,7 @@
       <c r="I25" s="47"/>
       <c r="J25" s="54"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3522,7 +3528,7 @@
       <c r="I26" s="47"/>
       <c r="J26" s="54"/>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3542,7 +3548,7 @@
       <c r="I27" s="47"/>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3560,7 +3566,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="54"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3578,7 +3584,7 @@
       <c r="I29" s="47"/>
       <c r="J29" s="54"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3596,7 +3602,7 @@
       <c r="I30" s="47"/>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="18.95" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3620,7 +3626,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3642,7 +3648,7 @@
       </c>
       <c r="J32" s="54"/>
     </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="18.95" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3662,7 +3668,7 @@
       <c r="I33" s="47"/>
       <c r="J33" s="54"/>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3680,7 +3686,7 @@
       <c r="I34" s="47"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="73.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3698,7 +3704,7 @@
       <c r="I35" s="47"/>
       <c r="J35" s="54"/>
     </row>
-    <row r="36" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="18.95" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
@@ -3718,7 +3724,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="54"/>
     </row>
-    <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="18.95" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3736,7 +3742,7 @@
       <c r="I37" s="47"/>
       <c r="J37" s="54"/>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3754,7 +3760,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="54"/>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3772,7 +3778,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="54"/>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3790,7 +3796,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
@@ -3810,7 +3816,7 @@
       <c r="I41" s="47"/>
       <c r="J41" s="54"/>
     </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="18.95" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3828,7 +3834,7 @@
       <c r="I42" s="47"/>
       <c r="J42" s="54"/>
     </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="18.95" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
@@ -3848,7 +3854,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="54"/>
     </row>
-    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="21.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
@@ -3866,7 +3872,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="54"/>
     </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
@@ -3884,7 +3890,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -3902,7 +3908,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="54"/>
     </row>
-    <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="42" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
@@ -3918,7 +3924,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="54"/>
     </row>
-    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="38.25" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>184</v>
@@ -3940,7 +3946,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="54"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -3958,7 +3964,7 @@
       <c r="I49" s="47"/>
       <c r="J49" s="54"/>
     </row>
-    <row r="50" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="54.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
@@ -3978,7 +3984,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="54"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -3996,7 +4002,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="54"/>
     </row>
-    <row r="52" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="18.95" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
@@ -4016,7 +4022,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="54"/>
     </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="18.95" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4034,7 +4040,7 @@
       <c r="I53" s="47"/>
       <c r="J53" s="54"/>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4052,7 +4058,7 @@
       <c r="I54" s="47"/>
       <c r="J54" s="54"/>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -4072,7 +4078,7 @@
       <c r="I55" s="47"/>
       <c r="J55" s="54"/>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
@@ -4090,7 +4096,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="54"/>
     </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="18.95" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -4108,7 +4114,7 @@
       <c r="I57" s="47"/>
       <c r="J57" s="54"/>
     </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="18.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -4126,7 +4132,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="54"/>
     </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="18.95" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -4144,7 +4150,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="54"/>
     </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="18.95" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -4162,7 +4168,7 @@
       <c r="I60" s="47"/>
       <c r="J60" s="54"/>
     </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="18.95" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -4180,7 +4186,7 @@
       <c r="I61" s="47"/>
       <c r="J61" s="54"/>
     </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="37.5" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
@@ -4198,7 +4204,7 @@
       <c r="I62" s="47"/>
       <c r="J62" s="54"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="37.5" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
@@ -4218,7 +4224,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="54"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="21.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
@@ -4236,7 +4242,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="54"/>
     </row>
-    <row r="65" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="18.95" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4254,7 +4260,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="54"/>
     </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="18.95" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4272,7 +4278,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="54"/>
     </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="18.95" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4290,7 +4296,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="54"/>
     </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="18.95" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4308,7 +4314,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="54"/>
     </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="18.95" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4326,7 +4332,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="54"/>
     </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="18.95" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
@@ -4346,7 +4352,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="54"/>
     </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="18.95" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4364,7 +4370,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="54"/>
     </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="18.95" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4382,7 +4388,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="54"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4400,7 +4406,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="54"/>
     </row>
-    <row r="74" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="18.95" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4418,7 +4424,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="54"/>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="18.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4436,7 +4442,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="54"/>
     </row>
-    <row r="76" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="18.95" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4454,7 +4460,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="54"/>
     </row>
-    <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="36" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
         <v>182</v>
@@ -4471,14 +4477,14 @@
       <c r="F77" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G77" s="47" t="s">
-        <v>230</v>
+      <c r="G77" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
       <c r="J77" s="54"/>
     </row>
-    <row r="78" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="18.95" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
@@ -4491,14 +4497,14 @@
       <c r="F78" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G78" s="47" t="s">
-        <v>230</v>
+      <c r="G78" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
       <c r="J78" s="54"/>
     </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="18.95" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4511,14 +4517,14 @@
       <c r="F79" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G79" s="47" t="s">
-        <v>230</v>
+      <c r="G79" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
       <c r="J79" s="54"/>
     </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="18.95" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4531,14 +4537,14 @@
       <c r="F80" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G80" s="47" t="s">
-        <v>230</v>
+      <c r="G80" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
       <c r="J80" s="54"/>
     </row>
-    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="36" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4551,14 +4557,14 @@
       <c r="F81" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G81" s="47" t="s">
+      <c r="G81" s="59" t="s">
         <v>230</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
       <c r="J81" s="54"/>
     </row>
-    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4571,14 +4577,14 @@
       <c r="F82" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G82" s="47" t="s">
+      <c r="G82" s="59" t="s">
         <v>230</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
       <c r="J82" s="54"/>
     </row>
-    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
@@ -4593,12 +4599,14 @@
       <c r="F83" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G83" s="47"/>
+      <c r="G83" s="59" t="s">
+        <v>230</v>
+      </c>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
       <c r="J83" s="54"/>
     </row>
-    <row r="84" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
@@ -4618,7 +4626,7 @@
       <c r="I84" s="47"/>
       <c r="J84" s="54"/>
     </row>
-    <row r="85" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="26.25" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
@@ -4636,7 +4644,7 @@
       <c r="I85" s="47"/>
       <c r="J85" s="54"/>
     </row>
-    <row r="86" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="26.25" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
@@ -4654,7 +4662,7 @@
       <c r="I86" s="47"/>
       <c r="J86" s="54"/>
     </row>
-    <row r="87" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="128.25" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4672,7 +4680,7 @@
       <c r="I87" s="47"/>
       <c r="J87" s="54"/>
     </row>
-    <row r="88" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="24" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4690,7 +4698,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="54"/>
     </row>
-    <row r="89" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="56.25" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4708,7 +4716,7 @@
       <c r="I89" s="47"/>
       <c r="J89" s="54"/>
     </row>
-    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="19.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
@@ -4728,7 +4736,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="54"/>
     </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="19.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
@@ -4746,7 +4754,7 @@
       <c r="I91" s="47"/>
       <c r="J91" s="54"/>
     </row>
-    <row r="92" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="18.95" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4766,7 +4774,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="54"/>
     </row>
-    <row r="93" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="41.25" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
@@ -4784,7 +4792,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="54"/>
     </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="39" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4804,7 +4812,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="54"/>
     </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="37.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
@@ -4824,7 +4832,7 @@
       <c r="I95" s="47"/>
       <c r="J95" s="54"/>
     </row>
-    <row r="96" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="38.25" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
@@ -4842,7 +4850,7 @@
       <c r="I96" s="47"/>
       <c r="J96" s="54"/>
     </row>
-    <row r="97" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="69.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
@@ -4860,7 +4868,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="54"/>
     </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="19.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
@@ -4878,7 +4886,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="54"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="19.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
@@ -4898,7 +4906,7 @@
       <c r="I99" s="47"/>
       <c r="J99" s="54"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="19.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
@@ -4916,7 +4924,7 @@
       <c r="I100" s="47"/>
       <c r="J100" s="54"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="19.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
@@ -4934,7 +4942,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="54"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="19.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
@@ -4954,7 +4962,7 @@
       <c r="I102" s="47"/>
       <c r="J102" s="54"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="19.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -4972,7 +4980,7 @@
       <c r="I103" s="47"/>
       <c r="J103" s="54"/>
     </row>
-    <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="34.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>67</v>
@@ -4994,7 +5002,7 @@
       <c r="I104" s="47"/>
       <c r="J104" s="54"/>
     </row>
-    <row r="105" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="18.95" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
@@ -5012,7 +5020,7 @@
       <c r="I105" s="47"/>
       <c r="J105" s="54"/>
     </row>
-    <row r="106" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="18.95" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
@@ -5030,7 +5038,7 @@
       <c r="I106" s="47"/>
       <c r="J106" s="54"/>
     </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="18.95" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
@@ -5050,7 +5058,7 @@
       <c r="I107" s="47"/>
       <c r="J107" s="54"/>
     </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="18.95" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
@@ -5070,7 +5078,7 @@
       <c r="I108" s="47"/>
       <c r="J108" s="54"/>
     </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="18.95" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
@@ -5090,7 +5098,7 @@
       <c r="I109" s="47"/>
       <c r="J109" s="54"/>
     </row>
-    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="21.95" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
         <v>68</v>
@@ -5116,7 +5124,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="54"/>
     </row>
-    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="21.95" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
       <c r="C111" s="56"/>
@@ -5138,7 +5146,7 @@
       <c r="I111" s="47"/>
       <c r="J111" s="54"/>
     </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="21.95" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
       <c r="C112" s="56"/>
@@ -5160,7 +5168,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="54"/>
     </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="21.95" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
@@ -5181,7 +5189,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="54"/>
     </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="21.95" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
@@ -5202,7 +5210,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="54"/>
     </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="21.95" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
@@ -5219,7 +5227,7 @@
       <c r="I115" s="47"/>
       <c r="J115" s="54"/>
     </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="21.95" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
@@ -5236,7 +5244,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="54"/>
     </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="21.95" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
@@ -5253,7 +5261,7 @@
       <c r="I117" s="47"/>
       <c r="J117" s="54"/>
     </row>
-    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="24" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
         <v>30</v>
@@ -5279,7 +5287,7 @@
       <c r="I118" s="47"/>
       <c r="J118" s="54"/>
     </row>
-    <row r="119" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="25.5" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
       <c r="C119" s="58"/>
@@ -5301,7 +5309,7 @@
       <c r="I119" s="47"/>
       <c r="J119" s="54"/>
     </row>
-    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="18" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
       <c r="C120" s="58"/>
@@ -5323,7 +5331,7 @@
       <c r="I120" s="47"/>
       <c r="J120" s="54"/>
     </row>
-    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="18" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
       <c r="C121" s="58"/>
@@ -5345,7 +5353,7 @@
       <c r="I121" s="47"/>
       <c r="J121" s="54"/>
     </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="18" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
       <c r="C122" s="58"/>
@@ -5367,7 +5375,7 @@
       <c r="I122" s="47"/>
       <c r="J122" s="54"/>
     </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="18" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
       <c r="C123" s="58"/>
@@ -5389,7 +5397,7 @@
       <c r="I123" s="47"/>
       <c r="J123" s="54"/>
     </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="18" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
       <c r="C124" s="58"/>
@@ -5411,7 +5419,7 @@
       <c r="I124" s="47"/>
       <c r="J124" s="54"/>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
       <c r="C125" s="58"/>
@@ -5433,7 +5441,7 @@
       <c r="I125" s="47"/>
       <c r="J125" s="54"/>
     </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="18" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
       <c r="C126" s="58"/>
@@ -5455,7 +5463,7 @@
       <c r="I126" s="47"/>
       <c r="J126" s="54"/>
     </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="18" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
       <c r="C127" s="58"/>
@@ -5477,7 +5485,7 @@
       <c r="I127" s="47"/>
       <c r="J127" s="54"/>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="18" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
@@ -5499,7 +5507,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="54"/>
     </row>
-    <row r="129" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="18.95" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
@@ -5521,7 +5529,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="54"/>
     </row>
-    <row r="130" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="18.95" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
@@ -5541,7 +5549,7 @@
       <c r="I130" s="47"/>
       <c r="J130" s="54"/>
     </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="18.95" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
@@ -5559,7 +5567,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="54"/>
     </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="18.95" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
         <v>69</v>
@@ -5581,7 +5589,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="54"/>
     </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="18.95" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -5599,7 +5607,7 @@
       <c r="I133" s="47"/>
       <c r="J133" s="54"/>
     </row>
-    <row r="134" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="71.25" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5617,7 +5625,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="54"/>
     </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="18.95" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5635,7 +5643,7 @@
       <c r="I135" s="47"/>
       <c r="J135" s="54"/>
     </row>
-    <row r="136" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="18.95" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -5653,7 +5661,7 @@
       <c r="I136" s="47"/>
       <c r="J136" s="54"/>
     </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="18.95" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
@@ -5673,7 +5681,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="54"/>
     </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="18.95" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5691,7 +5699,7 @@
       <c r="I138" s="47"/>
       <c r="J138" s="54"/>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="18.95" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -5709,7 +5717,7 @@
       <c r="I139" s="47"/>
       <c r="J139" s="54"/>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="18.95" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
@@ -5729,7 +5737,7 @@
       <c r="I140" s="47"/>
       <c r="J140" s="54"/>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="18.95" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5747,7 +5755,7 @@
       <c r="I141" s="47"/>
       <c r="J141" s="54"/>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="18.95" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -5765,7 +5773,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="54"/>
     </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="18.95" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
@@ -5785,7 +5793,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="54"/>
     </row>
-    <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="38.25" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5803,7 +5811,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="54"/>
     </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="18.95" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -5821,7 +5829,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="54"/>
     </row>
-    <row r="146" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="18.95" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
@@ -5841,7 +5849,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="54"/>
     </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="18.95" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5859,7 +5867,7 @@
       <c r="I147" s="47"/>
       <c r="J147" s="54"/>
     </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="18.95" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -5879,7 +5887,7 @@
       <c r="I148" s="47"/>
       <c r="J148" s="54"/>
     </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="18.95" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5897,7 +5905,7 @@
       <c r="I149" s="47"/>
       <c r="J149" s="54"/>
     </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="18.95" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5915,7 +5923,7 @@
       <c r="I150" s="47"/>
       <c r="J150" s="54"/>
     </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="18.95" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -5933,7 +5941,7 @@
       <c r="I151" s="47"/>
       <c r="J151" s="54"/>
     </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="18.95" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
@@ -5953,7 +5961,7 @@
       <c r="I152" s="47"/>
       <c r="J152" s="54"/>
     </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="18.95" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
@@ -5973,7 +5981,7 @@
       <c r="I153" s="47"/>
       <c r="J153" s="54"/>
     </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="18.95" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -5991,7 +5999,7 @@
       <c r="I154" s="47"/>
       <c r="J154" s="54"/>
     </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="18.95" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
@@ -6031,7 +6039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6039,76 +6047,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6126,7 +6134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6134,76 +6142,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7095" yWindow="-150" windowWidth="14520" windowHeight="7830"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="254">
   <si>
     <t>系统</t>
   </si>
@@ -1034,15 +1039,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/customer/modify/basic?cid=1</t>
+    <t>二次查询的内容有问题，需要把电话号码条件去掉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/modify/exchange?cid=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/customer/modify/basic?cid=1
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面需要修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/present/list</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1599,6 +1621,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1610,9 +1635,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2941,18 +2963,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G14"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53:H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.296875" style="6" customWidth="1"/>
@@ -2967,7 +2989,7 @@
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2984,7 +3006,7 @@
       <c r="F1" s="5"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>207</v>
@@ -3014,7 +3036,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -3031,14 +3053,14 @@
       <c r="F3" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1">
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3051,14 +3073,14 @@
       <c r="F4" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -3071,14 +3093,14 @@
       <c r="F5" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -3093,14 +3115,14 @@
       <c r="F6" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3113,14 +3135,14 @@
       <c r="F7" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3133,14 +3155,14 @@
       <c r="F8" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1">
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3155,14 +3177,14 @@
       <c r="F9" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3175,14 +3197,14 @@
       <c r="F10" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3195,14 +3217,14 @@
       <c r="F11" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1">
+    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3217,14 +3239,14 @@
       <c r="F12" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3237,14 +3259,14 @@
       <c r="F13" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3257,14 +3279,14 @@
       <c r="F14" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3284,7 +3306,7 @@
       <c r="I15" s="47"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3302,7 +3324,7 @@
       <c r="I16" s="47"/>
       <c r="J16" s="54"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3320,7 +3342,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="54"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>183</v>
@@ -3348,7 +3370,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
+    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3372,7 +3394,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3396,7 +3418,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3416,7 +3438,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1">
+    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3440,7 +3462,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3464,7 +3486,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1">
+    <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3478,17 +3500,17 @@
         <v>231</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47" t="s">
         <v>248</v>
       </c>
       <c r="J24" s="54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3502,13 +3524,13 @@
         <v>231</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="54"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3522,13 +3544,17 @@
         <v>231</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1">
+      <c r="I26" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3548,7 +3574,7 @@
       <c r="I27" s="47"/>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3566,7 +3592,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="54"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3584,7 +3610,7 @@
       <c r="I29" s="47"/>
       <c r="J29" s="54"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3602,7 +3628,7 @@
       <c r="I30" s="47"/>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1">
+    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3626,7 +3652,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3648,7 +3674,7 @@
       </c>
       <c r="J32" s="54"/>
     </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1">
+    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3663,12 +3689,18 @@
       <c r="F33" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1">
+      <c r="I33" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3681,12 +3713,16 @@
       <c r="F34" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G34" s="47"/>
+      <c r="G34" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="I34" s="47" t="s">
+        <v>252</v>
+      </c>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" ht="73.5" customHeight="1">
+    <row r="35" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3694,7 +3730,7 @@
         <v>195</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>231</v>
@@ -3704,7 +3740,7 @@
       <c r="I35" s="47"/>
       <c r="J35" s="54"/>
     </row>
-    <row r="36" spans="1:10" ht="18.95" customHeight="1">
+    <row r="36" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="14" t="s">
@@ -3724,7 +3760,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="54"/>
     </row>
-    <row r="37" spans="1:10" ht="18.95" customHeight="1">
+    <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3742,7 +3778,7 @@
       <c r="I37" s="47"/>
       <c r="J37" s="54"/>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3760,7 +3796,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="54"/>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3778,7 +3814,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="54"/>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3796,7 +3832,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="23" t="s">
@@ -3816,7 +3852,7 @@
       <c r="I41" s="47"/>
       <c r="J41" s="54"/>
     </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1">
+    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3834,7 +3870,7 @@
       <c r="I42" s="47"/>
       <c r="J42" s="54"/>
     </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1">
+    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="25"/>
       <c r="C43" s="23" t="s">
@@ -3854,7 +3890,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="54"/>
     </row>
-    <row r="44" spans="1:10" ht="21.75" customHeight="1">
+    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
@@ -3872,7 +3908,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="54"/>
     </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="17"/>
@@ -3890,7 +3926,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -3908,7 +3944,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="54"/>
     </row>
-    <row r="47" spans="1:10" ht="42" customHeight="1">
+    <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="19"/>
@@ -3924,7 +3960,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="54"/>
     </row>
-    <row r="48" spans="1:10" ht="38.25" customHeight="1">
+    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>184</v>
@@ -3946,7 +3982,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="54"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -3964,7 +4000,7 @@
       <c r="I49" s="47"/>
       <c r="J49" s="54"/>
     </row>
-    <row r="50" spans="1:10" ht="54.75" customHeight="1">
+    <row r="50" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
@@ -3984,7 +4020,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="54"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -4002,7 +4038,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="54"/>
     </row>
-    <row r="52" spans="1:10" ht="18.95" customHeight="1">
+    <row r="52" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="20" t="s">
@@ -4022,7 +4058,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="54"/>
     </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1">
+    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4040,7 +4076,7 @@
       <c r="I53" s="47"/>
       <c r="J53" s="54"/>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4058,7 +4094,7 @@
       <c r="I54" s="47"/>
       <c r="J54" s="54"/>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="25"/>
       <c r="C55" s="14" t="s">
@@ -4078,7 +4114,7 @@
       <c r="I55" s="47"/>
       <c r="J55" s="54"/>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="17"/>
@@ -4096,7 +4132,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="54"/>
     </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1">
+    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -4114,7 +4150,7 @@
       <c r="I57" s="47"/>
       <c r="J57" s="54"/>
     </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1">
+    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -4132,7 +4168,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="54"/>
     </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1">
+    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -4150,7 +4186,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="54"/>
     </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1">
+    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -4168,7 +4204,7 @@
       <c r="I60" s="47"/>
       <c r="J60" s="54"/>
     </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1">
+    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -4186,7 +4222,7 @@
       <c r="I61" s="47"/>
       <c r="J61" s="54"/>
     </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1">
+    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="19"/>
@@ -4204,7 +4240,7 @@
       <c r="I62" s="47"/>
       <c r="J62" s="54"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1">
+    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9" t="s">
@@ -4224,7 +4260,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="54"/>
     </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1">
+    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
@@ -4242,7 +4278,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="54"/>
     </row>
-    <row r="65" spans="1:10" ht="18.95" customHeight="1">
+    <row r="65" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4260,7 +4296,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="54"/>
     </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1">
+    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4278,7 +4314,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="54"/>
     </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1">
+    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4296,7 +4332,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="54"/>
     </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1">
+    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4314,7 +4350,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="54"/>
     </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1">
+    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4332,7 +4368,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="54"/>
     </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1">
+    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
@@ -4352,7 +4388,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="54"/>
     </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1">
+    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4370,7 +4406,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="54"/>
     </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1">
+    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4388,7 +4424,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="54"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4406,7 +4442,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="54"/>
     </row>
-    <row r="74" spans="1:10" ht="18.95" customHeight="1">
+    <row r="74" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4424,7 +4460,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="54"/>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1">
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4442,7 +4478,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="54"/>
     </row>
-    <row r="76" spans="1:10" ht="18.95" customHeight="1">
+    <row r="76" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4460,7 +4496,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="54"/>
     </row>
-    <row r="77" spans="1:10" ht="36" customHeight="1">
+    <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="23" t="s">
         <v>182</v>
@@ -4477,14 +4513,14 @@
       <c r="F77" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G77" s="59" t="s">
+      <c r="G77" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
       <c r="J77" s="54"/>
     </row>
-    <row r="78" spans="1:10" ht="18.95" customHeight="1">
+    <row r="78" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="29"/>
@@ -4497,14 +4533,14 @@
       <c r="F78" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G78" s="59" t="s">
+      <c r="G78" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
       <c r="J78" s="54"/>
     </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1">
+    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4517,14 +4553,14 @@
       <c r="F79" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G79" s="59" t="s">
+      <c r="G79" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
       <c r="J79" s="54"/>
     </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1">
+    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4537,14 +4573,14 @@
       <c r="F80" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G80" s="59" t="s">
+      <c r="G80" s="55" t="s">
         <v>229</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
       <c r="J80" s="54"/>
     </row>
-    <row r="81" spans="1:10" ht="36" customHeight="1">
+    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4557,14 +4593,14 @@
       <c r="F81" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G81" s="59" t="s">
+      <c r="G81" s="55" t="s">
         <v>230</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
       <c r="J81" s="54"/>
     </row>
-    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1">
+    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4577,14 +4613,14 @@
       <c r="F82" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G82" s="59" t="s">
+      <c r="G82" s="55" t="s">
         <v>230</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
       <c r="J82" s="54"/>
     </row>
-    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1">
+    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="50"/>
       <c r="C83" s="49" t="s">
@@ -4599,14 +4635,14 @@
       <c r="F83" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G83" s="59" t="s">
+      <c r="G83" s="55" t="s">
         <v>230</v>
       </c>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
       <c r="J83" s="54"/>
     </row>
-    <row r="84" spans="1:10" ht="36.75" customHeight="1">
+    <row r="84" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="29" t="s">
@@ -4626,7 +4662,7 @@
       <c r="I84" s="47"/>
       <c r="J84" s="54"/>
     </row>
-    <row r="85" spans="1:10" ht="26.25" customHeight="1">
+    <row r="85" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="29"/>
@@ -4644,7 +4680,7 @@
       <c r="I85" s="47"/>
       <c r="J85" s="54"/>
     </row>
-    <row r="86" spans="1:10" ht="26.25" customHeight="1">
+    <row r="86" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29"/>
@@ -4662,7 +4698,7 @@
       <c r="I86" s="47"/>
       <c r="J86" s="54"/>
     </row>
-    <row r="87" spans="1:10" ht="128.25" customHeight="1">
+    <row r="87" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4680,7 +4716,7 @@
       <c r="I87" s="47"/>
       <c r="J87" s="54"/>
     </row>
-    <row r="88" spans="1:10" ht="24" customHeight="1">
+    <row r="88" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4698,7 +4734,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="54"/>
     </row>
-    <row r="89" spans="1:10" ht="56.25" customHeight="1">
+    <row r="89" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4716,7 +4752,7 @@
       <c r="I89" s="47"/>
       <c r="J89" s="54"/>
     </row>
-    <row r="90" spans="1:10" ht="19.5" customHeight="1">
+    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="28" t="s">
@@ -4736,7 +4772,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="54"/>
     </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1">
+    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="30"/>
@@ -4754,7 +4790,7 @@
       <c r="I91" s="47"/>
       <c r="J91" s="54"/>
     </row>
-    <row r="92" spans="1:10" ht="18.95" customHeight="1">
+    <row r="92" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4774,7 +4810,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="54"/>
     </row>
-    <row r="93" spans="1:10" ht="41.25" customHeight="1">
+    <row r="93" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="29"/>
@@ -4792,7 +4828,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="54"/>
     </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1">
+    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4812,7 +4848,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="54"/>
     </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1">
+    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29" t="s">
@@ -4832,7 +4868,7 @@
       <c r="I95" s="47"/>
       <c r="J95" s="54"/>
     </row>
-    <row r="96" spans="1:10" ht="38.25" customHeight="1">
+    <row r="96" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="29"/>
@@ -4850,7 +4886,7 @@
       <c r="I96" s="47"/>
       <c r="J96" s="54"/>
     </row>
-    <row r="97" spans="1:10" ht="69.75" customHeight="1">
+    <row r="97" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29"/>
@@ -4868,7 +4904,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="54"/>
     </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1">
+    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="30"/>
@@ -4886,7 +4922,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="54"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1">
+    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="28" t="s">
@@ -4906,7 +4942,7 @@
       <c r="I99" s="47"/>
       <c r="J99" s="54"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1">
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="29"/>
@@ -4924,7 +4960,7 @@
       <c r="I100" s="47"/>
       <c r="J100" s="54"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1">
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="30"/>
@@ -4942,7 +4978,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="54"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1">
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="28" t="s">
@@ -4962,7 +4998,7 @@
       <c r="I102" s="47"/>
       <c r="J102" s="54"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1">
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -4980,7 +5016,7 @@
       <c r="I103" s="47"/>
       <c r="J103" s="54"/>
     </row>
-    <row r="104" spans="1:10" ht="34.5" customHeight="1">
+    <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="14" t="s">
         <v>67</v>
@@ -5002,7 +5038,7 @@
       <c r="I104" s="47"/>
       <c r="J104" s="54"/>
     </row>
-    <row r="105" spans="1:10" ht="18.95" customHeight="1">
+    <row r="105" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="35"/>
@@ -5020,7 +5056,7 @@
       <c r="I105" s="47"/>
       <c r="J105" s="54"/>
     </row>
-    <row r="106" spans="1:10" ht="18.95" customHeight="1">
+    <row r="106" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="30"/>
@@ -5038,7 +5074,7 @@
       <c r="I106" s="47"/>
       <c r="J106" s="54"/>
     </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1">
+    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="36" t="s">
@@ -5058,7 +5094,7 @@
       <c r="I107" s="47"/>
       <c r="J107" s="54"/>
     </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1">
+    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="15" t="s">
@@ -5078,7 +5114,7 @@
       <c r="I108" s="47"/>
       <c r="J108" s="54"/>
     </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1">
+    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
@@ -5098,12 +5134,12 @@
       <c r="I109" s="47"/>
       <c r="J109" s="54"/>
     </row>
-    <row r="110" spans="1:10" ht="21.95" customHeight="1">
+    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="55" t="s">
+      <c r="C110" s="56" t="s">
         <v>159</v>
       </c>
       <c r="D110" s="22" t="s">
@@ -5124,10 +5160,10 @@
       <c r="I110" s="47"/>
       <c r="J110" s="54"/>
     </row>
-    <row r="111" spans="1:10" ht="21.95" customHeight="1">
+    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="56"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="22" t="s">
         <v>23</v>
       </c>
@@ -5146,10 +5182,10 @@
       <c r="I111" s="47"/>
       <c r="J111" s="54"/>
     </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1">
+    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="11"/>
-      <c r="C112" s="56"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="22" t="s">
         <v>24</v>
       </c>
@@ -5168,7 +5204,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="54"/>
     </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1">
+    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="D113" s="22" t="s">
@@ -5189,7 +5225,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="54"/>
     </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1">
+    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="D114" s="22" t="s">
@@ -5210,7 +5246,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="54"/>
     </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1">
+    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="10" t="s">
@@ -5227,7 +5263,7 @@
       <c r="I115" s="47"/>
       <c r="J115" s="54"/>
     </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1">
+    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="10" t="s">
@@ -5244,7 +5280,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="54"/>
     </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1">
+    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="9" t="s">
@@ -5261,12 +5297,12 @@
       <c r="I117" s="47"/>
       <c r="J117" s="54"/>
     </row>
-    <row r="118" spans="1:10" ht="24" customHeight="1">
+    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="58" t="s">
         <v>160</v>
       </c>
       <c r="D118" s="27" t="s">
@@ -5287,10 +5323,10 @@
       <c r="I118" s="47"/>
       <c r="J118" s="54"/>
     </row>
-    <row r="119" spans="1:10" ht="25.5" customHeight="1">
+    <row r="119" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="31"/>
-      <c r="C119" s="58"/>
+      <c r="C119" s="59"/>
       <c r="D119" s="27" t="s">
         <v>152</v>
       </c>
@@ -5309,10 +5345,10 @@
       <c r="I119" s="47"/>
       <c r="J119" s="54"/>
     </row>
-    <row r="120" spans="1:10" ht="18" customHeight="1">
+    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="31"/>
-      <c r="C120" s="58"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="27" t="s">
         <v>148</v>
       </c>
@@ -5331,10 +5367,10 @@
       <c r="I120" s="47"/>
       <c r="J120" s="54"/>
     </row>
-    <row r="121" spans="1:10" ht="18" customHeight="1">
+    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="58"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="27" t="s">
         <v>154</v>
       </c>
@@ -5353,10 +5389,10 @@
       <c r="I121" s="47"/>
       <c r="J121" s="54"/>
     </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1">
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="58"/>
+      <c r="C122" s="59"/>
       <c r="D122" s="27" t="s">
         <v>155</v>
       </c>
@@ -5375,10 +5411,10 @@
       <c r="I122" s="47"/>
       <c r="J122" s="54"/>
     </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1">
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="58"/>
+      <c r="C123" s="59"/>
       <c r="D123" s="27" t="s">
         <v>149</v>
       </c>
@@ -5397,10 +5433,10 @@
       <c r="I123" s="47"/>
       <c r="J123" s="54"/>
     </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1">
+    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="58"/>
+      <c r="C124" s="59"/>
       <c r="D124" s="27" t="s">
         <v>150</v>
       </c>
@@ -5419,10 +5455,10 @@
       <c r="I124" s="47"/>
       <c r="J124" s="54"/>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1">
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="58"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="27" t="s">
         <v>151</v>
       </c>
@@ -5441,10 +5477,10 @@
       <c r="I125" s="47"/>
       <c r="J125" s="54"/>
     </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1">
+    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="58"/>
+      <c r="C126" s="59"/>
       <c r="D126" s="27" t="s">
         <v>214</v>
       </c>
@@ -5463,10 +5499,10 @@
       <c r="I126" s="47"/>
       <c r="J126" s="54"/>
     </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1">
+    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="58"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="27" t="s">
         <v>215</v>
       </c>
@@ -5485,7 +5521,7 @@
       <c r="I127" s="47"/>
       <c r="J127" s="54"/>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1">
+    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="45"/>
@@ -5507,7 +5543,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="54"/>
     </row>
-    <row r="129" spans="1:10" ht="18.95" customHeight="1">
+    <row r="129" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="29"/>
@@ -5529,7 +5565,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="54"/>
     </row>
-    <row r="130" spans="1:10" ht="18.95" customHeight="1">
+    <row r="130" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="28" t="s">
@@ -5549,7 +5585,7 @@
       <c r="I130" s="47"/>
       <c r="J130" s="54"/>
     </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1">
+    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="32"/>
       <c r="C131" s="30"/>
@@ -5567,7 +5603,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="54"/>
     </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1">
+    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="20" t="s">
         <v>69</v>
@@ -5589,7 +5625,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="54"/>
     </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1">
+    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -5607,7 +5643,7 @@
       <c r="I133" s="47"/>
       <c r="J133" s="54"/>
     </row>
-    <row r="134" spans="1:10" ht="71.25" customHeight="1">
+    <row r="134" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5625,7 +5661,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="54"/>
     </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1">
+    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5643,7 +5679,7 @@
       <c r="I135" s="47"/>
       <c r="J135" s="54"/>
     </row>
-    <row r="136" spans="1:10" ht="18.95" customHeight="1">
+    <row r="136" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -5661,7 +5697,7 @@
       <c r="I136" s="47"/>
       <c r="J136" s="54"/>
     </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1">
+    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
@@ -5681,7 +5717,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="54"/>
     </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1">
+    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5699,7 +5735,7 @@
       <c r="I138" s="47"/>
       <c r="J138" s="54"/>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1">
+    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -5717,7 +5753,7 @@
       <c r="I139" s="47"/>
       <c r="J139" s="54"/>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1">
+    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9" t="s">
@@ -5737,7 +5773,7 @@
       <c r="I140" s="47"/>
       <c r="J140" s="54"/>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1">
+    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5755,7 +5791,7 @@
       <c r="I141" s="47"/>
       <c r="J141" s="54"/>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1">
+    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -5773,7 +5809,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="54"/>
     </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1">
+    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9" t="s">
@@ -5793,7 +5829,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="54"/>
     </row>
-    <row r="144" spans="1:10" ht="38.25" customHeight="1">
+    <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5811,7 +5847,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="54"/>
     </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1">
+    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -5829,7 +5865,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="54"/>
     </row>
-    <row r="146" spans="1:10" ht="18.95" customHeight="1">
+    <row r="146" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9" t="s">
@@ -5849,7 +5885,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="54"/>
     </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1">
+    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5867,7 +5903,7 @@
       <c r="I147" s="47"/>
       <c r="J147" s="54"/>
     </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1">
+    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -5887,7 +5923,7 @@
       <c r="I148" s="47"/>
       <c r="J148" s="54"/>
     </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1">
+    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5905,7 +5941,7 @@
       <c r="I149" s="47"/>
       <c r="J149" s="54"/>
     </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1">
+    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5923,7 +5959,7 @@
       <c r="I150" s="47"/>
       <c r="J150" s="54"/>
     </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1">
+    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -5941,7 +5977,7 @@
       <c r="I151" s="47"/>
       <c r="J151" s="54"/>
     </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1">
+    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10" t="s">
@@ -5961,7 +5997,7 @@
       <c r="I152" s="47"/>
       <c r="J152" s="54"/>
     </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1">
+    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9" t="s">
@@ -5981,7 +6017,7 @@
       <c r="I153" s="47"/>
       <c r="J153" s="54"/>
     </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1">
+    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -5999,7 +6035,7 @@
       <c r="I154" s="47"/>
       <c r="J154" s="54"/>
     </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1">
+    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="37"/>
       <c r="C155" s="10" t="s">
@@ -6039,7 +6075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6047,76 +6083,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6134,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6142,76 +6178,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="262">
   <si>
     <t>系统</t>
   </si>
@@ -548,10 +548,6 @@
   </si>
   <si>
     <t>审批通过后，待客户登门，录入回购订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务订单审批</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -779,10 +775,6 @@
   </si>
   <si>
     <t>副经理核对业绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改审核订单信息（专人负责修改）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1057,6 +1049,47 @@
   </si>
   <si>
     <t>/present/list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务订单审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改审核订单信息（专人负责修改）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠品审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改赠品的审批标记</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改order_info 的财务审批相关
+备注为审批的说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看已经审批通过的赠品信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面完成一半。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1408,21 +1441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1446,6 +1464,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1455,7 +1497,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1606,35 +1648,62 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2967,11 +3036,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53:H62"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2984,7 +3053,7 @@
     <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.59765625" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.796875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.796875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="51" customWidth="1"/>
     <col min="11" max="255" width="7.59765625" style="7" customWidth="1"/>
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
@@ -3009,31 +3078,31 @@
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>210</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,14 +3120,14 @@
         <v>97</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="54"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -3071,14 +3140,14 @@
         <v>97</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="54"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -3091,14 +3160,14 @@
         <v>97</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="54"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -3113,14 +3182,14 @@
         <v>97</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="54"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -3133,14 +3202,14 @@
         <v>97</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="54"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -3153,14 +3222,14 @@
         <v>97</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="54"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3175,14 +3244,14 @@
         <v>97</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="54"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -3195,14 +3264,14 @@
         <v>97</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -3215,14 +3284,14 @@
         <v>97</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="54"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
@@ -3237,14 +3306,14 @@
         <v>97</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -3257,14 +3326,14 @@
         <v>97</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="54"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3277,14 +3346,14 @@
         <v>97</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="54"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -3293,36 +3362,36 @@
         <v>98</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="54"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>100</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="54"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
@@ -3335,17 +3404,17 @@
         <v>100</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="54"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>8</v>
@@ -3357,17 +3426,17 @@
         <v>97</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,23 +3444,23 @@
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3399,23 +3468,23 @@
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3423,43 +3492,43 @@
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="54"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3473,17 +3542,17 @@
         <v>97</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3497,17 +3566,17 @@
         <v>103</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="J24" s="54" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,20 +3584,20 @@
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="54"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
@@ -3541,17 +3610,17 @@
         <v>103</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,12 +3636,12 @@
         <v>101</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="54"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
@@ -3585,12 +3654,12 @@
         <v>101</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="54"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
@@ -3603,12 +3672,12 @@
         <v>101</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="54"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
@@ -3621,18 +3690,18 @@
         <v>101</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="54"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>73</v>
@@ -3641,15 +3710,15 @@
         <v>103</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H31" s="47"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54" t="s">
-        <v>239</v>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3663,16 +3732,16 @@
         <v>103</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="J32" s="54"/>
+        <v>231</v>
+      </c>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
@@ -3687,17 +3756,17 @@
         <v>103</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" s="54" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3705,1265 +3774,1271 @@
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
       <c r="D34" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="J34" s="54"/>
-    </row>
-    <row r="35" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="J34" s="53"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="19"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="47"/>
+        <v>257</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>228</v>
+      </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="54"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="59"/>
+    </row>
+    <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="C36" s="19"/>
       <c r="D36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>97</v>
+        <v>194</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="54"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18" t="s">
-        <v>81</v>
+      <c r="C37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
-      <c r="J38" s="54"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="54"/>
+      <c r="J39" s="53"/>
     </row>
     <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="53"/>
     </row>
     <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>85</v>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E41" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="17"/>
+      <c r="C42" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="D42" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
-      <c r="J42" s="54"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="15" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
-      <c r="J43" s="54"/>
-    </row>
-    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
+      <c r="C44" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="D44" s="15" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
-      <c r="J44" s="54"/>
+      <c r="J44" s="53"/>
     </row>
     <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="54"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
       <c r="D46" s="15" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="53"/>
+    </row>
+    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="42"/>
+        <v>201</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>97</v>
+      </c>
       <c r="F47" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
-      <c r="J47" s="54"/>
-    </row>
-    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="53"/>
+    </row>
+    <row r="48" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>103</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E48" s="42"/>
       <c r="F48" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
-      <c r="J48" s="54"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="53"/>
+    </row>
+    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="D49" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
-      <c r="J49" s="54"/>
-    </row>
-    <row r="50" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="23" t="s">
-        <v>83</v>
-      </c>
+      <c r="C50" s="19"/>
       <c r="D50" s="15" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E50" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
-      <c r="J50" s="54"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="53"/>
+    </row>
+    <row r="51" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="19"/>
+      <c r="C51" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="D51" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="54"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="53"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>97</v>
+      <c r="C52" s="19"/>
+      <c r="D52" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
-      <c r="J52" s="54"/>
+      <c r="J52" s="53"/>
     </row>
     <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D53" s="10" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
-      <c r="J53" s="54"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E54" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
-      <c r="J54" s="54"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>13</v>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
-      <c r="J55" s="54"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
-      <c r="C56" s="17"/>
+      <c r="C56" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D56" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="54"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
       <c r="D57" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="54"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
       <c r="D58" s="15" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
-      <c r="J58" s="54"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
       <c r="D59" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>123</v>
+        <v>196</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="J59" s="54"/>
+      <c r="J59" s="53"/>
     </row>
     <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
       <c r="D60" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
-      <c r="J60" s="54"/>
+      <c r="J60" s="53"/>
     </row>
     <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
       <c r="D61" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
-      <c r="J61" s="54"/>
-    </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="53"/>
+    </row>
+    <row r="62" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
-      <c r="J62" s="54"/>
+      <c r="J62" s="53"/>
     </row>
     <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>112</v>
+      <c r="B63" s="25"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
       <c r="I63" s="47"/>
-      <c r="J63" s="54"/>
-    </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="53"/>
+    </row>
+    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="20"/>
+      <c r="C64" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="D64" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
-      <c r="J64" s="54"/>
-    </row>
-    <row r="65" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="53"/>
+    </row>
+    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
       <c r="D65" s="10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E65" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
       <c r="I65" s="47"/>
-      <c r="J65" s="54"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
       <c r="D66" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
       <c r="I66" s="47"/>
-      <c r="J66" s="54"/>
+      <c r="J66" s="53"/>
     </row>
     <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
       <c r="D67" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
       <c r="I67" s="47"/>
-      <c r="J67" s="54"/>
+      <c r="J67" s="53"/>
     </row>
     <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
-      <c r="J68" s="54"/>
+      <c r="J68" s="53"/>
     </row>
     <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
       <c r="D69" s="10" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="E69" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
       <c r="I69" s="47"/>
-      <c r="J69" s="54"/>
+      <c r="J69" s="53"/>
     </row>
     <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="C70" s="20"/>
       <c r="D70" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
       <c r="I70" s="47"/>
-      <c r="J70" s="54"/>
+      <c r="J70" s="53"/>
     </row>
     <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="C71" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="D71" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
-      <c r="J71" s="54"/>
+      <c r="J71" s="53"/>
     </row>
     <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
       <c r="I72" s="47"/>
-      <c r="J72" s="54"/>
-    </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="53"/>
+    </row>
+    <row r="73" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="10" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
       <c r="I73" s="47"/>
-      <c r="J73" s="54"/>
-    </row>
-    <row r="74" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="53"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="10" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E74" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
-      <c r="J74" s="54"/>
-    </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="53"/>
+    </row>
+    <row r="75" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E75" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
       <c r="I75" s="47"/>
-      <c r="J75" s="54"/>
-    </row>
-    <row r="76" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="53"/>
+    </row>
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="10" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
       <c r="I76" s="47"/>
-      <c r="J76" s="54"/>
-    </row>
-    <row r="77" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>123</v>
+      <c r="J76" s="53"/>
+    </row>
+    <row r="77" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G77" s="55" t="s">
         <v>229</v>
       </c>
+      <c r="G77" s="47"/>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
-      <c r="J77" s="54"/>
-    </row>
-    <row r="78" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="53"/>
+    </row>
+    <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="29"/>
+      <c r="B78" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>133</v>
+      </c>
       <c r="D78" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="48" t="s">
         <v>123</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G78" s="55" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
-      <c r="J78" s="54"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
       <c r="D79" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E79" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G79" s="55" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
-      <c r="J79" s="54"/>
+      <c r="J79" s="53"/>
     </row>
     <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
       <c r="D80" s="15" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="E80" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G80" s="55" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
-      <c r="J80" s="54"/>
-    </row>
-    <row r="81" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="53"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
       <c r="D81" s="15" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="E81" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G81" s="55" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="G81" s="54" t="s">
+        <v>227</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
-      <c r="J81" s="54"/>
-    </row>
-    <row r="82" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="53"/>
+    </row>
+    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
       <c r="D82" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E82" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G82" s="55" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
-      <c r="J82" s="54"/>
-    </row>
-    <row r="83" spans="1:10" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="53"/>
+    </row>
+    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="49" t="s">
-        <v>224</v>
-      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="15" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E83" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G83" s="55" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
-      <c r="J83" s="54"/>
-    </row>
-    <row r="84" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="53"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="54"/>
-    </row>
-    <row r="85" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="49"/>
+      <c r="C84" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="53"/>
+    </row>
+    <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="54"/>
-    </row>
-    <row r="86" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="49"/>
+      <c r="C85" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="J85" s="59"/>
+    </row>
+    <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E86" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="54"/>
-    </row>
-    <row r="87" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="53"/>
+    </row>
+    <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
       <c r="D87" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E87" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
       <c r="I87" s="47"/>
-      <c r="J87" s="54"/>
-    </row>
-    <row r="88" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="53"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
       <c r="D88" s="15" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
       <c r="I88" s="47"/>
-      <c r="J88" s="54"/>
-    </row>
-    <row r="89" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="53"/>
+    </row>
+    <row r="89" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
       <c r="D89" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E89" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
-      <c r="J89" s="54"/>
-    </row>
-    <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="53"/>
+    </row>
+    <row r="90" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="28" t="s">
-        <v>144</v>
-      </c>
+      <c r="C90" s="29"/>
       <c r="D90" s="15" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
       <c r="I90" s="47"/>
-      <c r="J90" s="54"/>
-    </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="53"/>
+    </row>
+    <row r="91" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
-      <c r="C91" s="30"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="15" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E91" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
       <c r="I91" s="47"/>
-      <c r="J91" s="54"/>
-    </row>
-    <row r="92" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="53"/>
+    </row>
+    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E92" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
       <c r="I92" s="47"/>
-      <c r="J92" s="54"/>
-    </row>
-    <row r="93" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="53"/>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
-      <c r="C93" s="29"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E93" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
       <c r="I93" s="47"/>
-      <c r="J93" s="54"/>
-    </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="53"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="E94" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
       <c r="I94" s="47"/>
-      <c r="J94" s="54"/>
-    </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="53"/>
+    </row>
+    <row r="95" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
-      <c r="C95" s="29" t="s">
-        <v>202</v>
-      </c>
+      <c r="C95" s="29"/>
       <c r="D95" s="15" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
-      <c r="J95" s="54"/>
-    </row>
-    <row r="96" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="53"/>
+    </row>
+    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
-      <c r="C96" s="29"/>
+      <c r="C96" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="D96" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E96" s="42" t="s">
         <v>123</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
       <c r="I96" s="47"/>
-      <c r="J96" s="54"/>
-    </row>
-    <row r="97" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="53"/>
+    </row>
+    <row r="97" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
-      <c r="C97" s="29"/>
+      <c r="C97" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="D97" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
-      <c r="J97" s="54"/>
-    </row>
-    <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="53"/>
+    </row>
+    <row r="98" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
-      <c r="C98" s="30"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
       <c r="I98" s="47"/>
-      <c r="J98" s="54"/>
-    </row>
-    <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="53"/>
+    </row>
+    <row r="99" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
-      <c r="C99" s="28" t="s">
-        <v>190</v>
-      </c>
+      <c r="C99" s="29"/>
       <c r="D99" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
-      <c r="J99" s="54"/>
+      <c r="J99" s="53"/>
     </row>
     <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
-      <c r="C100" s="29"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E100" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
       <c r="I100" s="47"/>
-      <c r="J100" s="54"/>
+      <c r="J100" s="53"/>
     </row>
     <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
-      <c r="C101" s="30"/>
+      <c r="C101" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="D101" s="15" t="s">
         <v>192</v>
       </c>
@@ -4971,1098 +5046,1134 @@
         <v>128</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
       <c r="I101" s="47"/>
-      <c r="J101" s="54"/>
+      <c r="J101" s="53"/>
     </row>
     <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
-      <c r="C102" s="28" t="s">
-        <v>199</v>
-      </c>
+      <c r="C102" s="29"/>
       <c r="D102" s="15" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
       <c r="I102" s="47"/>
-      <c r="J102" s="54"/>
+      <c r="J102" s="53"/>
     </row>
     <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
       <c r="D103" s="15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
       <c r="I103" s="47"/>
-      <c r="J103" s="54"/>
-    </row>
-    <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="53"/>
+    </row>
+    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>14</v>
+      <c r="B104" s="17"/>
+      <c r="C104" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="48" t="s">
-        <v>174</v>
+        <v>198</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>172</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
-      <c r="J104" s="54"/>
-    </row>
-    <row r="105" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="53"/>
+    </row>
+    <row r="105" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
-      <c r="C105" s="35"/>
+      <c r="C105" s="30"/>
       <c r="D105" s="15" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
-      <c r="J105" s="54"/>
-    </row>
-    <row r="106" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="53"/>
+    </row>
+    <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="30"/>
+      <c r="B106" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="D106" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="42" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="E106" s="48" t="s">
+        <v>173</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
       <c r="I106" s="47"/>
-      <c r="J106" s="54"/>
+      <c r="J106" s="53"/>
     </row>
     <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
-      <c r="C107" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>19</v>
+      <c r="C107" s="35"/>
+      <c r="D107" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
       <c r="I107" s="47"/>
-      <c r="J107" s="54"/>
+      <c r="J107" s="53"/>
     </row>
     <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
-      <c r="C108" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>21</v>
+      <c r="C108" s="30"/>
+      <c r="D108" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
       <c r="I108" s="47"/>
-      <c r="J108" s="54"/>
+      <c r="J108" s="53"/>
     </row>
     <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="15" t="s">
-        <v>177</v>
+      <c r="B109" s="17"/>
+      <c r="C109" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="E109" s="42" t="s">
         <v>174</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
       <c r="I109" s="47"/>
-      <c r="J109" s="54"/>
-    </row>
-    <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="48" t="s">
-        <v>128</v>
+      <c r="J109" s="53"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G110" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H110" s="51">
-        <v>42672</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
       <c r="I110" s="47"/>
-      <c r="J110" s="54"/>
-    </row>
-    <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="22" t="s">
-        <v>23</v>
+      <c r="J110" s="53"/>
+    </row>
+    <row r="111" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G111" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H111" s="51">
-        <v>42672</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
       <c r="I111" s="47"/>
-      <c r="J111" s="54"/>
+      <c r="J111" s="53"/>
     </row>
     <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="57"/>
+      <c r="B112" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>158</v>
+      </c>
       <c r="D112" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="48" t="s">
         <v>128</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H112" s="51">
+        <v>227</v>
+      </c>
+      <c r="H112" s="50">
         <v>42672</v>
       </c>
       <c r="I112" s="47"/>
-      <c r="J112" s="54"/>
+      <c r="J112" s="53"/>
     </row>
     <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
+      <c r="C113" s="56"/>
       <c r="D113" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E113" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G113" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H113" s="51">
+        <v>227</v>
+      </c>
+      <c r="H113" s="50">
         <v>42672</v>
       </c>
       <c r="I113" s="47"/>
-      <c r="J113" s="54"/>
+      <c r="J113" s="53"/>
     </row>
     <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
+      <c r="C114" s="56"/>
       <c r="D114" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E114" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G114" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H114" s="51">
+        <v>227</v>
+      </c>
+      <c r="H114" s="50">
         <v>42672</v>
       </c>
       <c r="I114" s="47"/>
-      <c r="J114" s="54"/>
+      <c r="J114" s="53"/>
     </row>
     <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
-      <c r="D115" s="10" t="s">
-        <v>27</v>
+      <c r="D115" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="E115" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
+        <v>219</v>
+      </c>
+      <c r="G115" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H115" s="50">
+        <v>42672</v>
+      </c>
       <c r="I115" s="47"/>
-      <c r="J115" s="54"/>
+      <c r="J115" s="53"/>
     </row>
     <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
-      <c r="D116" s="10" t="s">
-        <v>28</v>
+      <c r="D116" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="E116" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
+        <v>219</v>
+      </c>
+      <c r="G116" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H116" s="50">
+        <v>42672</v>
+      </c>
       <c r="I116" s="47"/>
-      <c r="J116" s="54"/>
+      <c r="J116" s="53"/>
     </row>
     <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
-      <c r="D117" s="9" t="s">
-        <v>29</v>
+      <c r="D117" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E117" s="42" t="s">
         <v>128</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
       <c r="I117" s="47"/>
-      <c r="J117" s="54"/>
-    </row>
-    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="14" t="s">
+      <c r="J117" s="53"/>
+    </row>
+    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8"/>
+      <c r="B118" s="11"/>
+      <c r="D118" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F118" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="53"/>
+    </row>
+    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8"/>
+      <c r="B119" s="11"/>
+      <c r="D119" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="53"/>
+    </row>
+    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E118" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G118" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H118" s="51">
-        <v>42651</v>
-      </c>
-      <c r="I118" s="47"/>
-      <c r="J118" s="54"/>
-    </row>
-    <row r="119" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="27" t="s">
+      <c r="C120" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="E119" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G119" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H119" s="51">
-        <v>42651</v>
-      </c>
-      <c r="I119" s="47"/>
-      <c r="J119" s="54"/>
-    </row>
-    <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="E120" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H120" s="51">
-        <v>42670</v>
+        <v>227</v>
+      </c>
+      <c r="H120" s="50">
+        <v>42651</v>
       </c>
       <c r="I120" s="47"/>
-      <c r="J120" s="54"/>
-    </row>
-    <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="53"/>
+    </row>
+    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="59"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E121" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H121" s="51">
-        <v>42655</v>
+        <v>227</v>
+      </c>
+      <c r="H121" s="50">
+        <v>42651</v>
       </c>
       <c r="I121" s="47"/>
-      <c r="J121" s="54"/>
+      <c r="J121" s="53"/>
     </row>
     <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="59"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="27" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E122" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H122" s="51">
-        <v>42655</v>
+        <v>227</v>
+      </c>
+      <c r="H122" s="50">
+        <v>42670</v>
       </c>
       <c r="I122" s="47"/>
-      <c r="J122" s="54"/>
+      <c r="J122" s="53"/>
     </row>
     <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="59"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E123" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H123" s="51">
+        <v>227</v>
+      </c>
+      <c r="H123" s="50">
         <v>42655</v>
       </c>
       <c r="I123" s="47"/>
-      <c r="J123" s="54"/>
+      <c r="J123" s="53"/>
     </row>
     <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="59"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="27" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E124" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H124" s="51">
-        <v>42656</v>
+        <v>227</v>
+      </c>
+      <c r="H124" s="50">
+        <v>42655</v>
       </c>
       <c r="I124" s="47"/>
-      <c r="J124" s="54"/>
+      <c r="J124" s="53"/>
     </row>
     <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="59"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E125" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H125" s="51">
-        <v>42657</v>
+        <v>227</v>
+      </c>
+      <c r="H125" s="50">
+        <v>42655</v>
       </c>
       <c r="I125" s="47"/>
-      <c r="J125" s="54"/>
+      <c r="J125" s="53"/>
     </row>
     <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="59"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="27" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="E126" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H126" s="51">
-        <v>42661</v>
+        <v>227</v>
+      </c>
+      <c r="H126" s="50">
+        <v>42656</v>
       </c>
       <c r="I126" s="47"/>
-      <c r="J126" s="54"/>
+      <c r="J126" s="53"/>
     </row>
     <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="59"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="27" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="E127" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H127" s="51">
-        <v>42661</v>
+        <v>227</v>
+      </c>
+      <c r="H127" s="50">
+        <v>42657</v>
       </c>
       <c r="I127" s="47"/>
-      <c r="J127" s="54"/>
+      <c r="J127" s="53"/>
     </row>
     <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
-      <c r="C128" s="45"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H128" s="51">
-        <v>42664</v>
+        <v>227</v>
+      </c>
+      <c r="H128" s="50">
+        <v>42661</v>
       </c>
       <c r="I128" s="47"/>
-      <c r="J128" s="54"/>
-    </row>
-    <row r="129" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="53"/>
+    </row>
+    <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
-      <c r="C129" s="29"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="27" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E129" s="40" t="s">
         <v>123</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H129" s="51">
-        <v>42667</v>
+        <v>227</v>
+      </c>
+      <c r="H129" s="50">
+        <v>42661</v>
       </c>
       <c r="I129" s="47"/>
-      <c r="J129" s="54"/>
-    </row>
-    <row r="130" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="53"/>
+    </row>
+    <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
-      <c r="C130" s="28" t="s">
-        <v>156</v>
-      </c>
+      <c r="C130" s="45"/>
       <c r="D130" s="27" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
+        <v>219</v>
+      </c>
+      <c r="G130" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H130" s="50">
+        <v>42664</v>
+      </c>
       <c r="I130" s="47"/>
-      <c r="J130" s="54"/>
+      <c r="J130" s="53"/>
     </row>
     <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="30"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="29"/>
       <c r="D131" s="27" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
+        <v>219</v>
+      </c>
+      <c r="G131" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H131" s="50">
+        <v>42667</v>
+      </c>
       <c r="I131" s="47"/>
-      <c r="J131" s="54"/>
+      <c r="J131" s="53"/>
     </row>
     <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
-      <c r="B132" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>174</v>
+      <c r="A132" s="4"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
       <c r="I132" s="47"/>
-      <c r="J132" s="54"/>
+      <c r="J132" s="53"/>
     </row>
     <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E133" s="42" t="s">
-        <v>174</v>
+      <c r="A133" s="4"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
       <c r="I133" s="47"/>
-      <c r="J133" s="54"/>
-    </row>
-    <row r="134" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="53"/>
+    </row>
+    <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
+      <c r="B134" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="D134" s="10" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
       <c r="I134" s="47"/>
-      <c r="J134" s="54"/>
+      <c r="J134" s="53"/>
     </row>
     <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
       <c r="D135" s="10" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
-      <c r="J135" s="54"/>
-    </row>
-    <row r="136" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="53"/>
+    </row>
+    <row r="136" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="10" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
-      <c r="J136" s="54"/>
+      <c r="J136" s="53"/>
     </row>
     <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
-      <c r="C137" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="C137" s="11"/>
       <c r="D137" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
-      <c r="J137" s="54"/>
+      <c r="J137" s="53"/>
     </row>
     <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
-      <c r="J138" s="54"/>
+      <c r="J138" s="53"/>
     </row>
     <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
+      <c r="C139" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D139" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
-      <c r="J139" s="54"/>
+      <c r="J139" s="53"/>
     </row>
     <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
-      <c r="C140" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="C140" s="11"/>
       <c r="D140" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E140" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="54"/>
+      <c r="J140" s="53"/>
     </row>
     <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="54"/>
+      <c r="J141" s="53"/>
     </row>
     <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
+      <c r="C142" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D142" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E142" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="54"/>
+      <c r="J142" s="53"/>
     </row>
     <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
-      <c r="C143" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="C143" s="11"/>
       <c r="D143" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="54"/>
-    </row>
-    <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="53"/>
+    </row>
+    <row r="144" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="10" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
-      <c r="J144" s="54"/>
+      <c r="J144" s="53"/>
     </row>
     <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
+      <c r="C145" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D145" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
       <c r="I145" s="47"/>
-      <c r="J145" s="54"/>
-    </row>
-    <row r="146" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="53"/>
+    </row>
+    <row r="146" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
-      <c r="C146" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C146" s="11"/>
       <c r="D146" s="10" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
       <c r="I146" s="47"/>
-      <c r="J146" s="54"/>
+      <c r="J146" s="53"/>
     </row>
     <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
       <c r="I147" s="47"/>
-      <c r="J147" s="54"/>
+      <c r="J147" s="53"/>
     </row>
     <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
-      <c r="J148" s="54"/>
+      <c r="J148" s="53"/>
     </row>
     <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
       <c r="I149" s="47"/>
-      <c r="J149" s="54"/>
+      <c r="J149" s="53"/>
     </row>
     <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
+      <c r="C150" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D150" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
       <c r="I150" s="47"/>
-      <c r="J150" s="54"/>
+      <c r="J150" s="53"/>
     </row>
     <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
-      <c r="J151" s="54"/>
+      <c r="J151" s="53"/>
     </row>
     <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
-      <c r="C152" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="C152" s="11"/>
       <c r="D152" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
-      <c r="J152" s="54"/>
+      <c r="J152" s="53"/>
     </row>
     <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
-      <c r="C153" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="C153" s="12"/>
       <c r="D153" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
-      <c r="J153" s="54"/>
+      <c r="J153" s="53"/>
     </row>
     <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
+      <c r="C154" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="D154" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
-      <c r="J154" s="54"/>
+      <c r="J154" s="53"/>
     </row>
     <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="10" t="s">
-        <v>59</v>
+      <c r="B155" s="11"/>
+      <c r="C155" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
-      <c r="J155" s="54"/>
+      <c r="J155" s="53"/>
+    </row>
+    <row r="156" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="8"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F156" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="53"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E157" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F157" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G157" s="47"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C118:C127"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C120:C129"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G155">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G157">
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="263">
   <si>
     <t>系统</t>
   </si>
@@ -1089,7 +1089,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>页面完成一半。</t>
+    <t>页面完成一半。
+应该新增赠品领取记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/present/review</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1663,6 +1668,36 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1674,36 +1709,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3038,9 +3043,9 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37:I41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3759,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47" t="s">
@@ -3783,13 +3788,15 @@
         <v>229</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="J34" s="53"/>
+      <c r="J34" s="53" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
@@ -3809,7 +3816,7 @@
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="59"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
@@ -4712,35 +4719,35 @@
     <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="49"/>
-      <c r="C84" s="60" t="s">
+      <c r="C84" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="E84" s="62" t="s">
+      <c r="E84" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="F84" s="63" t="s">
+      <c r="F84" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="G84" s="63" t="s">
+      <c r="G84" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
       <c r="J84" s="53"/>
     </row>
     <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="49"/>
-      <c r="C85" s="66" t="s">
+      <c r="C85" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="67" t="s">
+      <c r="D85" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="E85" s="68" t="s">
+      <c r="E85" s="64" t="s">
         <v>256</v>
       </c>
       <c r="F85" s="54" t="s">
@@ -4751,7 +4758,7 @@
       <c r="I85" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="J85" s="59"/>
+      <c r="J85" s="55"/>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
@@ -4762,15 +4769,15 @@
       <c r="D86" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E86" s="64" t="s">
+      <c r="E86" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="F86" s="65" t="s">
+      <c r="F86" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
       <c r="J86" s="53"/>
     </row>
     <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5250,7 +5257,7 @@
       <c r="B112" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="55" t="s">
+      <c r="C112" s="65" t="s">
         <v>158</v>
       </c>
       <c r="D112" s="22" t="s">
@@ -5274,7 +5281,7 @@
     <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
-      <c r="C113" s="56"/>
+      <c r="C113" s="66"/>
       <c r="D113" s="22" t="s">
         <v>23</v>
       </c>
@@ -5296,7 +5303,7 @@
     <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
-      <c r="C114" s="56"/>
+      <c r="C114" s="66"/>
       <c r="D114" s="22" t="s">
         <v>24</v>
       </c>
@@ -5413,7 +5420,7 @@
       <c r="B120" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="57" t="s">
+      <c r="C120" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D120" s="27" t="s">
@@ -5437,7 +5444,7 @@
     <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="58"/>
+      <c r="C121" s="68"/>
       <c r="D121" s="27" t="s">
         <v>151</v>
       </c>
@@ -5459,7 +5466,7 @@
     <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="58"/>
+      <c r="C122" s="68"/>
       <c r="D122" s="27" t="s">
         <v>147</v>
       </c>
@@ -5481,7 +5488,7 @@
     <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="58"/>
+      <c r="C123" s="68"/>
       <c r="D123" s="27" t="s">
         <v>153</v>
       </c>
@@ -5503,7 +5510,7 @@
     <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="58"/>
+      <c r="C124" s="68"/>
       <c r="D124" s="27" t="s">
         <v>154</v>
       </c>
@@ -5525,7 +5532,7 @@
     <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="58"/>
+      <c r="C125" s="68"/>
       <c r="D125" s="27" t="s">
         <v>148</v>
       </c>
@@ -5547,7 +5554,7 @@
     <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="58"/>
+      <c r="C126" s="68"/>
       <c r="D126" s="27" t="s">
         <v>149</v>
       </c>
@@ -5569,7 +5576,7 @@
     <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="58"/>
+      <c r="C127" s="68"/>
       <c r="D127" s="27" t="s">
         <v>150</v>
       </c>
@@ -5591,7 +5598,7 @@
     <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
-      <c r="C128" s="58"/>
+      <c r="C128" s="68"/>
       <c r="D128" s="27" t="s">
         <v>212</v>
       </c>
@@ -5613,7 +5620,7 @@
     <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
-      <c r="C129" s="58"/>
+      <c r="C129" s="68"/>
       <c r="D129" s="27" t="s">
         <v>213</v>
       </c>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="264">
   <si>
     <t>系统</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>首次查询-录入电话号码</t>
-  </si>
-  <si>
-    <t>选择购买商品</t>
   </si>
   <si>
     <t>定金管理</t>
@@ -1095,6 +1092,14 @@
   </si>
   <si>
     <t>/present/review</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/present/receive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择购买商品</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3043,9 +3048,9 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3083,52 +3088,52 @@
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>208</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>225</v>
-      </c>
       <c r="J2" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -3139,16 +3144,16 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -3159,16 +3164,16 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -3181,16 +3186,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -3201,16 +3206,16 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -3221,16 +3226,16 @@
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>97</v>
-      </c>
       <c r="F8" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -3240,19 +3245,19 @@
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -3263,16 +3268,16 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -3283,16 +3288,16 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -3302,19 +3307,19 @@
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -3325,16 +3330,16 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -3348,13 +3353,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -3364,16 +3369,16 @@
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
@@ -3385,13 +3390,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -3403,13 +3408,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
       <c r="D17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>100</v>
-      </c>
       <c r="F17" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
@@ -3419,7 +3424,7 @@
     <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>8</v>
@@ -3428,20 +3433,20 @@
         <v>9</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3449,23 +3454,23 @@
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3473,23 +3478,23 @@
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3497,16 +3502,16 @@
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -3517,23 +3522,23 @@
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3541,23 +3546,23 @@
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="53" t="s">
         <v>244</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3565,23 +3570,23 @@
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
       <c r="D24" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3589,16 +3594,16 @@
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>211</v>
-      </c>
       <c r="F25" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -3609,39 +3614,39 @@
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
       <c r="D26" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>247</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -3653,13 +3658,13 @@
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
       <c r="D28" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -3671,13 +3676,13 @@
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
       <c r="D29" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
@@ -3689,13 +3694,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
       <c r="D30" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -3706,24 +3711,24 @@
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="52"/>
       <c r="J31" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3731,20 +3736,20 @@
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J32" s="53"/>
     </row>
@@ -3752,26 +3757,26 @@
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="53" t="s">
         <v>250</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,23 +3784,23 @@
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
       <c r="D34" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" s="53" t="s">
         <v>261</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3803,33 +3808,35 @@
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E35" s="40" t="s">
-        <v>260</v>
-      </c>
       <c r="F35" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="55"/>
+      <c r="J35" s="55" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
       <c r="D36" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
@@ -3843,15 +3850,17 @@
         <v>7</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="47"/>
+        <v>228</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="53"/>
@@ -3861,13 +3870,13 @@
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -3879,13 +3888,13 @@
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3897,13 +3906,13 @@
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -3915,13 +3924,13 @@
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
@@ -3932,16 +3941,16 @@
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="E42" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -3953,13 +3962,13 @@
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
       <c r="D43" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -3970,16 +3979,16 @@
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>123</v>
-      </c>
       <c r="F44" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
@@ -3991,13 +4000,13 @@
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
       <c r="D45" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
@@ -4009,13 +4018,13 @@
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
       <c r="D46" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
@@ -4027,13 +4036,13 @@
       <c r="B47" s="25"/>
       <c r="C47" s="17"/>
       <c r="D47" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
@@ -4045,11 +4054,11 @@
       <c r="B48" s="25"/>
       <c r="C48" s="19"/>
       <c r="D48" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
@@ -4059,19 +4068,19 @@
     <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="E49" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -4083,13 +4092,13 @@
       <c r="B50" s="11"/>
       <c r="C50" s="19"/>
       <c r="D50" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
@@ -4100,16 +4109,16 @@
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
@@ -4121,13 +4130,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
@@ -4138,16 +4147,16 @@
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
@@ -4159,13 +4168,13 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
@@ -4177,13 +4186,13 @@
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
@@ -4194,16 +4203,16 @@
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="E56" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
@@ -4215,13 +4224,13 @@
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
       <c r="D57" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
@@ -4233,13 +4242,13 @@
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
       <c r="D58" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
@@ -4251,13 +4260,13 @@
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
       <c r="D59" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
@@ -4269,13 +4278,13 @@
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
       <c r="D60" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
@@ -4287,13 +4296,13 @@
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
       <c r="D61" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
@@ -4305,13 +4314,13 @@
       <c r="B62" s="25"/>
       <c r="C62" s="17"/>
       <c r="D62" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
@@ -4323,13 +4332,13 @@
       <c r="B63" s="25"/>
       <c r="C63" s="19"/>
       <c r="D63" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
@@ -4340,16 +4349,16 @@
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="E64" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
@@ -4361,13 +4370,13 @@
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
       <c r="D65" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
@@ -4379,13 +4388,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
       <c r="D66" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
@@ -4397,13 +4406,13 @@
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
       <c r="D67" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
@@ -4415,13 +4424,13 @@
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
@@ -4433,13 +4442,13 @@
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
       <c r="D69" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
@@ -4451,13 +4460,13 @@
       <c r="B70" s="11"/>
       <c r="C70" s="20"/>
       <c r="D70" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
@@ -4468,16 +4477,16 @@
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E71" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
@@ -4489,13 +4498,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
@@ -4507,13 +4516,13 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
@@ -4525,13 +4534,13 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
@@ -4543,13 +4552,13 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
@@ -4561,13 +4570,13 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
@@ -4579,13 +4588,13 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G77" s="47"/>
       <c r="H77" s="47"/>
@@ -4595,22 +4604,22 @@
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G78" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
@@ -4621,16 +4630,16 @@
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
       <c r="D79" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G79" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
@@ -4641,16 +4650,16 @@
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
       <c r="D80" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G80" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
@@ -4661,16 +4670,16 @@
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
       <c r="D81" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G81" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
@@ -4681,16 +4690,16 @@
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
       <c r="D82" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
@@ -4701,16 +4710,16 @@
       <c r="B83" s="17"/>
       <c r="C83" s="29"/>
       <c r="D83" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G83" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
@@ -4720,19 +4729,19 @@
       <c r="A84" s="4"/>
       <c r="B84" s="49"/>
       <c r="C84" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F84" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
@@ -4742,21 +4751,21 @@
       <c r="A85" s="4"/>
       <c r="B85" s="49"/>
       <c r="C85" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="E85" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="E85" s="64" t="s">
+      <c r="F85" s="54" t="s">
         <v>256</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>257</v>
       </c>
       <c r="G85" s="54"/>
       <c r="H85" s="54"/>
       <c r="I85" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J85" s="55"/>
     </row>
@@ -4764,16 +4773,16 @@
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F86" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G86" s="61"/>
       <c r="H86" s="61"/>
@@ -4785,13 +4794,13 @@
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
       <c r="D87" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
@@ -4803,13 +4812,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
       <c r="D88" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
@@ -4821,13 +4830,13 @@
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
       <c r="D89" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
@@ -4839,13 +4848,13 @@
       <c r="B90" s="17"/>
       <c r="C90" s="29"/>
       <c r="D90" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E90" s="42" t="s">
-        <v>172</v>
-      </c>
       <c r="F90" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
@@ -4857,13 +4866,13 @@
       <c r="B91" s="17"/>
       <c r="C91" s="29"/>
       <c r="D91" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
@@ -4874,16 +4883,16 @@
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="E92" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
@@ -4895,13 +4904,13 @@
       <c r="B93" s="17"/>
       <c r="C93" s="30"/>
       <c r="D93" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
@@ -4912,16 +4921,16 @@
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D94" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="E94" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
@@ -4933,13 +4942,13 @@
       <c r="B95" s="17"/>
       <c r="C95" s="29"/>
       <c r="D95" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
@@ -4950,16 +4959,16 @@
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
@@ -4970,16 +4979,16 @@
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
@@ -4991,13 +5000,13 @@
       <c r="B98" s="17"/>
       <c r="C98" s="29"/>
       <c r="D98" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
@@ -5009,13 +5018,13 @@
       <c r="B99" s="17"/>
       <c r="C99" s="29"/>
       <c r="D99" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
@@ -5027,13 +5036,13 @@
       <c r="B100" s="17"/>
       <c r="C100" s="30"/>
       <c r="D100" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
@@ -5044,16 +5053,16 @@
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
@@ -5065,13 +5074,13 @@
       <c r="B102" s="17"/>
       <c r="C102" s="29"/>
       <c r="D102" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
@@ -5083,13 +5092,13 @@
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
       <c r="D103" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
@@ -5100,16 +5109,16 @@
       <c r="A104" s="4"/>
       <c r="B104" s="17"/>
       <c r="C104" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>198</v>
-      </c>
       <c r="E104" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
@@ -5121,13 +5130,13 @@
       <c r="B105" s="17"/>
       <c r="C105" s="30"/>
       <c r="D105" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
@@ -5137,19 +5146,19 @@
     <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="E106" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
@@ -5161,13 +5170,13 @@
       <c r="B107" s="17"/>
       <c r="C107" s="35"/>
       <c r="D107" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
@@ -5179,13 +5188,13 @@
       <c r="B108" s="17"/>
       <c r="C108" s="30"/>
       <c r="D108" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
@@ -5196,16 +5205,16 @@
       <c r="A109" s="4"/>
       <c r="B109" s="17"/>
       <c r="C109" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="E109" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
@@ -5216,16 +5225,16 @@
       <c r="A110" s="4"/>
       <c r="B110" s="17"/>
       <c r="C110" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="E110" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G110" s="47"/>
       <c r="H110" s="47"/>
@@ -5236,16 +5245,16 @@
       <c r="A111" s="4"/>
       <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
@@ -5255,22 +5264,22 @@
     <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C112" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H112" s="50">
         <v>42672</v>
@@ -5283,16 +5292,16 @@
       <c r="B113" s="11"/>
       <c r="C113" s="66"/>
       <c r="D113" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G113" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H113" s="50">
         <v>42672</v>
@@ -5305,16 +5314,16 @@
       <c r="B114" s="11"/>
       <c r="C114" s="66"/>
       <c r="D114" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G114" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H114" s="50">
         <v>42672</v>
@@ -5326,16 +5335,16 @@
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G115" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H115" s="50">
         <v>42672</v>
@@ -5347,16 +5356,16 @@
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G116" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H116" s="50">
         <v>42672</v>
@@ -5368,13 +5377,13 @@
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
@@ -5385,13 +5394,13 @@
       <c r="A118" s="8"/>
       <c r="B118" s="11"/>
       <c r="D118" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E118" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G118" s="47"/>
       <c r="H118" s="47"/>
@@ -5402,13 +5411,13 @@
       <c r="A119" s="8"/>
       <c r="B119" s="11"/>
       <c r="D119" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G119" s="47"/>
       <c r="H119" s="47"/>
@@ -5418,22 +5427,22 @@
     <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H120" s="50">
         <v>42651</v>
@@ -5446,16 +5455,16 @@
       <c r="B121" s="31"/>
       <c r="C121" s="68"/>
       <c r="D121" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H121" s="50">
         <v>42651</v>
@@ -5468,16 +5477,16 @@
       <c r="B122" s="31"/>
       <c r="C122" s="68"/>
       <c r="D122" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H122" s="50">
         <v>42670</v>
@@ -5490,16 +5499,16 @@
       <c r="B123" s="31"/>
       <c r="C123" s="68"/>
       <c r="D123" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H123" s="50">
         <v>42655</v>
@@ -5512,16 +5521,16 @@
       <c r="B124" s="31"/>
       <c r="C124" s="68"/>
       <c r="D124" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H124" s="50">
         <v>42655</v>
@@ -5534,16 +5543,16 @@
       <c r="B125" s="31"/>
       <c r="C125" s="68"/>
       <c r="D125" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H125" s="50">
         <v>42655</v>
@@ -5556,16 +5565,16 @@
       <c r="B126" s="31"/>
       <c r="C126" s="68"/>
       <c r="D126" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H126" s="50">
         <v>42656</v>
@@ -5578,16 +5587,16 @@
       <c r="B127" s="31"/>
       <c r="C127" s="68"/>
       <c r="D127" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H127" s="50">
         <v>42657</v>
@@ -5600,16 +5609,16 @@
       <c r="B128" s="31"/>
       <c r="C128" s="68"/>
       <c r="D128" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H128" s="50">
         <v>42661</v>
@@ -5622,16 +5631,16 @@
       <c r="B129" s="31"/>
       <c r="C129" s="68"/>
       <c r="D129" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H129" s="50">
         <v>42661</v>
@@ -5644,16 +5653,16 @@
       <c r="B130" s="31"/>
       <c r="C130" s="45"/>
       <c r="D130" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E130" s="40" t="s">
-        <v>215</v>
-      </c>
       <c r="F130" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G130" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H130" s="50">
         <v>42664</v>
@@ -5666,16 +5675,16 @@
       <c r="B131" s="31"/>
       <c r="C131" s="29"/>
       <c r="D131" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G131" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H131" s="50">
         <v>42667</v>
@@ -5687,16 +5696,16 @@
       <c r="A132" s="4"/>
       <c r="B132" s="31"/>
       <c r="C132" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D132" s="27" t="s">
-        <v>156</v>
-      </c>
       <c r="E132" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
@@ -5708,13 +5717,13 @@
       <c r="B133" s="32"/>
       <c r="C133" s="30"/>
       <c r="D133" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
@@ -5724,19 +5733,19 @@
     <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C134" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="E134" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
@@ -5748,13 +5757,13 @@
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
@@ -5766,13 +5775,13 @@
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
@@ -5784,13 +5793,13 @@
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
@@ -5802,13 +5811,13 @@
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
       <c r="D138" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
@@ -5819,16 +5828,16 @@
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="E139" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
@@ -5840,13 +5849,13 @@
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E140" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
@@ -5858,13 +5867,13 @@
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
       <c r="D141" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
@@ -5875,16 +5884,16 @@
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D142" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="E142" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
@@ -5896,13 +5905,13 @@
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
@@ -5914,13 +5923,13 @@
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
@@ -5931,16 +5940,16 @@
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D145" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="E145" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
@@ -5952,13 +5961,13 @@
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
@@ -5970,13 +5979,13 @@
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
@@ -5987,16 +5996,16 @@
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E148" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
@@ -6008,13 +6017,13 @@
       <c r="B149" s="11"/>
       <c r="C149" s="12"/>
       <c r="D149" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
@@ -6025,16 +6034,16 @@
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="E150" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
@@ -6046,13 +6055,13 @@
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
@@ -6064,13 +6073,13 @@
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
@@ -6082,13 +6091,13 @@
       <c r="B153" s="11"/>
       <c r="C153" s="12"/>
       <c r="D153" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
@@ -6099,16 +6108,16 @@
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D154" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D154" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="E154" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
@@ -6119,16 +6128,16 @@
       <c r="A155" s="8"/>
       <c r="B155" s="11"/>
       <c r="C155" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D155" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="E155" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
@@ -6140,13 +6149,13 @@
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
       <c r="D156" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E156" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F156" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G156" s="47"/>
       <c r="H156" s="47"/>
@@ -6157,16 +6166,16 @@
       <c r="A157" s="8"/>
       <c r="B157" s="37"/>
       <c r="C157" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D157" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="E157" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G157" s="47"/>
       <c r="H157" s="47"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="-150" windowWidth="14520" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="264">
   <si>
     <t>系统</t>
   </si>
@@ -1106,8 +1102,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3042,18 +3038,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.296875" style="6" customWidth="1"/>
@@ -3068,7 +3064,7 @@
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -3085,7 +3081,7 @@
       <c r="F1" s="5"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>204</v>
@@ -3115,7 +3111,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>65</v>
@@ -3139,7 +3135,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3159,7 +3155,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -3179,7 +3175,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="53"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -3201,7 +3197,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="53"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3221,7 +3217,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="53"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3241,7 +3237,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="54.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3263,7 +3259,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="53"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3283,7 +3279,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3303,7 +3299,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="90.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3325,7 +3321,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="18.95" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3345,7 +3341,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="53"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3365,7 +3361,7 @@
       <c r="I14" s="47"/>
       <c r="J14" s="53"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="18.95" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3385,7 +3381,7 @@
       <c r="I15" s="47"/>
       <c r="J15" s="53"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="18.95" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3403,7 +3399,7 @@
       <c r="I16" s="47"/>
       <c r="J16" s="53"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3421,7 +3417,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="53"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>181</v>
@@ -3449,7 +3445,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="39" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3473,7 +3469,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3497,7 +3493,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3517,7 +3513,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="53"/>
     </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="83.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3541,7 +3537,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3565,7 +3561,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="47.25" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3589,7 +3585,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3609,7 +3605,7 @@
       <c r="I25" s="47"/>
       <c r="J25" s="53"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3633,7 +3629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3653,7 +3649,7 @@
       <c r="I27" s="47"/>
       <c r="J27" s="53"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3671,7 +3667,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="53"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3689,7 +3685,7 @@
       <c r="I29" s="47"/>
       <c r="J29" s="53"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3707,7 +3703,7 @@
       <c r="I30" s="47"/>
       <c r="J30" s="53"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="18.95" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3731,7 +3727,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3753,7 +3749,7 @@
       </c>
       <c r="J32" s="53"/>
     </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="18.95" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3779,7 +3775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3803,7 +3799,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="24.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -3825,7 +3821,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="73.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
@@ -3843,7 +3839,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="53"/>
     </row>
-    <row r="37" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="18.95" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -3865,7 +3861,7 @@
       <c r="I37" s="47"/>
       <c r="J37" s="53"/>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3883,7 +3879,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="53"/>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3901,7 +3897,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="53"/>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3919,7 +3915,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="53"/>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -3937,7 +3933,7 @@
       <c r="I41" s="47"/>
       <c r="J41" s="53"/>
     </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="18.95" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="23" t="s">
@@ -3957,7 +3953,7 @@
       <c r="I42" s="47"/>
       <c r="J42" s="53"/>
     </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="18.95" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -3975,7 +3971,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="53"/>
     </row>
-    <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="18.95" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="23" t="s">
@@ -3995,7 +3991,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="53"/>
     </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
@@ -4013,7 +4009,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="53"/>
     </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -4031,7 +4027,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="53"/>
     </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="21.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="17"/>
@@ -4049,7 +4045,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="53"/>
     </row>
-    <row r="48" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="42" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="25"/>
       <c r="C48" s="19"/>
@@ -4065,7 +4061,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="53"/>
     </row>
-    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="38.25" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="26" t="s">
         <v>182</v>
@@ -4087,7 +4083,7 @@
       <c r="I49" s="47"/>
       <c r="J49" s="53"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="19"/>
@@ -4105,7 +4101,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="53"/>
     </row>
-    <row r="51" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="54.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="23" t="s">
@@ -4125,7 +4121,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="53"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
@@ -4143,7 +4139,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="53"/>
     </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="18.95" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="20" t="s">
@@ -4163,7 +4159,7 @@
       <c r="I53" s="47"/>
       <c r="J53" s="53"/>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4181,7 +4177,7 @@
       <c r="I54" s="47"/>
       <c r="J54" s="53"/>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4199,7 +4195,7 @@
       <c r="I55" s="47"/>
       <c r="J55" s="53"/>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="14" t="s">
@@ -4219,7 +4215,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="53"/>
     </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="18.95" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -4237,7 +4233,7 @@
       <c r="I57" s="47"/>
       <c r="J57" s="53"/>
     </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="18.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -4255,7 +4251,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="53"/>
     </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="18.95" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -4273,7 +4269,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="53"/>
     </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="18.95" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -4291,7 +4287,7 @@
       <c r="I60" s="47"/>
       <c r="J60" s="53"/>
     </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="18.95" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -4309,7 +4305,7 @@
       <c r="I61" s="47"/>
       <c r="J61" s="53"/>
     </row>
-    <row r="62" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="18.95" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="17"/>
@@ -4327,7 +4323,7 @@
       <c r="I62" s="47"/>
       <c r="J62" s="53"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="37.5" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="25"/>
       <c r="C63" s="19"/>
@@ -4345,7 +4341,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="53"/>
     </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="37.5" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9" t="s">
@@ -4365,7 +4361,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="53"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="21.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4383,7 +4379,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="53"/>
     </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="18.95" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4401,7 +4397,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="53"/>
     </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="18.95" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4419,7 +4415,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="53"/>
     </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="18.95" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4437,7 +4433,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="53"/>
     </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="18.95" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4455,7 +4451,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="53"/>
     </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="18.95" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="20"/>
@@ -4473,7 +4469,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="53"/>
     </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="18.95" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9" t="s">
@@ -4493,7 +4489,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="53"/>
     </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="18.95" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4511,7 +4507,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="53"/>
     </row>
-    <row r="73" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="18.95" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4529,7 +4525,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="53"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4547,7 +4543,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="53"/>
     </row>
-    <row r="75" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="18.95" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4565,7 +4561,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="53"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="18.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4583,7 +4579,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="53"/>
     </row>
-    <row r="77" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="18.95" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4601,7 +4597,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="53"/>
     </row>
-    <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="36" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="23" t="s">
         <v>180</v>
@@ -4625,7 +4621,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="53"/>
     </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="18.95" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4645,7 +4641,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="53"/>
     </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="18.95" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4665,7 +4661,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="53"/>
     </row>
-    <row r="81" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="18.95" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4685,7 +4681,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="53"/>
     </row>
-    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="36" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4705,7 +4701,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="53"/>
     </row>
-    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="17"/>
       <c r="C83" s="29"/>
@@ -4725,7 +4721,7 @@
       <c r="I83" s="47"/>
       <c r="J83" s="53"/>
     </row>
-    <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="18.95" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="49"/>
       <c r="C84" s="56" t="s">
@@ -4747,7 +4743,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="53"/>
     </row>
-    <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="41.25" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="49"/>
       <c r="C85" s="62" t="s">
@@ -4769,7 +4765,7 @@
       </c>
       <c r="J85" s="55"/>
     </row>
-    <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="36.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29" t="s">
@@ -4789,7 +4785,7 @@
       <c r="I86" s="61"/>
       <c r="J86" s="53"/>
     </row>
-    <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="26.25" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4807,7 +4803,7 @@
       <c r="I87" s="47"/>
       <c r="J87" s="53"/>
     </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="26.25" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4825,7 +4821,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="53"/>
     </row>
-    <row r="89" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="128.25" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4843,7 +4839,7 @@
       <c r="I89" s="47"/>
       <c r="J89" s="53"/>
     </row>
-    <row r="90" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="24" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="29"/>
@@ -4861,7 +4857,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="53"/>
     </row>
-    <row r="91" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="56.25" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="29"/>
@@ -4879,7 +4875,7 @@
       <c r="I91" s="47"/>
       <c r="J91" s="53"/>
     </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="19.5" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4899,7 +4895,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="53"/>
     </row>
-    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="19.5" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="30"/>
@@ -4917,7 +4913,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="53"/>
     </row>
-    <row r="94" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="18.95" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4937,7 +4933,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="53"/>
     </row>
-    <row r="95" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="41.25" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29"/>
@@ -4955,7 +4951,7 @@
       <c r="I95" s="47"/>
       <c r="J95" s="53"/>
     </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="39" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="28" t="s">
@@ -4975,7 +4971,7 @@
       <c r="I96" s="47"/>
       <c r="J96" s="53"/>
     </row>
-    <row r="97" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="37.5" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29" t="s">
@@ -4995,7 +4991,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="53"/>
     </row>
-    <row r="98" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="38.25" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="29"/>
@@ -5013,7 +5009,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="53"/>
     </row>
-    <row r="99" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="69.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="29"/>
@@ -5031,7 +5027,7 @@
       <c r="I99" s="47"/>
       <c r="J99" s="53"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="19.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="30"/>
@@ -5049,7 +5045,7 @@
       <c r="I100" s="47"/>
       <c r="J100" s="53"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="19.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="28" t="s">
@@ -5069,7 +5065,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="53"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="19.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="29"/>
@@ -5087,7 +5083,7 @@
       <c r="I102" s="47"/>
       <c r="J102" s="53"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="19.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -5105,7 +5101,7 @@
       <c r="I103" s="47"/>
       <c r="J103" s="53"/>
     </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="19.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="17"/>
       <c r="C104" s="28" t="s">
@@ -5125,7 +5121,7 @@
       <c r="I104" s="47"/>
       <c r="J104" s="53"/>
     </row>
-    <row r="105" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="19.5" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="30"/>
@@ -5143,7 +5139,7 @@
       <c r="I105" s="47"/>
       <c r="J105" s="53"/>
     </row>
-    <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="34.5" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="14" t="s">
         <v>66</v>
@@ -5165,7 +5161,7 @@
       <c r="I106" s="47"/>
       <c r="J106" s="53"/>
     </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="18.95" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="35"/>
@@ -5183,7 +5179,7 @@
       <c r="I107" s="47"/>
       <c r="J107" s="53"/>
     </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="18.95" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="30"/>
@@ -5201,7 +5197,7 @@
       <c r="I108" s="47"/>
       <c r="J108" s="53"/>
     </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="18.95" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="17"/>
       <c r="C109" s="36" t="s">
@@ -5221,7 +5217,7 @@
       <c r="I109" s="47"/>
       <c r="J109" s="53"/>
     </row>
-    <row r="110" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="18.95" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="17"/>
       <c r="C110" s="15" t="s">
@@ -5241,7 +5237,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="53"/>
     </row>
-    <row r="111" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="18.95" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
@@ -5261,7 +5257,7 @@
       <c r="I111" s="47"/>
       <c r="J111" s="53"/>
     </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="21.95" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="20" t="s">
         <v>67</v>
@@ -5287,7 +5283,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="53"/>
     </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="21.95" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="C113" s="66"/>
@@ -5309,7 +5305,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="53"/>
     </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="21.95" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="C114" s="66"/>
@@ -5331,7 +5327,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="53"/>
     </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="21.95" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="22" t="s">
@@ -5352,7 +5348,7 @@
       <c r="I115" s="47"/>
       <c r="J115" s="53"/>
     </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="21.95" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="22" t="s">
@@ -5373,7 +5369,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="53"/>
     </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="21.95" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="10" t="s">
@@ -5385,12 +5381,16 @@
       <c r="F117" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
+      <c r="G117" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" s="50">
+        <v>42674</v>
+      </c>
       <c r="I117" s="47"/>
       <c r="J117" s="53"/>
     </row>
-    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="21.95" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="11"/>
       <c r="D118" s="10" t="s">
@@ -5402,12 +5402,16 @@
       <c r="F118" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
+      <c r="G118" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H118" s="50">
+        <v>42676</v>
+      </c>
       <c r="I118" s="47"/>
       <c r="J118" s="53"/>
     </row>
-    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="21.95" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="11"/>
       <c r="D119" s="9" t="s">
@@ -5419,12 +5423,16 @@
       <c r="F119" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
+      <c r="G119" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H119" s="50">
+        <v>42676</v>
+      </c>
       <c r="I119" s="47"/>
       <c r="J119" s="53"/>
     </row>
-    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="24" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="14" t="s">
         <v>29</v>
@@ -5450,7 +5458,7 @@
       <c r="I120" s="47"/>
       <c r="J120" s="53"/>
     </row>
-    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="25.5" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
       <c r="C121" s="68"/>
@@ -5472,7 +5480,7 @@
       <c r="I121" s="47"/>
       <c r="J121" s="53"/>
     </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="18" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
       <c r="C122" s="68"/>
@@ -5494,7 +5502,7 @@
       <c r="I122" s="47"/>
       <c r="J122" s="53"/>
     </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="18" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
       <c r="C123" s="68"/>
@@ -5516,7 +5524,7 @@
       <c r="I123" s="47"/>
       <c r="J123" s="53"/>
     </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="18" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
       <c r="C124" s="68"/>
@@ -5538,7 +5546,7 @@
       <c r="I124" s="47"/>
       <c r="J124" s="53"/>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
       <c r="C125" s="68"/>
@@ -5560,7 +5568,7 @@
       <c r="I125" s="47"/>
       <c r="J125" s="53"/>
     </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="18" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
       <c r="C126" s="68"/>
@@ -5582,7 +5590,7 @@
       <c r="I126" s="47"/>
       <c r="J126" s="53"/>
     </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="18" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
       <c r="C127" s="68"/>
@@ -5604,7 +5612,7 @@
       <c r="I127" s="47"/>
       <c r="J127" s="53"/>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="18" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="68"/>
@@ -5626,7 +5634,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="53"/>
     </row>
-    <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="18" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="68"/>
@@ -5648,7 +5656,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="53"/>
     </row>
-    <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="18" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="45"/>
@@ -5670,7 +5678,7 @@
       <c r="I130" s="47"/>
       <c r="J130" s="53"/>
     </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="18.95" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="31"/>
       <c r="C131" s="29"/>
@@ -5692,7 +5700,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="53"/>
     </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="18.95" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="31"/>
       <c r="C132" s="28" t="s">
@@ -5712,7 +5720,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="53"/>
     </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="18.95" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="32"/>
       <c r="C133" s="30"/>
@@ -5730,7 +5738,7 @@
       <c r="I133" s="47"/>
       <c r="J133" s="53"/>
     </row>
-    <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="18.95" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="20" t="s">
         <v>68</v>
@@ -5752,7 +5760,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="53"/>
     </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="18.95" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -5770,7 +5778,7 @@
       <c r="I135" s="47"/>
       <c r="J135" s="53"/>
     </row>
-    <row r="136" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="71.25" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -5788,7 +5796,7 @@
       <c r="I136" s="47"/>
       <c r="J136" s="53"/>
     </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="18.95" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -5806,7 +5814,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="53"/>
     </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="18.95" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
@@ -5824,7 +5832,7 @@
       <c r="I138" s="47"/>
       <c r="J138" s="53"/>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="18.95" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="9" t="s">
@@ -5844,7 +5852,7 @@
       <c r="I139" s="47"/>
       <c r="J139" s="53"/>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="18.95" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -5862,7 +5870,7 @@
       <c r="I140" s="47"/>
       <c r="J140" s="53"/>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="18.95" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
@@ -5880,7 +5888,7 @@
       <c r="I141" s="47"/>
       <c r="J141" s="53"/>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="18.95" customHeight="1">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="9" t="s">
@@ -5900,7 +5908,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="53"/>
     </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="18.95" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -5918,7 +5926,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="53"/>
     </row>
-    <row r="144" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="18.95" customHeight="1">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
@@ -5936,7 +5944,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="53"/>
     </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="18.95" customHeight="1">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="9" t="s">
@@ -5956,7 +5964,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="53"/>
     </row>
-    <row r="146" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="38.25" customHeight="1">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -5974,7 +5982,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="53"/>
     </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="18.95" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -5992,7 +6000,7 @@
       <c r="I147" s="47"/>
       <c r="J147" s="53"/>
     </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="18.95" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -6012,7 +6020,7 @@
       <c r="I148" s="47"/>
       <c r="J148" s="53"/>
     </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="18.95" customHeight="1">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="12"/>
@@ -6030,7 +6038,7 @@
       <c r="I149" s="47"/>
       <c r="J149" s="53"/>
     </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="18.95" customHeight="1">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="9" t="s">
@@ -6050,7 +6058,7 @@
       <c r="I150" s="47"/>
       <c r="J150" s="53"/>
     </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="18.95" customHeight="1">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -6068,7 +6076,7 @@
       <c r="I151" s="47"/>
       <c r="J151" s="53"/>
     </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="18.95" customHeight="1">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -6086,7 +6094,7 @@
       <c r="I152" s="47"/>
       <c r="J152" s="53"/>
     </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="18.95" customHeight="1">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="12"/>
@@ -6104,7 +6112,7 @@
       <c r="I153" s="47"/>
       <c r="J153" s="53"/>
     </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="18.95" customHeight="1">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10" t="s">
@@ -6124,7 +6132,7 @@
       <c r="I154" s="47"/>
       <c r="J154" s="53"/>
     </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="18.95" customHeight="1">
       <c r="A155" s="8"/>
       <c r="B155" s="11"/>
       <c r="C155" s="9" t="s">
@@ -6144,7 +6152,7 @@
       <c r="I155" s="47"/>
       <c r="J155" s="53"/>
     </row>
-    <row r="156" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="18.95" customHeight="1">
       <c r="A156" s="8"/>
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
@@ -6162,7 +6170,7 @@
       <c r="I156" s="47"/>
       <c r="J156" s="53"/>
     </row>
-    <row r="157" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="18.95" customHeight="1">
       <c r="A157" s="8"/>
       <c r="B157" s="37"/>
       <c r="C157" s="10" t="s">
@@ -6202,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6210,76 +6218,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6297,7 +6305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6305,76 +6313,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="268">
   <si>
     <t>系统</t>
   </si>
@@ -1098,12 +1102,30 @@
     <t>选择购买商品</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">/order/init
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、缺少清空检索项的功能
+2、缺少翻页功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增插件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.helloweba.com/view-blog-282.html</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1503,7 +1525,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1710,6 +1732,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3038,18 +3063,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.296875" style="6" customWidth="1"/>
@@ -3064,7 +3089,7 @@
     <col min="256" max="16384" width="7.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -3081,7 +3106,7 @@
       <c r="F1" s="5"/>
       <c r="J1" s="47"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
         <v>204</v>
@@ -3111,7 +3136,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
         <v>65</v>
@@ -3135,7 +3160,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1">
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3155,7 +3180,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -3175,7 +3200,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="53"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
@@ -3197,7 +3222,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="53"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3217,7 +3242,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="53"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3237,7 +3262,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1">
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -3259,7 +3284,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="53"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3279,7 +3304,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -3299,7 +3324,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1">
+    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3321,7 +3346,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3341,7 +3366,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="53"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3361,7 +3386,7 @@
       <c r="I14" s="47"/>
       <c r="J14" s="53"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="23" t="s">
@@ -3381,7 +3406,7 @@
       <c r="I15" s="47"/>
       <c r="J15" s="53"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3399,7 +3424,7 @@
       <c r="I16" s="47"/>
       <c r="J16" s="53"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3417,7 +3442,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="53"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>181</v>
@@ -3445,7 +3470,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
+    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3469,7 +3494,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3493,7 +3518,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3513,7 +3538,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="53"/>
     </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1">
+    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3537,7 +3562,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3561,7 +3586,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" customHeight="1">
+    <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3585,7 +3610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3605,7 +3630,7 @@
       <c r="I25" s="47"/>
       <c r="J25" s="53"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3629,7 +3654,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="23" t="s">
@@ -3649,7 +3674,7 @@
       <c r="I27" s="47"/>
       <c r="J27" s="53"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3667,7 +3692,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="53"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3685,7 +3710,7 @@
       <c r="I29" s="47"/>
       <c r="J29" s="53"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3703,7 +3728,7 @@
       <c r="I30" s="47"/>
       <c r="J30" s="53"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1">
+    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
@@ -3727,7 +3752,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3749,7 +3774,7 @@
       </c>
       <c r="J32" s="53"/>
     </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1">
+    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
@@ -3775,7 +3800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3799,7 +3824,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.75" customHeight="1">
+    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -3821,7 +3846,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="73.5" customHeight="1">
+    <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
@@ -3839,7 +3864,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="53"/>
     </row>
-    <row r="37" spans="1:10" ht="18.95" customHeight="1">
+    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="14" t="s">
@@ -3855,13 +3880,17 @@
         <v>228</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="53"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1">
+      <c r="I37" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3874,12 +3903,14 @@
       <c r="F38" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="53"/>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3892,12 +3923,14 @@
       <c r="F39" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="J39" s="53"/>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3910,12 +3943,14 @@
       <c r="F40" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
       <c r="J40" s="53"/>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -3928,12 +3963,14 @@
       <c r="F41" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="53"/>
     </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1">
+    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="23" t="s">
@@ -3948,12 +3985,14 @@
       <c r="F42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="47"/>
+      <c r="G42" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="J42" s="53"/>
     </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1">
+    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -3966,12 +4005,18 @@
       <c r="F43" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
+      <c r="G43" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>266</v>
+      </c>
       <c r="I43" s="47"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.95" customHeight="1">
+      <c r="J43" s="69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="25"/>
       <c r="C44" s="23" t="s">
@@ -3991,7 +4036,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="53"/>
     </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
@@ -4009,7 +4054,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="53"/>
     </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
@@ -4027,7 +4072,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="53"/>
     </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1">
+    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="25"/>
       <c r="C47" s="17"/>
@@ -4045,7 +4090,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="53"/>
     </row>
-    <row r="48" spans="1:10" ht="42" customHeight="1">
+    <row r="48" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="25"/>
       <c r="C48" s="19"/>
@@ -4061,7 +4106,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="53"/>
     </row>
-    <row r="49" spans="1:10" ht="38.25" customHeight="1">
+    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="26" t="s">
         <v>182</v>
@@ -4083,7 +4128,7 @@
       <c r="I49" s="47"/>
       <c r="J49" s="53"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="19"/>
@@ -4101,7 +4146,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="53"/>
     </row>
-    <row r="51" spans="1:10" ht="54.75" customHeight="1">
+    <row r="51" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="23" t="s">
@@ -4121,7 +4166,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="53"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
@@ -4139,7 +4184,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="53"/>
     </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1">
+    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="20" t="s">
@@ -4159,7 +4204,7 @@
       <c r="I53" s="47"/>
       <c r="J53" s="53"/>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4177,7 +4222,7 @@
       <c r="I54" s="47"/>
       <c r="J54" s="53"/>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4195,7 +4240,7 @@
       <c r="I55" s="47"/>
       <c r="J55" s="53"/>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="25"/>
       <c r="C56" s="14" t="s">
@@ -4215,7 +4260,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="53"/>
     </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1">
+    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
@@ -4233,7 +4278,7 @@
       <c r="I57" s="47"/>
       <c r="J57" s="53"/>
     </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1">
+    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
@@ -4251,7 +4296,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="53"/>
     </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1">
+    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
@@ -4269,7 +4314,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="53"/>
     </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1">
+    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
@@ -4287,7 +4332,7 @@
       <c r="I60" s="47"/>
       <c r="J60" s="53"/>
     </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1">
+    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
@@ -4305,7 +4350,7 @@
       <c r="I61" s="47"/>
       <c r="J61" s="53"/>
     </row>
-    <row r="62" spans="1:10" ht="18.95" customHeight="1">
+    <row r="62" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="25"/>
       <c r="C62" s="17"/>
@@ -4323,7 +4368,7 @@
       <c r="I62" s="47"/>
       <c r="J62" s="53"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1">
+    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="25"/>
       <c r="C63" s="19"/>
@@ -4341,7 +4386,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="53"/>
     </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1">
+    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9" t="s">
@@ -4361,7 +4406,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="53"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1">
+    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
@@ -4379,7 +4424,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="53"/>
     </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1">
+    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
@@ -4397,7 +4442,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="53"/>
     </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1">
+    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
@@ -4415,7 +4460,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="53"/>
     </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1">
+    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
@@ -4433,7 +4478,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="53"/>
     </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1">
+    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
@@ -4451,7 +4496,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="53"/>
     </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1">
+    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="20"/>
@@ -4469,7 +4514,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="53"/>
     </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1">
+    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9" t="s">
@@ -4489,7 +4534,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="53"/>
     </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1">
+    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4507,7 +4552,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="53"/>
     </row>
-    <row r="73" spans="1:10" ht="18.95" customHeight="1">
+    <row r="73" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4525,7 +4570,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="53"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4543,7 +4588,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="53"/>
     </row>
-    <row r="75" spans="1:10" ht="18.95" customHeight="1">
+    <row r="75" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4561,7 +4606,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="53"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1">
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4579,7 +4624,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="53"/>
     </row>
-    <row r="77" spans="1:10" ht="18.95" customHeight="1">
+    <row r="77" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4597,7 +4642,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="53"/>
     </row>
-    <row r="78" spans="1:10" ht="36" customHeight="1">
+    <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="23" t="s">
         <v>180</v>
@@ -4621,7 +4666,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="53"/>
     </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1">
+    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
@@ -4641,7 +4686,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="53"/>
     </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1">
+    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -4661,7 +4706,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="53"/>
     </row>
-    <row r="81" spans="1:10" ht="18.95" customHeight="1">
+    <row r="81" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -4681,7 +4726,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="53"/>
     </row>
-    <row r="82" spans="1:10" ht="36" customHeight="1">
+    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
@@ -4701,7 +4746,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="53"/>
     </row>
-    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1">
+    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="17"/>
       <c r="C83" s="29"/>
@@ -4721,7 +4766,7 @@
       <c r="I83" s="47"/>
       <c r="J83" s="53"/>
     </row>
-    <row r="84" spans="1:10" ht="18.95" customHeight="1">
+    <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="49"/>
       <c r="C84" s="56" t="s">
@@ -4743,7 +4788,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="53"/>
     </row>
-    <row r="85" spans="1:10" ht="41.25" customHeight="1">
+    <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="49"/>
       <c r="C85" s="62" t="s">
@@ -4765,7 +4810,7 @@
       </c>
       <c r="J85" s="55"/>
     </row>
-    <row r="86" spans="1:10" ht="36.75" customHeight="1">
+    <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29" t="s">
@@ -4785,7 +4830,7 @@
       <c r="I86" s="61"/>
       <c r="J86" s="53"/>
     </row>
-    <row r="87" spans="1:10" ht="26.25" customHeight="1">
+    <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
@@ -4803,7 +4848,7 @@
       <c r="I87" s="47"/>
       <c r="J87" s="53"/>
     </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1">
+    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
@@ -4821,7 +4866,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="53"/>
     </row>
-    <row r="89" spans="1:10" ht="128.25" customHeight="1">
+    <row r="89" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
@@ -4839,7 +4884,7 @@
       <c r="I89" s="47"/>
       <c r="J89" s="53"/>
     </row>
-    <row r="90" spans="1:10" ht="24" customHeight="1">
+    <row r="90" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="29"/>
@@ -4857,7 +4902,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="53"/>
     </row>
-    <row r="91" spans="1:10" ht="56.25" customHeight="1">
+    <row r="91" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="29"/>
@@ -4875,7 +4920,7 @@
       <c r="I91" s="47"/>
       <c r="J91" s="53"/>
     </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1">
+    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
@@ -4895,7 +4940,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="53"/>
     </row>
-    <row r="93" spans="1:10" ht="19.5" customHeight="1">
+    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="30"/>
@@ -4913,7 +4958,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="53"/>
     </row>
-    <row r="94" spans="1:10" ht="18.95" customHeight="1">
+    <row r="94" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
@@ -4933,7 +4978,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="53"/>
     </row>
-    <row r="95" spans="1:10" ht="41.25" customHeight="1">
+    <row r="95" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="29"/>
@@ -4951,7 +4996,7 @@
       <c r="I95" s="47"/>
       <c r="J95" s="53"/>
     </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1">
+    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="28" t="s">
@@ -4971,7 +5016,7 @@
       <c r="I96" s="47"/>
       <c r="J96" s="53"/>
     </row>
-    <row r="97" spans="1:10" ht="37.5" customHeight="1">
+    <row r="97" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29" t="s">
@@ -4991,7 +5036,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="53"/>
     </row>
-    <row r="98" spans="1:10" ht="38.25" customHeight="1">
+    <row r="98" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="29"/>
@@ -5009,7 +5054,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="53"/>
     </row>
-    <row r="99" spans="1:10" ht="69.75" customHeight="1">
+    <row r="99" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="29"/>
@@ -5027,7 +5072,7 @@
       <c r="I99" s="47"/>
       <c r="J99" s="53"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1">
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="30"/>
@@ -5045,7 +5090,7 @@
       <c r="I100" s="47"/>
       <c r="J100" s="53"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1">
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="28" t="s">
@@ -5065,7 +5110,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="53"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1">
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="29"/>
@@ -5083,7 +5128,7 @@
       <c r="I102" s="47"/>
       <c r="J102" s="53"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1">
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
@@ -5101,7 +5146,7 @@
       <c r="I103" s="47"/>
       <c r="J103" s="53"/>
     </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1">
+    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="17"/>
       <c r="C104" s="28" t="s">
@@ -5121,7 +5166,7 @@
       <c r="I104" s="47"/>
       <c r="J104" s="53"/>
     </row>
-    <row r="105" spans="1:10" ht="19.5" customHeight="1">
+    <row r="105" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="30"/>
@@ -5139,7 +5184,7 @@
       <c r="I105" s="47"/>
       <c r="J105" s="53"/>
     </row>
-    <row r="106" spans="1:10" ht="34.5" customHeight="1">
+    <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="14" t="s">
         <v>66</v>
@@ -5161,7 +5206,7 @@
       <c r="I106" s="47"/>
       <c r="J106" s="53"/>
     </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1">
+    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="35"/>
@@ -5179,7 +5224,7 @@
       <c r="I107" s="47"/>
       <c r="J107" s="53"/>
     </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1">
+    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="30"/>
@@ -5197,7 +5242,7 @@
       <c r="I108" s="47"/>
       <c r="J108" s="53"/>
     </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1">
+    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="17"/>
       <c r="C109" s="36" t="s">
@@ -5217,7 +5262,7 @@
       <c r="I109" s="47"/>
       <c r="J109" s="53"/>
     </row>
-    <row r="110" spans="1:10" ht="18.95" customHeight="1">
+    <row r="110" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="17"/>
       <c r="C110" s="15" t="s">
@@ -5237,7 +5282,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="53"/>
     </row>
-    <row r="111" spans="1:10" ht="18.95" customHeight="1">
+    <row r="111" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
@@ -5257,7 +5302,7 @@
       <c r="I111" s="47"/>
       <c r="J111" s="53"/>
     </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1">
+    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="20" t="s">
         <v>67</v>
@@ -5283,7 +5328,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="53"/>
     </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1">
+    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
       <c r="C113" s="66"/>
@@ -5305,7 +5350,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="53"/>
     </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1">
+    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="C114" s="66"/>
@@ -5327,7 +5372,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="53"/>
     </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1">
+    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="D115" s="22" t="s">
@@ -5348,7 +5393,7 @@
       <c r="I115" s="47"/>
       <c r="J115" s="53"/>
     </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1">
+    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="11"/>
       <c r="D116" s="22" t="s">
@@ -5369,7 +5414,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="53"/>
     </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1">
+    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="11"/>
       <c r="D117" s="10" t="s">
@@ -5390,7 +5435,7 @@
       <c r="I117" s="47"/>
       <c r="J117" s="53"/>
     </row>
-    <row r="118" spans="1:10" ht="21.95" customHeight="1">
+    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="11"/>
       <c r="D118" s="10" t="s">
@@ -5411,7 +5456,7 @@
       <c r="I118" s="47"/>
       <c r="J118" s="53"/>
     </row>
-    <row r="119" spans="1:10" ht="21.95" customHeight="1">
+    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="11"/>
       <c r="D119" s="9" t="s">
@@ -5432,7 +5477,7 @@
       <c r="I119" s="47"/>
       <c r="J119" s="53"/>
     </row>
-    <row r="120" spans="1:10" ht="24" customHeight="1">
+    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="14" t="s">
         <v>29</v>
@@ -5458,7 +5503,7 @@
       <c r="I120" s="47"/>
       <c r="J120" s="53"/>
     </row>
-    <row r="121" spans="1:10" ht="25.5" customHeight="1">
+    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
       <c r="C121" s="68"/>
@@ -5480,7 +5525,7 @@
       <c r="I121" s="47"/>
       <c r="J121" s="53"/>
     </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1">
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
       <c r="C122" s="68"/>
@@ -5502,7 +5547,7 @@
       <c r="I122" s="47"/>
       <c r="J122" s="53"/>
     </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1">
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
       <c r="C123" s="68"/>
@@ -5524,7 +5569,7 @@
       <c r="I123" s="47"/>
       <c r="J123" s="53"/>
     </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1">
+    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
       <c r="C124" s="68"/>
@@ -5546,7 +5591,7 @@
       <c r="I124" s="47"/>
       <c r="J124" s="53"/>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1">
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
       <c r="C125" s="68"/>
@@ -5568,7 +5613,7 @@
       <c r="I125" s="47"/>
       <c r="J125" s="53"/>
     </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1">
+    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
       <c r="C126" s="68"/>
@@ -5590,7 +5635,7 @@
       <c r="I126" s="47"/>
       <c r="J126" s="53"/>
     </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1">
+    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
       <c r="C127" s="68"/>
@@ -5612,7 +5657,7 @@
       <c r="I127" s="47"/>
       <c r="J127" s="53"/>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1">
+    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
       <c r="C128" s="68"/>
@@ -5634,7 +5679,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="53"/>
     </row>
-    <row r="129" spans="1:10" ht="18" customHeight="1">
+    <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
       <c r="C129" s="68"/>
@@ -5656,7 +5701,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="53"/>
     </row>
-    <row r="130" spans="1:10" ht="18" customHeight="1">
+    <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="31"/>
       <c r="C130" s="45"/>
@@ -5678,7 +5723,7 @@
       <c r="I130" s="47"/>
       <c r="J130" s="53"/>
     </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1">
+    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="31"/>
       <c r="C131" s="29"/>
@@ -5700,7 +5745,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="53"/>
     </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1">
+    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="31"/>
       <c r="C132" s="28" t="s">
@@ -5720,7 +5765,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="53"/>
     </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1">
+    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="32"/>
       <c r="C133" s="30"/>
@@ -5738,7 +5783,7 @@
       <c r="I133" s="47"/>
       <c r="J133" s="53"/>
     </row>
-    <row r="134" spans="1:10" ht="18.95" customHeight="1">
+    <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="20" t="s">
         <v>68</v>
@@ -5760,7 +5805,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="53"/>
     </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1">
+    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -5778,7 +5823,7 @@
       <c r="I135" s="47"/>
       <c r="J135" s="53"/>
     </row>
-    <row r="136" spans="1:10" ht="71.25" customHeight="1">
+    <row r="136" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -5796,7 +5841,7 @@
       <c r="I136" s="47"/>
       <c r="J136" s="53"/>
     </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1">
+    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -5814,7 +5859,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="53"/>
     </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1">
+    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
@@ -5832,7 +5877,7 @@
       <c r="I138" s="47"/>
       <c r="J138" s="53"/>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1">
+    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="9" t="s">
@@ -5852,7 +5897,7 @@
       <c r="I139" s="47"/>
       <c r="J139" s="53"/>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1">
+    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -5870,7 +5915,7 @@
       <c r="I140" s="47"/>
       <c r="J140" s="53"/>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1">
+    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
@@ -5888,7 +5933,7 @@
       <c r="I141" s="47"/>
       <c r="J141" s="53"/>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1">
+    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="9" t="s">
@@ -5908,7 +5953,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="53"/>
     </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1">
+    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -5926,7 +5971,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="53"/>
     </row>
-    <row r="144" spans="1:10" ht="18.95" customHeight="1">
+    <row r="144" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
@@ -5944,7 +5989,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="53"/>
     </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1">
+    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="11"/>
       <c r="C145" s="9" t="s">
@@ -5964,7 +6009,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="53"/>
     </row>
-    <row r="146" spans="1:10" ht="38.25" customHeight="1">
+    <row r="146" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -5982,7 +6027,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="53"/>
     </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1">
+    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -6000,7 +6045,7 @@
       <c r="I147" s="47"/>
       <c r="J147" s="53"/>
     </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1">
+    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9" t="s">
@@ -6020,7 +6065,7 @@
       <c r="I148" s="47"/>
       <c r="J148" s="53"/>
     </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1">
+    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="11"/>
       <c r="C149" s="12"/>
@@ -6038,7 +6083,7 @@
       <c r="I149" s="47"/>
       <c r="J149" s="53"/>
     </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1">
+    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="9" t="s">
@@ -6058,7 +6103,7 @@
       <c r="I150" s="47"/>
       <c r="J150" s="53"/>
     </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1">
+    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -6076,7 +6121,7 @@
       <c r="I151" s="47"/>
       <c r="J151" s="53"/>
     </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1">
+    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -6094,7 +6139,7 @@
       <c r="I152" s="47"/>
       <c r="J152" s="53"/>
     </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1">
+    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="11"/>
       <c r="C153" s="12"/>
@@ -6112,7 +6157,7 @@
       <c r="I153" s="47"/>
       <c r="J153" s="53"/>
     </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1">
+    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10" t="s">
@@ -6132,7 +6177,7 @@
       <c r="I154" s="47"/>
       <c r="J154" s="53"/>
     </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1">
+    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="11"/>
       <c r="C155" s="9" t="s">
@@ -6152,7 +6197,7 @@
       <c r="I155" s="47"/>
       <c r="J155" s="53"/>
     </row>
-    <row r="156" spans="1:10" ht="18.95" customHeight="1">
+    <row r="156" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
@@ -6170,7 +6215,7 @@
       <c r="I156" s="47"/>
       <c r="J156" s="53"/>
     </row>
-    <row r="157" spans="1:10" ht="18.95" customHeight="1">
+    <row r="157" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="37"/>
       <c r="C157" s="10" t="s">
@@ -6201,8 +6246,11 @@
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J43" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -6210,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6218,76 +6266,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6305,7 +6353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6313,76 +6361,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="271">
   <si>
     <t>系统</t>
   </si>
@@ -461,10 +461,6 @@
   </si>
   <si>
     <t>业务员查看本期回购商品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择业务时间点（统计业务参照）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1117,8 +1113,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.helloweba.com/view-blog-282.html</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>/order/receive type=2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/receive type=3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/receive type=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择业务时间点（统计业务参照）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
@@ -1721,6 +1732,9 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1732,9 +1746,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3070,7 +3081,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -3109,31 +3120,31 @@
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>207</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>224</v>
-      </c>
       <c r="J2" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,10 +3162,10 @@
         <v>96</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -3171,10 +3182,10 @@
         <v>96</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -3191,10 +3202,10 @@
         <v>96</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -3213,10 +3224,10 @@
         <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -3233,10 +3244,10 @@
         <v>96</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -3253,10 +3264,10 @@
         <v>96</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -3275,10 +3286,10 @@
         <v>96</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -3295,10 +3306,10 @@
         <v>96</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -3315,10 +3326,10 @@
         <v>96</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -3337,10 +3348,10 @@
         <v>96</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -3357,10 +3368,10 @@
         <v>96</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -3377,10 +3388,10 @@
         <v>96</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -3393,13 +3404,13 @@
         <v>97</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
@@ -3411,13 +3422,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -3435,7 +3446,7 @@
         <v>99</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
@@ -3445,7 +3456,7 @@
     <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>8</v>
@@ -3457,17 +3468,17 @@
         <v>96</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3475,23 +3486,23 @@
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3499,23 +3510,23 @@
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="J20" s="53" t="s">
         <v>240</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3523,16 +3534,16 @@
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -3543,23 +3554,23 @@
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3573,17 +3584,17 @@
         <v>96</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="53" t="s">
         <v>243</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3597,17 +3608,17 @@
         <v>102</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3615,16 +3626,16 @@
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>210</v>
-      </c>
       <c r="F25" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -3641,17 +3652,17 @@
         <v>102</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>246</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -3685,7 +3696,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -3703,7 +3714,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
@@ -3721,7 +3732,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -3732,7 +3743,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>72</v>
@@ -3741,15 +3752,15 @@
         <v>102</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="52"/>
       <c r="J31" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3763,14 +3774,14 @@
         <v>102</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J32" s="53"/>
     </row>
@@ -3787,17 +3798,17 @@
         <v>102</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="53" t="s">
         <v>249</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3805,23 +3816,23 @@
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
       <c r="D34" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="53" t="s">
         <v>260</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,21 +3840,21 @@
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="40" t="s">
-        <v>259</v>
-      </c>
       <c r="F35" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3851,13 +3862,13 @@
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
       <c r="D36" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
@@ -3871,23 +3882,23 @@
         <v>7</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3901,14 +3912,16 @@
         <v>96</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
-      <c r="J38" s="53"/>
+      <c r="J38" s="53" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
@@ -3921,14 +3934,16 @@
         <v>96</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="53"/>
+      <c r="J39" s="53" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
@@ -3941,14 +3956,16 @@
         <v>96</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="53"/>
+      <c r="J40" s="53" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -3958,14 +3975,12 @@
         <v>79</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" s="47" t="s">
         <v>227</v>
       </c>
+      <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="53"/>
@@ -3983,10 +3998,10 @@
         <v>96</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
@@ -4003,18 +4018,16 @@
         <v>96</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I43" s="47"/>
-      <c r="J43" s="69" t="s">
-        <v>267</v>
-      </c>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
@@ -4023,15 +4036,17 @@
         <v>86</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>122</v>
-      </c>
       <c r="F44" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="G44" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>270</v>
+      </c>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
       <c r="J44" s="53"/>
@@ -4041,15 +4056,17 @@
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
       <c r="D45" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="G45" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>270</v>
+      </c>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
       <c r="J45" s="53"/>
@@ -4059,15 +4076,17 @@
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
       <c r="D46" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="G46" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>270</v>
+      </c>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
       <c r="J46" s="53"/>
@@ -4077,13 +4096,13 @@
       <c r="B47" s="25"/>
       <c r="C47" s="17"/>
       <c r="D47" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
@@ -4095,13 +4114,15 @@
       <c r="B48" s="25"/>
       <c r="C48" s="19"/>
       <c r="D48" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="G48" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>270</v>
+      </c>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
       <c r="J48" s="53"/>
@@ -4109,7 +4130,7 @@
     <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>76</v>
@@ -4121,7 +4142,7 @@
         <v>102</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -4139,7 +4160,7 @@
         <v>102</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
@@ -4153,13 +4174,13 @@
         <v>82</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
@@ -4171,13 +4192,13 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
@@ -4197,7 +4218,7 @@
         <v>96</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
@@ -4215,7 +4236,7 @@
         <v>96</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
@@ -4233,7 +4254,7 @@
         <v>96</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
@@ -4250,10 +4271,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
@@ -4265,13 +4286,13 @@
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
       <c r="D57" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
@@ -4283,13 +4304,13 @@
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
       <c r="D58" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
@@ -4301,13 +4322,13 @@
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
       <c r="D59" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
@@ -4319,13 +4340,13 @@
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
       <c r="D60" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
@@ -4337,13 +4358,13 @@
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
       <c r="D61" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
@@ -4355,13 +4376,13 @@
       <c r="B62" s="25"/>
       <c r="C62" s="17"/>
       <c r="D62" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
@@ -4373,13 +4394,13 @@
       <c r="B63" s="25"/>
       <c r="C63" s="19"/>
       <c r="D63" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
@@ -4399,7 +4420,7 @@
         <v>100</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
@@ -4417,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
@@ -4435,7 +4456,7 @@
         <v>100</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
@@ -4453,7 +4474,7 @@
         <v>100</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
@@ -4465,13 +4486,13 @@
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
@@ -4483,13 +4504,13 @@
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
       <c r="D69" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E69" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
@@ -4507,7 +4528,7 @@
         <v>100</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
@@ -4527,7 +4548,7 @@
         <v>100</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
@@ -4545,7 +4566,7 @@
         <v>100</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
@@ -4563,7 +4584,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
@@ -4575,13 +4596,13 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E74" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
@@ -4599,7 +4620,7 @@
         <v>100</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
@@ -4617,7 +4638,7 @@
         <v>100</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
@@ -4629,13 +4650,13 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E77" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G77" s="47"/>
       <c r="H77" s="47"/>
@@ -4645,22 +4666,22 @@
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G78" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
@@ -4671,16 +4692,16 @@
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
       <c r="D79" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G79" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
@@ -4691,16 +4712,16 @@
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
       <c r="D80" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G80" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
@@ -4711,16 +4732,16 @@
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
       <c r="D81" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G81" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
@@ -4731,16 +4752,16 @@
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
       <c r="D82" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
@@ -4751,16 +4772,16 @@
       <c r="B83" s="17"/>
       <c r="C83" s="29"/>
       <c r="D83" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G83" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
@@ -4770,19 +4791,19 @@
       <c r="A84" s="4"/>
       <c r="B84" s="49"/>
       <c r="C84" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F84" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
@@ -4792,21 +4813,21 @@
       <c r="A85" s="4"/>
       <c r="B85" s="49"/>
       <c r="C85" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="E85" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="E85" s="64" t="s">
+      <c r="F85" s="54" t="s">
         <v>255</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>256</v>
       </c>
       <c r="G85" s="54"/>
       <c r="H85" s="54"/>
       <c r="I85" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J85" s="55"/>
     </row>
@@ -4814,16 +4835,16 @@
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F86" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G86" s="61"/>
       <c r="H86" s="61"/>
@@ -4835,13 +4856,13 @@
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
       <c r="D87" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
@@ -4853,13 +4874,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
       <c r="D88" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
@@ -4871,13 +4892,13 @@
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
       <c r="D89" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
@@ -4889,13 +4910,13 @@
       <c r="B90" s="17"/>
       <c r="C90" s="29"/>
       <c r="D90" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="42" t="s">
-        <v>171</v>
-      </c>
       <c r="F90" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
@@ -4907,13 +4928,13 @@
       <c r="B91" s="17"/>
       <c r="C91" s="29"/>
       <c r="D91" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
@@ -4924,16 +4945,16 @@
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D92" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="E92" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
@@ -4945,13 +4966,13 @@
       <c r="B93" s="17"/>
       <c r="C93" s="30"/>
       <c r="D93" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
@@ -4962,16 +4983,16 @@
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D94" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="E94" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
@@ -4983,13 +5004,13 @@
       <c r="B95" s="17"/>
       <c r="C95" s="29"/>
       <c r="D95" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
@@ -5003,13 +5024,13 @@
         <v>69</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
@@ -5020,16 +5041,16 @@
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
@@ -5041,13 +5062,13 @@
       <c r="B98" s="17"/>
       <c r="C98" s="29"/>
       <c r="D98" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
@@ -5059,13 +5080,13 @@
       <c r="B99" s="17"/>
       <c r="C99" s="29"/>
       <c r="D99" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
@@ -5077,13 +5098,13 @@
       <c r="B100" s="17"/>
       <c r="C100" s="30"/>
       <c r="D100" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
@@ -5094,16 +5115,16 @@
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
@@ -5115,13 +5136,13 @@
       <c r="B102" s="17"/>
       <c r="C102" s="29"/>
       <c r="D102" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
@@ -5133,13 +5154,13 @@
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
       <c r="D103" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
@@ -5150,16 +5171,16 @@
       <c r="A104" s="4"/>
       <c r="B104" s="17"/>
       <c r="C104" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="E104" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
@@ -5171,13 +5192,13 @@
       <c r="B105" s="17"/>
       <c r="C105" s="30"/>
       <c r="D105" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
@@ -5196,10 +5217,10 @@
         <v>14</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
@@ -5214,10 +5235,10 @@
         <v>15</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
@@ -5232,10 +5253,10 @@
         <v>16</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
@@ -5252,10 +5273,10 @@
         <v>18</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
@@ -5272,10 +5293,10 @@
         <v>20</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G110" s="47"/>
       <c r="H110" s="47"/>
@@ -5286,16 +5307,16 @@
       <c r="A111" s="4"/>
       <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
@@ -5307,20 +5328,20 @@
       <c r="B112" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="65" t="s">
-        <v>157</v>
+      <c r="C112" s="66" t="s">
+        <v>156</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H112" s="50">
         <v>42672</v>
@@ -5331,18 +5352,18 @@
     <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="11"/>
-      <c r="C113" s="66"/>
+      <c r="C113" s="67"/>
       <c r="D113" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G113" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H113" s="50">
         <v>42672</v>
@@ -5353,18 +5374,18 @@
     <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
-      <c r="C114" s="66"/>
+      <c r="C114" s="67"/>
       <c r="D114" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G114" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H114" s="50">
         <v>42672</v>
@@ -5379,13 +5400,13 @@
         <v>24</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G115" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H115" s="50">
         <v>42672</v>
@@ -5400,13 +5421,13 @@
         <v>25</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G116" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H116" s="50">
         <v>42672</v>
@@ -5421,13 +5442,13 @@
         <v>26</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G117" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H117" s="50">
         <v>42674</v>
@@ -5442,13 +5463,13 @@
         <v>27</v>
       </c>
       <c r="E118" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G118" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H118" s="50">
         <v>42676</v>
@@ -5463,13 +5484,13 @@
         <v>28</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G119" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H119" s="50">
         <v>42676</v>
@@ -5482,20 +5503,20 @@
       <c r="B120" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="67" t="s">
-        <v>158</v>
+      <c r="C120" s="68" t="s">
+        <v>157</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H120" s="50">
         <v>42651</v>
@@ -5506,18 +5527,18 @@
     <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="68"/>
+      <c r="C121" s="69"/>
       <c r="D121" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H121" s="50">
         <v>42651</v>
@@ -5528,18 +5549,18 @@
     <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="68"/>
+      <c r="C122" s="69"/>
       <c r="D122" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H122" s="50">
         <v>42670</v>
@@ -5550,18 +5571,18 @@
     <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="68"/>
+      <c r="C123" s="69"/>
       <c r="D123" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H123" s="50">
         <v>42655</v>
@@ -5572,18 +5593,18 @@
     <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="68"/>
+      <c r="C124" s="69"/>
       <c r="D124" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H124" s="50">
         <v>42655</v>
@@ -5594,18 +5615,18 @@
     <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="68"/>
+      <c r="C125" s="69"/>
       <c r="D125" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H125" s="50">
         <v>42655</v>
@@ -5616,18 +5637,18 @@
     <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="68"/>
+      <c r="C126" s="69"/>
       <c r="D126" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H126" s="50">
         <v>42656</v>
@@ -5638,18 +5659,18 @@
     <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="68"/>
+      <c r="C127" s="69"/>
       <c r="D127" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H127" s="50">
         <v>42657</v>
@@ -5660,18 +5681,18 @@
     <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="31"/>
-      <c r="C128" s="68"/>
+      <c r="C128" s="69"/>
       <c r="D128" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H128" s="50">
         <v>42661</v>
@@ -5682,18 +5703,18 @@
     <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="31"/>
-      <c r="C129" s="68"/>
+      <c r="C129" s="69"/>
       <c r="D129" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H129" s="50">
         <v>42661</v>
@@ -5706,16 +5727,16 @@
       <c r="B130" s="31"/>
       <c r="C130" s="45"/>
       <c r="D130" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E130" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="E130" s="40" t="s">
-        <v>214</v>
-      </c>
       <c r="F130" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G130" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H130" s="50">
         <v>42664</v>
@@ -5728,16 +5749,16 @@
       <c r="B131" s="31"/>
       <c r="C131" s="29"/>
       <c r="D131" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G131" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H131" s="50">
         <v>42667</v>
@@ -5749,16 +5770,16 @@
       <c r="A132" s="4"/>
       <c r="B132" s="31"/>
       <c r="C132" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D132" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D132" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="E132" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
@@ -5770,13 +5791,13 @@
       <c r="B133" s="32"/>
       <c r="C133" s="30"/>
       <c r="D133" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
@@ -5795,10 +5816,10 @@
         <v>31</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
@@ -5810,13 +5831,13 @@
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
@@ -5828,13 +5849,13 @@
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
@@ -5849,10 +5870,10 @@
         <v>32</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
@@ -5867,10 +5888,10 @@
         <v>33</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
@@ -5887,10 +5908,10 @@
         <v>35</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
@@ -5905,10 +5926,10 @@
         <v>36</v>
       </c>
       <c r="E140" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
@@ -5923,10 +5944,10 @@
         <v>37</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
@@ -5943,10 +5964,10 @@
         <v>39</v>
       </c>
       <c r="E142" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
@@ -5961,10 +5982,10 @@
         <v>40</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
@@ -5979,10 +6000,10 @@
         <v>41</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
@@ -5999,10 +6020,10 @@
         <v>43</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
@@ -6014,13 +6035,13 @@
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
@@ -6035,10 +6056,10 @@
         <v>44</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
@@ -6055,10 +6076,10 @@
         <v>46</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
@@ -6073,10 +6094,10 @@
         <v>47</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
@@ -6093,10 +6114,10 @@
         <v>49</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
@@ -6111,10 +6132,10 @@
         <v>50</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
@@ -6129,10 +6150,10 @@
         <v>51</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
@@ -6147,10 +6168,10 @@
         <v>52</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
@@ -6167,10 +6188,10 @@
         <v>54</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
@@ -6187,10 +6208,10 @@
         <v>56</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
@@ -6205,10 +6226,10 @@
         <v>57</v>
       </c>
       <c r="E156" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F156" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G156" s="47"/>
       <c r="H156" s="47"/>
@@ -6225,10 +6246,10 @@
         <v>59</v>
       </c>
       <c r="E157" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G157" s="47"/>
       <c r="H157" s="47"/>
@@ -6246,11 +6267,8 @@
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J43" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="275">
   <si>
     <t>系统</t>
   </si>
@@ -411,10 +411,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>尾款结算-打印出库单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>撤销定金-打印收款单据（数量-1）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -473,10 +469,6 @@
   </si>
   <si>
     <t>财务确认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>配售/配送流程：财务-》文交所-》库房</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1129,7 +1121,33 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
+    <t>配售/配送流程：财务-》文交所-》库房</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾款结算-打印出库单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"status", "4"    "payType", "1"
+"orderType", "1"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>setOrderType("2");</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> base+"deposit/pay"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>base+"deposit/cancel"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>base+ "deposit/query"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3080,9 +3098,9 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3093,8 +3111,9 @@
     <col min="4" max="4" width="40.8984375" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" style="44" customWidth="1"/>
     <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.59765625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.69921875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="7" customWidth="1"/>
     <col min="10" max="10" width="16.796875" style="51" customWidth="1"/>
     <col min="11" max="255" width="7.59765625" style="7" customWidth="1"/>
     <col min="256" max="16384" width="7.59765625" style="7"/>
@@ -3120,31 +3139,31 @@
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>206</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3162,10 +3181,10 @@
         <v>96</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -3182,10 +3201,10 @@
         <v>96</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -3202,10 +3221,10 @@
         <v>96</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -3224,10 +3243,10 @@
         <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -3244,10 +3263,10 @@
         <v>96</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -3264,10 +3283,10 @@
         <v>96</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -3286,10 +3305,10 @@
         <v>96</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -3306,10 +3325,10 @@
         <v>96</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -3326,10 +3345,10 @@
         <v>96</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -3348,10 +3367,10 @@
         <v>96</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -3368,10 +3387,10 @@
         <v>96</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -3388,10 +3407,10 @@
         <v>96</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -3404,13 +3423,13 @@
         <v>97</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
@@ -3422,13 +3441,13 @@
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -3446,7 +3465,7 @@
         <v>99</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
@@ -3456,7 +3475,7 @@
     <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>8</v>
@@ -3468,17 +3487,17 @@
         <v>96</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3486,23 +3505,23 @@
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3510,23 +3529,23 @@
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3534,16 +3553,16 @@
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -3554,23 +3573,23 @@
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3584,17 +3603,17 @@
         <v>96</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,17 +3627,17 @@
         <v>102</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3626,16 +3645,16 @@
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -3652,17 +3671,17 @@
         <v>102</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,7 +3697,7 @@
         <v>100</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -3696,7 +3715,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -3714,7 +3733,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
@@ -3732,7 +3751,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -3743,7 +3762,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>72</v>
@@ -3752,15 +3771,15 @@
         <v>102</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="52"/>
       <c r="J31" s="53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3774,14 +3793,14 @@
         <v>102</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J32" s="53"/>
     </row>
@@ -3798,17 +3817,17 @@
         <v>102</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3816,23 +3835,23 @@
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
       <c r="D34" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3840,21 +3859,21 @@
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3862,13 +3881,13 @@
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
       <c r="D36" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
@@ -3882,23 +3901,23 @@
         <v>7</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3912,15 +3931,15 @@
         <v>96</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3934,15 +3953,15 @@
         <v>96</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="J39" s="53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3956,15 +3975,15 @@
         <v>96</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
       <c r="J40" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,7 +3997,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
@@ -3998,10 +4017,10 @@
         <v>96</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
@@ -4018,13 +4037,13 @@
         <v>96</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I43" s="47"/>
       <c r="J43" s="65"/>
@@ -4036,16 +4055,16 @@
         <v>86</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
@@ -4056,16 +4075,16 @@
       <c r="B45" s="25"/>
       <c r="C45" s="24"/>
       <c r="D45" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
@@ -4076,16 +4095,16 @@
       <c r="B46" s="25"/>
       <c r="C46" s="17"/>
       <c r="D46" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
@@ -4096,13 +4115,13 @@
       <c r="B47" s="25"/>
       <c r="C47" s="17"/>
       <c r="D47" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E47" s="42" t="s">
         <v>99</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
@@ -4114,14 +4133,14 @@
       <c r="B48" s="25"/>
       <c r="C48" s="19"/>
       <c r="D48" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
@@ -4130,7 +4149,7 @@
     <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>76</v>
@@ -4139,10 +4158,10 @@
         <v>77</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -4157,10 +4176,10 @@
         <v>78</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
@@ -4174,15 +4193,17 @@
         <v>82</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
       <c r="J51" s="53"/>
@@ -4192,20 +4213,22 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="15" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="E52" s="40" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
       <c r="J52" s="53"/>
     </row>
-    <row r="53" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="11"/>
       <c r="C53" s="20" t="s">
@@ -4218,48 +4241,64 @@
         <v>96</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G53" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="53"/>
+      <c r="I53" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="E54" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="53"/>
+      <c r="I54" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="J54" s="53" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G55" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
-      <c r="J55" s="53"/>
+      <c r="J55" s="53" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
@@ -4271,10 +4310,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
@@ -4286,13 +4325,13 @@
       <c r="B57" s="25"/>
       <c r="C57" s="17"/>
       <c r="D57" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="47"/>
@@ -4304,13 +4343,13 @@
       <c r="B58" s="25"/>
       <c r="C58" s="17"/>
       <c r="D58" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
@@ -4322,13 +4361,13 @@
       <c r="B59" s="25"/>
       <c r="C59" s="17"/>
       <c r="D59" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F59" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="47"/>
@@ -4340,13 +4379,13 @@
       <c r="B60" s="25"/>
       <c r="C60" s="17"/>
       <c r="D60" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
@@ -4358,13 +4397,13 @@
       <c r="B61" s="25"/>
       <c r="C61" s="17"/>
       <c r="D61" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
@@ -4376,13 +4415,13 @@
       <c r="B62" s="25"/>
       <c r="C62" s="17"/>
       <c r="D62" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
@@ -4394,13 +4433,13 @@
       <c r="B63" s="25"/>
       <c r="C63" s="19"/>
       <c r="D63" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G63" s="47"/>
       <c r="H63" s="47"/>
@@ -4411,16 +4450,16 @@
       <c r="A64" s="8"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
@@ -4432,13 +4471,13 @@
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
       <c r="D65" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
@@ -4450,13 +4489,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="20"/>
       <c r="D66" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
@@ -4468,13 +4507,13 @@
       <c r="B67" s="11"/>
       <c r="C67" s="20"/>
       <c r="D67" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47"/>
@@ -4486,13 +4525,13 @@
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
@@ -4504,13 +4543,13 @@
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
       <c r="D69" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E69" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47"/>
@@ -4522,13 +4561,13 @@
       <c r="B70" s="11"/>
       <c r="C70" s="20"/>
       <c r="D70" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
@@ -4539,16 +4578,16 @@
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="E71" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47"/>
@@ -4560,13 +4599,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
@@ -4578,13 +4617,13 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
@@ -4596,13 +4635,13 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E74" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G74" s="47"/>
       <c r="H74" s="47"/>
@@ -4614,13 +4653,13 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E75" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
@@ -4632,13 +4671,13 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47"/>
@@ -4650,13 +4689,13 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E77" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G77" s="47"/>
       <c r="H77" s="47"/>
@@ -4666,22 +4705,22 @@
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G78" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
@@ -4692,16 +4731,16 @@
       <c r="B79" s="17"/>
       <c r="C79" s="29"/>
       <c r="D79" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G79" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
@@ -4712,16 +4751,16 @@
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
       <c r="D80" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G80" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
@@ -4732,16 +4771,16 @@
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
       <c r="D81" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G81" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H81" s="47"/>
       <c r="I81" s="47"/>
@@ -4752,16 +4791,16 @@
       <c r="B82" s="17"/>
       <c r="C82" s="29"/>
       <c r="D82" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
@@ -4772,16 +4811,16 @@
       <c r="B83" s="17"/>
       <c r="C83" s="29"/>
       <c r="D83" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G83" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
@@ -4791,19 +4830,19 @@
       <c r="A84" s="4"/>
       <c r="B84" s="49"/>
       <c r="C84" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" s="59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
@@ -4813,21 +4852,21 @@
       <c r="A85" s="4"/>
       <c r="B85" s="49"/>
       <c r="C85" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="F85" s="54" t="s">
         <v>253</v>
-      </c>
-      <c r="E85" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>255</v>
       </c>
       <c r="G85" s="54"/>
       <c r="H85" s="54"/>
       <c r="I85" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J85" s="55"/>
     </row>
@@ -4835,16 +4874,16 @@
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" s="61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G86" s="61"/>
       <c r="H86" s="61"/>
@@ -4856,13 +4895,13 @@
       <c r="B87" s="17"/>
       <c r="C87" s="29"/>
       <c r="D87" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
@@ -4874,13 +4913,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="29"/>
       <c r="D88" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
@@ -4892,13 +4931,13 @@
       <c r="B89" s="17"/>
       <c r="C89" s="29"/>
       <c r="D89" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
@@ -4910,13 +4949,13 @@
       <c r="B90" s="17"/>
       <c r="C90" s="29"/>
       <c r="D90" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
@@ -4928,13 +4967,13 @@
       <c r="B91" s="17"/>
       <c r="C91" s="29"/>
       <c r="D91" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
@@ -4945,16 +4984,16 @@
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
@@ -4966,13 +5005,13 @@
       <c r="B93" s="17"/>
       <c r="C93" s="30"/>
       <c r="D93" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
@@ -4983,16 +5022,16 @@
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="47"/>
@@ -5004,13 +5043,13 @@
       <c r="B95" s="17"/>
       <c r="C95" s="29"/>
       <c r="D95" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
@@ -5024,13 +5063,13 @@
         <v>69</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G96" s="47"/>
       <c r="H96" s="47"/>
@@ -5041,16 +5080,16 @@
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
@@ -5062,13 +5101,13 @@
       <c r="B98" s="17"/>
       <c r="C98" s="29"/>
       <c r="D98" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G98" s="47"/>
       <c r="H98" s="47"/>
@@ -5080,13 +5119,13 @@
       <c r="B99" s="17"/>
       <c r="C99" s="29"/>
       <c r="D99" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
@@ -5098,13 +5137,13 @@
       <c r="B100" s="17"/>
       <c r="C100" s="30"/>
       <c r="D100" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G100" s="47"/>
       <c r="H100" s="47"/>
@@ -5115,16 +5154,16 @@
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
@@ -5136,13 +5175,13 @@
       <c r="B102" s="17"/>
       <c r="C102" s="29"/>
       <c r="D102" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
@@ -5154,13 +5193,13 @@
       <c r="B103" s="17"/>
       <c r="C103" s="30"/>
       <c r="D103" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
@@ -5171,16 +5210,16 @@
       <c r="A104" s="4"/>
       <c r="B104" s="17"/>
       <c r="C104" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
@@ -5192,13 +5231,13 @@
       <c r="B105" s="17"/>
       <c r="C105" s="30"/>
       <c r="D105" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G105" s="47"/>
       <c r="H105" s="47"/>
@@ -5217,10 +5256,10 @@
         <v>14</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G106" s="47"/>
       <c r="H106" s="47"/>
@@ -5235,10 +5274,10 @@
         <v>15</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
@@ -5253,10 +5292,10 @@
         <v>16</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F108" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G108" s="47"/>
       <c r="H108" s="47"/>
@@ -5273,10 +5312,10 @@
         <v>18</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F109" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
@@ -5293,10 +5332,10 @@
         <v>20</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" s="47"/>
       <c r="H110" s="47"/>
@@ -5307,16 +5346,16 @@
       <c r="A111" s="4"/>
       <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
@@ -5329,19 +5368,19 @@
         <v>67</v>
       </c>
       <c r="C112" s="66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H112" s="50">
         <v>42672</v>
@@ -5357,13 +5396,13 @@
         <v>22</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G113" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H113" s="50">
         <v>42672</v>
@@ -5379,13 +5418,13 @@
         <v>23</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G114" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H114" s="50">
         <v>42672</v>
@@ -5400,13 +5439,13 @@
         <v>24</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G115" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H115" s="50">
         <v>42672</v>
@@ -5421,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G116" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H116" s="50">
         <v>42672</v>
@@ -5442,13 +5481,13 @@
         <v>26</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G117" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H117" s="50">
         <v>42674</v>
@@ -5463,13 +5502,13 @@
         <v>27</v>
       </c>
       <c r="E118" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G118" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H118" s="50">
         <v>42676</v>
@@ -5484,13 +5523,13 @@
         <v>28</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G119" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H119" s="50">
         <v>42676</v>
@@ -5504,19 +5543,19 @@
         <v>29</v>
       </c>
       <c r="C120" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H120" s="50">
         <v>42651</v>
@@ -5529,16 +5568,16 @@
       <c r="B121" s="31"/>
       <c r="C121" s="69"/>
       <c r="D121" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H121" s="50">
         <v>42651</v>
@@ -5551,16 +5590,16 @@
       <c r="B122" s="31"/>
       <c r="C122" s="69"/>
       <c r="D122" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H122" s="50">
         <v>42670</v>
@@ -5573,16 +5612,16 @@
       <c r="B123" s="31"/>
       <c r="C123" s="69"/>
       <c r="D123" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H123" s="50">
         <v>42655</v>
@@ -5595,16 +5634,16 @@
       <c r="B124" s="31"/>
       <c r="C124" s="69"/>
       <c r="D124" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H124" s="50">
         <v>42655</v>
@@ -5617,16 +5656,16 @@
       <c r="B125" s="31"/>
       <c r="C125" s="69"/>
       <c r="D125" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H125" s="50">
         <v>42655</v>
@@ -5639,16 +5678,16 @@
       <c r="B126" s="31"/>
       <c r="C126" s="69"/>
       <c r="D126" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H126" s="50">
         <v>42656</v>
@@ -5661,16 +5700,16 @@
       <c r="B127" s="31"/>
       <c r="C127" s="69"/>
       <c r="D127" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H127" s="50">
         <v>42657</v>
@@ -5683,16 +5722,16 @@
       <c r="B128" s="31"/>
       <c r="C128" s="69"/>
       <c r="D128" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H128" s="50">
         <v>42661</v>
@@ -5705,16 +5744,16 @@
       <c r="B129" s="31"/>
       <c r="C129" s="69"/>
       <c r="D129" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H129" s="50">
         <v>42661</v>
@@ -5727,16 +5766,16 @@
       <c r="B130" s="31"/>
       <c r="C130" s="45"/>
       <c r="D130" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G130" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H130" s="50">
         <v>42664</v>
@@ -5749,16 +5788,16 @@
       <c r="B131" s="31"/>
       <c r="C131" s="29"/>
       <c r="D131" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G131" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H131" s="50">
         <v>42667</v>
@@ -5770,16 +5809,16 @@
       <c r="A132" s="4"/>
       <c r="B132" s="31"/>
       <c r="C132" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E132" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
@@ -5791,13 +5830,13 @@
       <c r="B133" s="32"/>
       <c r="C133" s="30"/>
       <c r="D133" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G133" s="47"/>
       <c r="H133" s="47"/>
@@ -5816,10 +5855,10 @@
         <v>31</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
@@ -5831,13 +5870,13 @@
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G135" s="47"/>
       <c r="H135" s="47"/>
@@ -5849,13 +5888,13 @@
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G136" s="47"/>
       <c r="H136" s="47"/>
@@ -5870,10 +5909,10 @@
         <v>32</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
@@ -5888,10 +5927,10 @@
         <v>33</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G138" s="47"/>
       <c r="H138" s="47"/>
@@ -5908,10 +5947,10 @@
         <v>35</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
@@ -5926,10 +5965,10 @@
         <v>36</v>
       </c>
       <c r="E140" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
@@ -5944,10 +5983,10 @@
         <v>37</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
@@ -5964,10 +6003,10 @@
         <v>39</v>
       </c>
       <c r="E142" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
@@ -5982,10 +6021,10 @@
         <v>40</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
@@ -6000,10 +6039,10 @@
         <v>41</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
@@ -6020,10 +6059,10 @@
         <v>43</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G145" s="47"/>
       <c r="H145" s="47"/>
@@ -6035,13 +6074,13 @@
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
@@ -6056,10 +6095,10 @@
         <v>44</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G147" s="47"/>
       <c r="H147" s="47"/>
@@ -6076,10 +6115,10 @@
         <v>46</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G148" s="47"/>
       <c r="H148" s="47"/>
@@ -6094,10 +6133,10 @@
         <v>47</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G149" s="47"/>
       <c r="H149" s="47"/>
@@ -6114,10 +6153,10 @@
         <v>49</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G150" s="47"/>
       <c r="H150" s="47"/>
@@ -6132,10 +6171,10 @@
         <v>50</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
@@ -6150,10 +6189,10 @@
         <v>51</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G152" s="47"/>
       <c r="H152" s="47"/>
@@ -6168,10 +6207,10 @@
         <v>52</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
@@ -6188,10 +6227,10 @@
         <v>54</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
@@ -6208,10 +6247,10 @@
         <v>56</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
@@ -6226,10 +6265,10 @@
         <v>57</v>
       </c>
       <c r="E156" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F156" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G156" s="47"/>
       <c r="H156" s="47"/>
@@ -6246,10 +6285,10 @@
         <v>59</v>
       </c>
       <c r="E157" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G157" s="47"/>
       <c r="H157" s="47"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bug列表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="296">
   <si>
     <t>系统</t>
   </si>
@@ -1149,12 +1144,121 @@
     <t>base+ "deposit/query"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增客户页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：新增电话号码2
+2：qq改为电宅
+3：地区精确到区级
+4：必填前加红色星号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户接待页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：用户详细信息应该加关联亲友字段、备用电话
+2：电话号码名称统一（查询的电话为主，可以增加备用电话，但不做查询使用）
+  3：购买记录中加接待人
+  4：业务员统一改为接待
+  5：撤单表格中加撤单时间（未加-待定）
+  6：来访记录中加赠品（每次登门都会领取赠品）
+  7：顺序调整（页面显示）：购买、来访、回购、撤单
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户信息页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1：msn、qq、网页—客户都觉得用不到
+  2：增加地址（网页字段改过去）
+  3：增加性别：（男女）
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文交所信息页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：增加文交所下拉菜单格式
+  2：多个文交所的情况会有一个是默认的；
+  3：以身份证进行关联
+  4：将客户姓名放到前面
+  5：增加是否绑定银行卡
+  6：把绑定银行卡改为开户行名称
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：数据库加单位字段
+  2：配送弹窗中加单位
+  3：赠品弹窗中售价改为库存数量
+  4：!!!选择赠品的地方加特殊审批流程
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
+ 2： 忘记取消商品的联动总金额功能
+  3：交定金的话对应库存不减</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠品种类可以选多个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束接待</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置接待时长为3个小时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1218,6 +1322,13 @@
       <color indexed="8"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1554,12 +1665,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1764,6 +1872,18 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3092,3208 +3212,3208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40.8984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.69921875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.796875" style="51" customWidth="1"/>
-    <col min="11" max="255" width="7.59765625" style="7" customWidth="1"/>
-    <col min="256" max="16384" width="7.59765625" style="7"/>
+    <col min="1" max="1" width="1" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="4.69921875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="50" customWidth="1"/>
+    <col min="11" max="255" width="7.59765625" style="6" customWidth="1"/>
+    <col min="256" max="16384" width="7.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="39" t="s">
+      <c r="F1" s="4"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" ht="54.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="90.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10" t="s">
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="23" t="s">
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15" t="s">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="52" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18" t="s">
+    <row r="19" spans="1:10" ht="39" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="52" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="52" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15" t="s">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="53"/>
-    </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="52" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15" t="s">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="52" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
+    <row r="24" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47" t="s">
+      <c r="H24" s="46"/>
+      <c r="I24" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15" t="s">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="53"/>
-    </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15" t="s">
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="52" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="23" t="s">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="53"/>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15" t="s">
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15" t="s">
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="53"/>
-    </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="15" t="s">
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="53"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="20" t="s">
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53" t="s">
+      <c r="H31" s="46"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10" t="s">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47" t="s">
+      <c r="H32" s="46"/>
+      <c r="I32" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="23" t="s">
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47" t="s">
+      <c r="H33" s="46"/>
+      <c r="I33" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="15" t="s">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47" t="s">
+      <c r="H34" s="46"/>
+      <c r="I34" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="52" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15" t="s">
+    <row r="35" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="55" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="15" t="s">
+    <row r="36" spans="1:10" ht="73.5" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="53"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="52"/>
+    </row>
+    <row r="37" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G37" s="47" t="s">
+      <c r="G37" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47" t="s">
+      <c r="H37" s="46"/>
+      <c r="I37" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="J37" s="53" t="s">
+      <c r="J37" s="52" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18" t="s">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="53" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="52" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G39" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="53" t="s">
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="52" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18" t="s">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="53" t="s">
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="52" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18" t="s">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="23" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="52"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="53"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15" t="s">
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="52"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="65"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="23" t="s">
+      <c r="I43" s="46"/>
+      <c r="J43" s="64"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="15" t="s">
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="15" t="s">
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="52"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="15" t="s">
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="52"/>
+    </row>
+    <row r="47" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="15" t="s">
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="52"/>
+    </row>
+    <row r="48" spans="1:10" ht="42" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="47" t="s">
+      <c r="E48" s="41"/>
+      <c r="F48" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="G48" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="53"/>
-    </row>
-    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="26" t="s">
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="52"/>
+    </row>
+    <row r="49" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="53"/>
-    </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="15" t="s">
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="52"/>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="23" t="s">
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="1:10" ht="54.75" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="53"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="15" t="s">
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="52"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="53"/>
-    </row>
-    <row r="53" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="20" t="s">
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="52"/>
+    </row>
+    <row r="53" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F53" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47" t="s">
+      <c r="H53" s="46"/>
+      <c r="I53" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="J53" s="53" t="s">
+      <c r="J53" s="52" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10" t="s">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="47" t="s">
+      <c r="G54" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47" t="s">
+      <c r="H54" s="46"/>
+      <c r="I54" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="J54" s="53" t="s">
+      <c r="J54" s="52" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10" t="s">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G55" s="47" t="s">
+      <c r="G55" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="53" t="s">
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="14" t="s">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="53"/>
-    </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="15" t="s">
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="52"/>
+    </row>
+    <row r="57" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="53"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="15" t="s">
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="52"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="53"/>
-    </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="15" t="s">
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="52"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="53"/>
-    </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="15" t="s">
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="52"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="53"/>
-    </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="15" t="s">
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="52"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="47" t="s">
+      <c r="F61" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="53"/>
-    </row>
-    <row r="62" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="15" t="s">
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="52"/>
+    </row>
+    <row r="62" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="47" t="s">
+      <c r="F62" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="15" t="s">
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="52"/>
+    </row>
+    <row r="63" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="53"/>
-    </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="9" t="s">
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="52"/>
+    </row>
+    <row r="64" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="53"/>
-    </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="10" t="s">
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="52"/>
+    </row>
+    <row r="65" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="F65" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="10" t="s">
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="52"/>
+    </row>
+    <row r="66" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="F66" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="53"/>
-    </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="10" t="s">
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="52"/>
+    </row>
+    <row r="67" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="47" t="s">
+      <c r="F67" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="53"/>
-    </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="10" t="s">
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="52"/>
+    </row>
+    <row r="68" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="47" t="s">
+      <c r="F68" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="53"/>
-    </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="10" t="s">
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="52"/>
+    </row>
+    <row r="69" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="47" t="s">
+      <c r="F69" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="53"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="10" t="s">
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="52"/>
+    </row>
+    <row r="70" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="47" t="s">
+      <c r="F70" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="53"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="9" t="s">
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="52"/>
+    </row>
+    <row r="71" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="47" t="s">
+      <c r="F71" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="53"/>
-    </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="10" t="s">
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="52"/>
+    </row>
+    <row r="72" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A72" s="7"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E72" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="F72" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="53"/>
-    </row>
-    <row r="73" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="10" t="s">
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="52"/>
+    </row>
+    <row r="73" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A73" s="7"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="47" t="s">
+      <c r="F73" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="53"/>
-    </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="10" t="s">
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="52"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E74" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="53"/>
-    </row>
-    <row r="75" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="10" t="s">
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="52"/>
+    </row>
+    <row r="75" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="47" t="s">
+      <c r="F75" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="53"/>
-    </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="10" t="s">
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="52"/>
+    </row>
+    <row r="76" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A76" s="7"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="42" t="s">
+      <c r="E76" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="47" t="s">
+      <c r="F76" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="53"/>
-    </row>
-    <row r="77" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="10" t="s">
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="52"/>
+    </row>
+    <row r="77" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E77" s="42" t="s">
+      <c r="E77" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F77" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="53"/>
-    </row>
-    <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="23" t="s">
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="52"/>
+    </row>
+    <row r="78" spans="1:10" ht="36" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F78" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G78" s="54" t="s">
+      <c r="G78" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="53"/>
-    </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="15" t="s">
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="52"/>
+    </row>
+    <row r="79" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="E79" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="F79" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G79" s="54" t="s">
+      <c r="G79" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="53"/>
-    </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="15" t="s">
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="52"/>
+    </row>
+    <row r="80" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E80" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="47" t="s">
+      <c r="F80" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="54" t="s">
+      <c r="G80" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="53"/>
-    </row>
-    <row r="81" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="15" t="s">
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="52"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="E81" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F81" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="54" t="s">
+      <c r="G81" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="53"/>
-    </row>
-    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="15" t="s">
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="52"/>
+    </row>
+    <row r="82" spans="1:10" ht="36" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="E82" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="47" t="s">
+      <c r="F82" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G82" s="54" t="s">
+      <c r="G82" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="53"/>
-    </row>
-    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="15" t="s">
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="52"/>
+    </row>
+    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="42" t="s">
+      <c r="E83" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="47" t="s">
+      <c r="F83" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="54" t="s">
+      <c r="G83" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="53"/>
-    </row>
-    <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="56" t="s">
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="52"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="57" t="s">
+      <c r="D84" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="E84" s="58" t="s">
+      <c r="E84" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="59" t="s">
+      <c r="F84" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="59" t="s">
+      <c r="G84" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="53"/>
-    </row>
-    <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="62" t="s">
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="52"/>
+    </row>
+    <row r="85" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="D85" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="64" t="s">
+      <c r="E85" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54" t="s">
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="J85" s="55"/>
-    </row>
-    <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="29" t="s">
+      <c r="J85" s="54"/>
+    </row>
+    <row r="86" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A86" s="3"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="60" t="s">
+      <c r="E86" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F86" s="61" t="s">
+      <c r="F86" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="53"/>
-    </row>
-    <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="15" t="s">
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="52"/>
+    </row>
+    <row r="87" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F87" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="53"/>
-    </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="15" t="s">
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="52"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="42" t="s">
+      <c r="E88" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="F88" s="47" t="s">
+      <c r="F88" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="53"/>
-    </row>
-    <row r="89" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="15" t="s">
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="52"/>
+    </row>
+    <row r="89" spans="1:10" ht="128.25" customHeight="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F89" s="47" t="s">
+      <c r="F89" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="53"/>
-    </row>
-    <row r="90" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="15" t="s">
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="52"/>
+    </row>
+    <row r="90" spans="1:10" ht="24" customHeight="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="47" t="s">
+      <c r="F90" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="53"/>
-    </row>
-    <row r="91" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="15" t="s">
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="52"/>
+    </row>
+    <row r="91" spans="1:10" ht="56.25" customHeight="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="42" t="s">
+      <c r="E91" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="47" t="s">
+      <c r="F91" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="53"/>
-    </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="28" t="s">
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="52"/>
+    </row>
+    <row r="92" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E92" s="42" t="s">
+      <c r="E92" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F92" s="47" t="s">
+      <c r="F92" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="53"/>
-    </row>
-    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="15" t="s">
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="52"/>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E93" s="42" t="s">
+      <c r="E93" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F93" s="47" t="s">
+      <c r="F93" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="53"/>
-    </row>
-    <row r="94" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="28" t="s">
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="52"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="42" t="s">
+      <c r="E94" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F94" s="47" t="s">
+      <c r="F94" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="53"/>
-    </row>
-    <row r="95" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="15" t="s">
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="52"/>
+    </row>
+    <row r="95" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E95" s="42" t="s">
+      <c r="E95" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="47" t="s">
+      <c r="F95" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="53"/>
-    </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="28" t="s">
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="52"/>
+    </row>
+    <row r="96" spans="1:10" ht="39" customHeight="1">
+      <c r="A96" s="3"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E96" s="42" t="s">
+      <c r="E96" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F96" s="47" t="s">
+      <c r="F96" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="53"/>
-    </row>
-    <row r="97" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="29" t="s">
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="52"/>
+    </row>
+    <row r="97" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F97" s="47" t="s">
+      <c r="F97" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="53"/>
-    </row>
-    <row r="98" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="15" t="s">
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="52"/>
+    </row>
+    <row r="98" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E98" s="42" t="s">
+      <c r="E98" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="47" t="s">
+      <c r="F98" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="53"/>
-    </row>
-    <row r="99" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="15" t="s">
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="52"/>
+    </row>
+    <row r="99" spans="1:10" ht="69.75" customHeight="1">
+      <c r="A99" s="3"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="47" t="s">
+      <c r="F99" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="53"/>
-    </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="15" t="s">
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="52"/>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A100" s="3"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F100" s="47" t="s">
+      <c r="F100" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="53"/>
-    </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="28" t="s">
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="52"/>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A101" s="3"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E101" s="42" t="s">
+      <c r="E101" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F101" s="47" t="s">
+      <c r="F101" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="53"/>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="15" t="s">
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="52"/>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A102" s="3"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E102" s="42" t="s">
+      <c r="E102" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F102" s="47" t="s">
+      <c r="F102" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="53"/>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="15" t="s">
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="52"/>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A103" s="3"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E103" s="42" t="s">
+      <c r="E103" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F103" s="47" t="s">
+      <c r="F103" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="53"/>
-    </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="28" t="s">
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="52"/>
+    </row>
+    <row r="104" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A104" s="3"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F104" s="47" t="s">
+      <c r="F104" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="53"/>
-    </row>
-    <row r="105" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="15" t="s">
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="52"/>
+    </row>
+    <row r="105" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A105" s="3"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E105" s="42" t="s">
+      <c r="E105" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F105" s="47" t="s">
+      <c r="F105" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="53"/>
-    </row>
-    <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="14" t="s">
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="52"/>
+    </row>
+    <row r="106" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A106" s="3"/>
+      <c r="B106" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="48" t="s">
+      <c r="E106" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F106" s="47" t="s">
+      <c r="F106" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="53"/>
-    </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="15" t="s">
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="52"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A107" s="3"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F107" s="47" t="s">
+      <c r="F107" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="53"/>
-    </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="15" t="s">
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="52"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A108" s="3"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F108" s="47" t="s">
+      <c r="F108" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="53"/>
-    </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="36" t="s">
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="52"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A109" s="3"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="42" t="s">
+      <c r="E109" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="F109" s="47" t="s">
+      <c r="F109" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="53"/>
-    </row>
-    <row r="110" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="15" t="s">
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="52"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A110" s="3"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E110" s="42" t="s">
+      <c r="E110" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="F110" s="47" t="s">
+      <c r="F110" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="53"/>
-    </row>
-    <row r="111" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="15" t="s">
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="52"/>
+    </row>
+    <row r="111" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A111" s="3"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E111" s="42" t="s">
+      <c r="E111" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F111" s="47" t="s">
+      <c r="F111" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="53"/>
-    </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="20" t="s">
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="52"/>
+    </row>
+    <row r="112" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A112" s="7"/>
+      <c r="B112" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="66" t="s">
+      <c r="C112" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E112" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="47" t="s">
+      <c r="F112" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G112" s="47" t="s">
+      <c r="G112" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H112" s="50">
+      <c r="H112" s="49">
         <v>42672</v>
       </c>
-      <c r="I112" s="47"/>
-      <c r="J112" s="53"/>
-    </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="22" t="s">
+      <c r="I112" s="46"/>
+      <c r="J112" s="52"/>
+    </row>
+    <row r="113" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A113" s="7"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="42" t="s">
+      <c r="E113" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F113" s="47" t="s">
+      <c r="F113" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G113" s="47" t="s">
+      <c r="G113" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H113" s="50">
+      <c r="H113" s="49">
         <v>42672</v>
       </c>
-      <c r="I113" s="47"/>
-      <c r="J113" s="53"/>
-    </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="22" t="s">
+      <c r="I113" s="46"/>
+      <c r="J113" s="52"/>
+    </row>
+    <row r="114" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E114" s="42" t="s">
+      <c r="E114" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F114" s="47" t="s">
+      <c r="F114" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="47" t="s">
+      <c r="G114" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H114" s="50">
+      <c r="H114" s="49">
         <v>42672</v>
       </c>
-      <c r="I114" s="47"/>
-      <c r="J114" s="53"/>
-    </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="11"/>
-      <c r="D115" s="22" t="s">
+      <c r="I114" s="46"/>
+      <c r="J114" s="52"/>
+    </row>
+    <row r="115" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A115" s="7"/>
+      <c r="B115" s="10"/>
+      <c r="D115" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="42" t="s">
+      <c r="E115" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F115" s="47" t="s">
+      <c r="F115" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="47" t="s">
+      <c r="G115" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H115" s="50">
+      <c r="H115" s="49">
         <v>42672</v>
       </c>
-      <c r="I115" s="47"/>
-      <c r="J115" s="53"/>
-    </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
-      <c r="B116" s="11"/>
-      <c r="D116" s="22" t="s">
+      <c r="I115" s="46"/>
+      <c r="J115" s="52"/>
+    </row>
+    <row r="116" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A116" s="7"/>
+      <c r="B116" s="10"/>
+      <c r="D116" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E116" s="42" t="s">
+      <c r="E116" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F116" s="47" t="s">
+      <c r="F116" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G116" s="47" t="s">
+      <c r="G116" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H116" s="50">
+      <c r="H116" s="49">
         <v>42672</v>
       </c>
-      <c r="I116" s="47"/>
-      <c r="J116" s="53"/>
-    </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
-      <c r="B117" s="11"/>
-      <c r="D117" s="10" t="s">
+      <c r="I116" s="46"/>
+      <c r="J116" s="52"/>
+    </row>
+    <row r="117" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A117" s="7"/>
+      <c r="B117" s="10"/>
+      <c r="D117" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="42" t="s">
+      <c r="E117" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F117" s="47" t="s">
+      <c r="F117" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H117" s="50">
+      <c r="H117" s="49">
         <v>42674</v>
       </c>
-      <c r="I117" s="47"/>
-      <c r="J117" s="53"/>
-    </row>
-    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="11"/>
-      <c r="D118" s="10" t="s">
+      <c r="I117" s="46"/>
+      <c r="J117" s="52"/>
+    </row>
+    <row r="118" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A118" s="7"/>
+      <c r="B118" s="10"/>
+      <c r="D118" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E118" s="42" t="s">
+      <c r="E118" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F118" s="47" t="s">
+      <c r="F118" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G118" s="47" t="s">
+      <c r="G118" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H118" s="50">
+      <c r="H118" s="49">
         <v>42676</v>
       </c>
-      <c r="I118" s="47"/>
-      <c r="J118" s="53"/>
-    </row>
-    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="11"/>
-      <c r="D119" s="9" t="s">
+      <c r="I118" s="46"/>
+      <c r="J118" s="52"/>
+    </row>
+    <row r="119" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A119" s="7"/>
+      <c r="B119" s="10"/>
+      <c r="D119" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E119" s="42" t="s">
+      <c r="E119" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F119" s="47" t="s">
+      <c r="F119" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G119" s="47" t="s">
+      <c r="G119" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H119" s="50">
+      <c r="H119" s="49">
         <v>42676</v>
       </c>
-      <c r="I119" s="47"/>
-      <c r="J119" s="53"/>
-    </row>
-    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="14" t="s">
+      <c r="I119" s="46"/>
+      <c r="J119" s="52"/>
+    </row>
+    <row r="120" spans="1:10" ht="24" customHeight="1">
+      <c r="A120" s="3"/>
+      <c r="B120" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="68" t="s">
+      <c r="C120" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E120" s="40" t="s">
+      <c r="E120" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F120" s="47" t="s">
+      <c r="F120" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G120" s="47" t="s">
+      <c r="G120" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H120" s="50">
+      <c r="H120" s="49">
         <v>42651</v>
       </c>
-      <c r="I120" s="47"/>
-      <c r="J120" s="53"/>
-    </row>
-    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="27" t="s">
+      <c r="I120" s="46"/>
+      <c r="J120" s="52"/>
+    </row>
+    <row r="121" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A121" s="3"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F121" s="47" t="s">
+      <c r="F121" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G121" s="47" t="s">
+      <c r="G121" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H121" s="50">
+      <c r="H121" s="49">
         <v>42651</v>
       </c>
-      <c r="I121" s="47"/>
-      <c r="J121" s="53"/>
-    </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="27" t="s">
+      <c r="I121" s="46"/>
+      <c r="J121" s="52"/>
+    </row>
+    <row r="122" spans="1:10" ht="18" customHeight="1">
+      <c r="A122" s="3"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="40" t="s">
+      <c r="E122" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F122" s="47" t="s">
+      <c r="F122" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G122" s="47" t="s">
+      <c r="G122" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H122" s="50">
+      <c r="H122" s="49">
         <v>42670</v>
       </c>
-      <c r="I122" s="47"/>
-      <c r="J122" s="53"/>
-    </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="27" t="s">
+      <c r="I122" s="46"/>
+      <c r="J122" s="52"/>
+    </row>
+    <row r="123" spans="1:10" ht="18" customHeight="1">
+      <c r="A123" s="3"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E123" s="40" t="s">
+      <c r="E123" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F123" s="47" t="s">
+      <c r="F123" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G123" s="47" t="s">
+      <c r="G123" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H123" s="50">
+      <c r="H123" s="49">
         <v>42655</v>
       </c>
-      <c r="I123" s="47"/>
-      <c r="J123" s="53"/>
-    </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="27" t="s">
+      <c r="I123" s="46"/>
+      <c r="J123" s="52"/>
+    </row>
+    <row r="124" spans="1:10" ht="18" customHeight="1">
+      <c r="A124" s="3"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="47" t="s">
+      <c r="F124" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G124" s="47" t="s">
+      <c r="G124" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H124" s="50">
+      <c r="H124" s="49">
         <v>42655</v>
       </c>
-      <c r="I124" s="47"/>
-      <c r="J124" s="53"/>
-    </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="27" t="s">
+      <c r="I124" s="46"/>
+      <c r="J124" s="52"/>
+    </row>
+    <row r="125" spans="1:10" ht="18" customHeight="1">
+      <c r="A125" s="3"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F125" s="47" t="s">
+      <c r="F125" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G125" s="47" t="s">
+      <c r="G125" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H125" s="50">
+      <c r="H125" s="49">
         <v>42655</v>
       </c>
-      <c r="I125" s="47"/>
-      <c r="J125" s="53"/>
-    </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="27" t="s">
+      <c r="I125" s="46"/>
+      <c r="J125" s="52"/>
+    </row>
+    <row r="126" spans="1:10" ht="18" customHeight="1">
+      <c r="A126" s="3"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E126" s="40" t="s">
+      <c r="E126" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F126" s="47" t="s">
+      <c r="F126" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G126" s="47" t="s">
+      <c r="G126" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H126" s="50">
+      <c r="H126" s="49">
         <v>42656</v>
       </c>
-      <c r="I126" s="47"/>
-      <c r="J126" s="53"/>
-    </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="27" t="s">
+      <c r="I126" s="46"/>
+      <c r="J126" s="52"/>
+    </row>
+    <row r="127" spans="1:10" ht="18" customHeight="1">
+      <c r="A127" s="3"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E127" s="40" t="s">
+      <c r="E127" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F127" s="47" t="s">
+      <c r="F127" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="47" t="s">
+      <c r="G127" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H127" s="50">
+      <c r="H127" s="49">
         <v>42657</v>
       </c>
-      <c r="I127" s="47"/>
-      <c r="J127" s="53"/>
-    </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="27" t="s">
+      <c r="I127" s="46"/>
+      <c r="J127" s="52"/>
+    </row>
+    <row r="128" spans="1:10" ht="18" customHeight="1">
+      <c r="A128" s="3"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E128" s="40" t="s">
+      <c r="E128" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F128" s="47" t="s">
+      <c r="F128" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G128" s="47" t="s">
+      <c r="G128" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H128" s="50">
+      <c r="H128" s="49">
         <v>42661</v>
       </c>
-      <c r="I128" s="47"/>
-      <c r="J128" s="53"/>
-    </row>
-    <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="27" t="s">
+      <c r="I128" s="46"/>
+      <c r="J128" s="52"/>
+    </row>
+    <row r="129" spans="1:10" ht="18" customHeight="1">
+      <c r="A129" s="3"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E129" s="40" t="s">
+      <c r="E129" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F129" s="47" t="s">
+      <c r="F129" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G129" s="47" t="s">
+      <c r="G129" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H129" s="50">
+      <c r="H129" s="49">
         <v>42661</v>
       </c>
-      <c r="I129" s="47"/>
-      <c r="J129" s="53"/>
-    </row>
-    <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="27" t="s">
+      <c r="I129" s="46"/>
+      <c r="J129" s="52"/>
+    </row>
+    <row r="130" spans="1:10" ht="18" customHeight="1">
+      <c r="A130" s="3"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="E130" s="40" t="s">
+      <c r="E130" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="F130" s="47" t="s">
+      <c r="F130" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="47" t="s">
+      <c r="G130" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H130" s="50">
+      <c r="H130" s="49">
         <v>42664</v>
       </c>
-      <c r="I130" s="47"/>
-      <c r="J130" s="53"/>
-    </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="27" t="s">
+      <c r="I130" s="46"/>
+      <c r="J130" s="52"/>
+    </row>
+    <row r="131" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A131" s="3"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E131" s="40" t="s">
+      <c r="E131" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="47" t="s">
+      <c r="F131" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G131" s="47" t="s">
+      <c r="G131" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H131" s="50">
+      <c r="H131" s="49">
         <v>42667</v>
       </c>
-      <c r="I131" s="47"/>
-      <c r="J131" s="53"/>
-    </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="28" t="s">
+      <c r="I131" s="46"/>
+      <c r="J131" s="52"/>
+    </row>
+    <row r="132" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A132" s="3"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E132" s="40" t="s">
+      <c r="E132" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F132" s="47" t="s">
+      <c r="F132" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="53"/>
-    </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="27" t="s">
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="52"/>
+    </row>
+    <row r="133" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A133" s="3"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="40" t="s">
+      <c r="E133" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F133" s="47" t="s">
+      <c r="F133" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47"/>
-      <c r="J133" s="53"/>
-    </row>
-    <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="20" t="s">
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
+      <c r="J133" s="52"/>
+    </row>
+    <row r="134" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A134" s="7"/>
+      <c r="B134" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E134" s="42" t="s">
+      <c r="E134" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F134" s="47" t="s">
+      <c r="F134" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="53"/>
-    </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="10" t="s">
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
+      <c r="J134" s="52"/>
+    </row>
+    <row r="135" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A135" s="7"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E135" s="42" t="s">
+      <c r="E135" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F135" s="47" t="s">
+      <c r="F135" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="53"/>
-    </row>
-    <row r="136" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="10" t="s">
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="52"/>
+    </row>
+    <row r="136" spans="1:10" ht="71.25" customHeight="1">
+      <c r="A136" s="7"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E136" s="42" t="s">
+      <c r="E136" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="47" t="s">
+      <c r="F136" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="53"/>
-    </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="10" t="s">
+      <c r="G136" s="46"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46"/>
+      <c r="J136" s="52"/>
+    </row>
+    <row r="137" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A137" s="7"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E137" s="42" t="s">
+      <c r="E137" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F137" s="47" t="s">
+      <c r="F137" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="53"/>
-    </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="10" t="s">
+      <c r="G137" s="46"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="52"/>
+    </row>
+    <row r="138" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A138" s="7"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F138" s="47" t="s">
+      <c r="F138" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="47"/>
-      <c r="J138" s="53"/>
-    </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="9" t="s">
+      <c r="G138" s="46"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="52"/>
+    </row>
+    <row r="139" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A139" s="7"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E139" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F139" s="47" t="s">
+      <c r="F139" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="53"/>
-    </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="10" t="s">
+      <c r="G139" s="46"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="46"/>
+      <c r="J139" s="52"/>
+    </row>
+    <row r="140" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A140" s="7"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F140" s="47" t="s">
+      <c r="F140" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47"/>
-      <c r="I140" s="47"/>
-      <c r="J140" s="53"/>
-    </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="10" t="s">
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="52"/>
+    </row>
+    <row r="141" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A141" s="7"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F141" s="47" t="s">
+      <c r="F141" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47"/>
-      <c r="I141" s="47"/>
-      <c r="J141" s="53"/>
-    </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="9" t="s">
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="52"/>
+    </row>
+    <row r="142" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A142" s="7"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E142" s="42" t="s">
+      <c r="E142" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F142" s="47" t="s">
+      <c r="F142" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="53"/>
-    </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="10" t="s">
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="52"/>
+    </row>
+    <row r="143" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A143" s="7"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="42" t="s">
+      <c r="E143" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F143" s="47" t="s">
+      <c r="F143" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
-      <c r="I143" s="47"/>
-      <c r="J143" s="53"/>
-    </row>
-    <row r="144" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="10" t="s">
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="46"/>
+      <c r="J143" s="52"/>
+    </row>
+    <row r="144" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A144" s="7"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="42" t="s">
+      <c r="E144" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F144" s="47" t="s">
+      <c r="F144" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
-      <c r="I144" s="47"/>
-      <c r="J144" s="53"/>
-    </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="9" t="s">
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="46"/>
+      <c r="J144" s="52"/>
+    </row>
+    <row r="145" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A145" s="7"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E145" s="42" t="s">
+      <c r="E145" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F145" s="47" t="s">
+      <c r="F145" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47"/>
-      <c r="I145" s="47"/>
-      <c r="J145" s="53"/>
-    </row>
-    <row r="146" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="10" t="s">
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="52"/>
+    </row>
+    <row r="146" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A146" s="7"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E146" s="42" t="s">
+      <c r="E146" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F146" s="47" t="s">
+      <c r="F146" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G146" s="47"/>
-      <c r="H146" s="47"/>
-      <c r="I146" s="47"/>
-      <c r="J146" s="53"/>
-    </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="10" t="s">
+      <c r="G146" s="46"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="46"/>
+      <c r="J146" s="52"/>
+    </row>
+    <row r="147" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A147" s="7"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E147" s="42" t="s">
+      <c r="E147" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F147" s="47" t="s">
+      <c r="F147" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="47"/>
-      <c r="J147" s="53"/>
-    </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="9" t="s">
+      <c r="G147" s="46"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="46"/>
+      <c r="J147" s="52"/>
+    </row>
+    <row r="148" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A148" s="7"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E148" s="42" t="s">
+      <c r="E148" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="47" t="s">
+      <c r="F148" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G148" s="47"/>
-      <c r="H148" s="47"/>
-      <c r="I148" s="47"/>
-      <c r="J148" s="53"/>
-    </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="10" t="s">
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="52"/>
+    </row>
+    <row r="149" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A149" s="7"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E149" s="42" t="s">
+      <c r="E149" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="47" t="s">
+      <c r="F149" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G149" s="47"/>
-      <c r="H149" s="47"/>
-      <c r="I149" s="47"/>
-      <c r="J149" s="53"/>
-    </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="9" t="s">
+      <c r="G149" s="46"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="46"/>
+      <c r="J149" s="52"/>
+    </row>
+    <row r="150" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A150" s="7"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E150" s="42" t="s">
+      <c r="E150" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F150" s="47" t="s">
+      <c r="F150" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="47"/>
-      <c r="J150" s="53"/>
-    </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="10" t="s">
+      <c r="G150" s="46"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="46"/>
+      <c r="J150" s="52"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A151" s="7"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E151" s="42" t="s">
+      <c r="E151" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F151" s="47" t="s">
+      <c r="F151" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
-      <c r="I151" s="47"/>
-      <c r="J151" s="53"/>
-    </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="10" t="s">
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="52"/>
+    </row>
+    <row r="152" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A152" s="7"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="42" t="s">
+      <c r="E152" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F152" s="47" t="s">
+      <c r="F152" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="53"/>
-    </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="10" t="s">
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="46"/>
+      <c r="J152" s="52"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A153" s="7"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E153" s="42" t="s">
+      <c r="E153" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F153" s="47" t="s">
+      <c r="F153" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="53"/>
-    </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="10" t="s">
+      <c r="G153" s="46"/>
+      <c r="H153" s="46"/>
+      <c r="I153" s="46"/>
+      <c r="J153" s="52"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A154" s="7"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E154" s="42" t="s">
+      <c r="E154" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F154" s="47" t="s">
+      <c r="F154" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
-      <c r="I154" s="47"/>
-      <c r="J154" s="53"/>
-    </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="9" t="s">
+      <c r="G154" s="46"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="46"/>
+      <c r="J154" s="52"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A155" s="7"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E155" s="42" t="s">
+      <c r="E155" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F155" s="47" t="s">
+      <c r="F155" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
-      <c r="J155" s="53"/>
-    </row>
-    <row r="156" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="10" t="s">
+      <c r="G155" s="46"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="52"/>
+    </row>
+    <row r="156" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A156" s="7"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E156" s="42" t="s">
+      <c r="E156" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F156" s="47" t="s">
+      <c r="F156" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="53"/>
-    </row>
-    <row r="157" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="10" t="s">
+      <c r="G156" s="46"/>
+      <c r="H156" s="46"/>
+      <c r="I156" s="46"/>
+      <c r="J156" s="52"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A157" s="7"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E157" s="42" t="s">
+      <c r="E157" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F157" s="47" t="s">
+      <c r="F157" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="47"/>
-      <c r="J157" s="53"/>
+      <c r="G157" s="46"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="46"/>
+      <c r="J157" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6315,7 +6435,951 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B1:F119"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="41.8984375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="70" customWidth="1"/>
+    <col min="7" max="257" width="7.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18" customHeight="1">
+      <c r="B1" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="78.75" customHeight="1">
+      <c r="B2" s="72">
+        <v>1</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="2:6" ht="143.25" customHeight="1">
+      <c r="B3" s="72">
+        <v>2</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" ht="69">
+      <c r="B4" s="72">
+        <v>3</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="2:6" ht="117" customHeight="1">
+      <c r="B5" s="72">
+        <v>4</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="2:6" ht="78.75" customHeight="1">
+      <c r="B6" s="72">
+        <v>5</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="2:6" ht="69">
+      <c r="B7" s="72">
+        <v>6</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" customHeight="1">
+      <c r="B8" s="72">
+        <v>7</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1">
+      <c r="B9" s="72">
+        <v>8</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1">
+      <c r="B10" s="69"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B11" s="69"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B12" s="69"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B13" s="69"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B14" s="69"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B15" s="69"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B16" s="69"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+    </row>
+    <row r="17" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B17" s="69"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B18" s="69"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B19" s="69"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B20" s="69"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B21" s="69"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B22" s="69"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B23" s="69"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B24" s="69"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B25" s="69"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B26" s="69"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B27" s="69"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B28" s="69"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B29" s="69"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B30" s="69"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B31" s="69"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B32" s="69"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B33" s="69"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B34" s="69"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B35" s="69"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B36" s="69"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+    </row>
+    <row r="37" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B37" s="69"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+    </row>
+    <row r="38" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B38" s="69"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B39" s="69"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+    </row>
+    <row r="40" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B40" s="69"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B41" s="69"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B42" s="69"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B43" s="69"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B44" s="69"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B45" s="69"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+    </row>
+    <row r="46" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B46" s="69"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+    </row>
+    <row r="47" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B47" s="69"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+    </row>
+    <row r="48" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B48" s="69"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+    </row>
+    <row r="49" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B49" s="69"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+    </row>
+    <row r="50" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B50" s="69"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+    </row>
+    <row r="51" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B51" s="69"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+    </row>
+    <row r="52" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B52" s="69"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+    </row>
+    <row r="53" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B53" s="69"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+    </row>
+    <row r="54" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B54" s="69"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+    </row>
+    <row r="55" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B55" s="69"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+    </row>
+    <row r="56" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B56" s="69"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+    </row>
+    <row r="57" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B57" s="69"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+    </row>
+    <row r="58" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B58" s="69"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+    </row>
+    <row r="59" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B59" s="69"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+    </row>
+    <row r="60" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B60" s="69"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+    </row>
+    <row r="61" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B61" s="69"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+    </row>
+    <row r="62" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B62" s="69"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+    </row>
+    <row r="63" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B63" s="69"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B64" s="69"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+    </row>
+    <row r="65" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B65" s="69"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+    </row>
+    <row r="66" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B66" s="69"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+    </row>
+    <row r="67" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B67" s="69"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+    </row>
+    <row r="68" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B68" s="69"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+    </row>
+    <row r="69" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B69" s="69"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+    </row>
+    <row r="70" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B70" s="69"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+    </row>
+    <row r="71" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B71" s="69"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+    </row>
+    <row r="72" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B72" s="69"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+    </row>
+    <row r="73" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B73" s="69"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+    </row>
+    <row r="74" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B74" s="69"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+    </row>
+    <row r="75" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B75" s="69"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+    </row>
+    <row r="76" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B76" s="69"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+    </row>
+    <row r="77" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B77" s="69"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+    </row>
+    <row r="78" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B78" s="69"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+    </row>
+    <row r="79" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B79" s="69"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+    </row>
+    <row r="80" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B80" s="69"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+    </row>
+    <row r="81" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B81" s="69"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+    </row>
+    <row r="82" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B82" s="69"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+    </row>
+    <row r="83" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B83" s="69"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+    </row>
+    <row r="84" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B84" s="69"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+    </row>
+    <row r="85" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B85" s="69"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+    </row>
+    <row r="86" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B86" s="69"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+    </row>
+    <row r="87" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B87" s="69"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+    </row>
+    <row r="88" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B88" s="69"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+    </row>
+    <row r="89" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B89" s="69"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+    </row>
+    <row r="90" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B90" s="69"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+    </row>
+    <row r="91" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B91" s="69"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+    </row>
+    <row r="92" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B92" s="69"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+    </row>
+    <row r="93" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B93" s="69"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+    </row>
+    <row r="94" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B94" s="69"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+    </row>
+    <row r="95" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B95" s="69"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+    </row>
+    <row r="96" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B96" s="69"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+    </row>
+    <row r="97" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B97" s="69"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+    </row>
+    <row r="98" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B98" s="69"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+    </row>
+    <row r="99" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B99" s="69"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+    </row>
+    <row r="100" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B100" s="69"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+    </row>
+    <row r="101" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B101" s="69"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+    </row>
+    <row r="102" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B102" s="69"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+    </row>
+    <row r="103" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B103" s="69"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+    </row>
+    <row r="104" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B104" s="69"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+    </row>
+    <row r="105" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B105" s="69"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+    </row>
+    <row r="106" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B106" s="69"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+    </row>
+    <row r="107" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B107" s="69"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+    </row>
+    <row r="108" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B108" s="69"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+    </row>
+    <row r="109" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B109" s="69"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+    </row>
+    <row r="110" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B110" s="69"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+    </row>
+    <row r="111" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B111" s="69"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+    </row>
+    <row r="112" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B112" s="69"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+    </row>
+    <row r="113" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B113" s="69"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+    </row>
+    <row r="114" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B114" s="69"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+    </row>
+    <row r="115" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B115" s="69"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+    </row>
+    <row r="116" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B116" s="69"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+    </row>
+    <row r="117" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B117" s="69"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+    </row>
+    <row r="118" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B118" s="69"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+    </row>
+    <row r="119" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B119" s="69"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F119">
+      <formula1>"未完成,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -6323,176 +7387,81 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="7.59765625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="7.59765625" style="2" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="7.59765625" style="3" customWidth="1"/>
-    <col min="6" max="256" width="7.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
     <sheet name="bug列表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -1257,8 +1261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1351,7 +1355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1433,21 +1437,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,15 +1654,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1705,22 +1688,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,19 +1715,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,34 +1739,31 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,82 +1781,70 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1882,8 +1853,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3212,3208 +3195,3208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:G3"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.8984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="4.69921875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.796875" style="50" customWidth="1"/>
-    <col min="11" max="255" width="7.59765625" style="6" customWidth="1"/>
-    <col min="256" max="16384" width="7.59765625" style="6"/>
+    <col min="1" max="1" width="1" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.69921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="48" customWidth="1"/>
+    <col min="11" max="255" width="7.59765625" style="4" customWidth="1"/>
+    <col min="256" max="16384" width="7.59765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="J1" s="46"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="38" t="s">
+      <c r="F1" s="2"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="8" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="22" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="14" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="52"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17" t="s">
+    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="50" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14" t="s">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14" t="s">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17" t="s">
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46" t="s">
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46" t="s">
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="50" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
+    <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46" t="s">
+      <c r="H24" s="44"/>
+      <c r="I24" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="52"/>
-    </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="52" t="s">
+      <c r="J26" s="50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="52"/>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14" t="s">
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="14" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="14" t="s">
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="19" t="s">
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9" t="s">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46" t="s">
+      <c r="H32" s="44"/>
+      <c r="I32" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="22" t="s">
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46" t="s">
+      <c r="H33" s="44"/>
+      <c r="I33" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="J33" s="52" t="s">
+      <c r="J33" s="50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14" t="s">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46" t="s">
+      <c r="H34" s="44"/>
+      <c r="I34" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="50" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="14" t="s">
+    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="54" t="s">
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="52" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="73.5" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="14" t="s">
+    <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13" t="s">
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="50"/>
+    </row>
+    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46" t="s">
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="J37" s="52" t="s">
+      <c r="J37" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="s">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="52" t="s">
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17" t="s">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="52" t="s">
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17" t="s">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="52" t="s">
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17" t="s">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="52"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="22" t="s">
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="50"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="52"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14" t="s">
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="50"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="46" t="s">
+      <c r="H43" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="64"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="22" t="s">
+      <c r="I43" s="44"/>
+      <c r="J43" s="62"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="52"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="14" t="s">
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="50"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="52"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="14" t="s">
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="50"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="14" t="s">
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="52"/>
-    </row>
-    <row r="48" spans="1:10" ht="42" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="14" t="s">
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="50"/>
+    </row>
+    <row r="48" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="39"/>
+      <c r="F48" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="25" t="s">
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="50"/>
+    </row>
+    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="52"/>
-    </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="14" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="50"/>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="52"/>
-    </row>
-    <row r="51" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="22" t="s">
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="50"/>
+    </row>
+    <row r="51" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="52"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="14" t="s">
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="50"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="52"/>
-    </row>
-    <row r="53" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="19" t="s">
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="50"/>
+    </row>
+    <row r="53" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46" t="s">
+      <c r="H53" s="44"/>
+      <c r="I53" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="J53" s="52" t="s">
+      <c r="J53" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9" t="s">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46" t="s">
+      <c r="H54" s="44"/>
+      <c r="I54" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="J54" s="52" t="s">
+      <c r="J54" s="50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9" t="s">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="52" t="s">
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="50" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="13" t="s">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="52"/>
-    </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="14" t="s">
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="50"/>
+    </row>
+    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="52"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="14" t="s">
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="50"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="52"/>
-    </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="14" t="s">
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="50"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="52"/>
-    </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="14" t="s">
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="50"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="52"/>
-    </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="14" t="s">
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="50"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="52"/>
-    </row>
-    <row r="62" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="14" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="50"/>
+    </row>
+    <row r="62" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="52"/>
-    </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="14" t="s">
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="50"/>
+    </row>
+    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="52"/>
-    </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="8" t="s">
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="50"/>
+    </row>
+    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="E64" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="52"/>
-    </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="9" t="s">
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="52"/>
-    </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="9" t="s">
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="50"/>
+    </row>
+    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="52"/>
-    </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="9" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="50"/>
+    </row>
+    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="52"/>
-    </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="9" t="s">
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="50"/>
+    </row>
+    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="52"/>
-    </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="9" t="s">
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="50"/>
+    </row>
+    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="52"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="9" t="s">
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="50"/>
+    </row>
+    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="52"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8" t="s">
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="50"/>
+    </row>
+    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="52"/>
-    </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="9" t="s">
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="50"/>
+    </row>
+    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="52"/>
-    </row>
-    <row r="73" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9" t="s">
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="50"/>
+    </row>
+    <row r="73" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="52"/>
-    </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9" t="s">
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="50"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="E74" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="52"/>
-    </row>
-    <row r="75" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9" t="s">
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="50"/>
+    </row>
+    <row r="75" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="52"/>
-    </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9" t="s">
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="50"/>
+    </row>
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="E76" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="52"/>
-    </row>
-    <row r="77" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9" t="s">
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="50"/>
+    </row>
+    <row r="77" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="52"/>
-    </row>
-    <row r="78" spans="1:10" ht="36" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="22" t="s">
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="50"/>
+    </row>
+    <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E78" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G78" s="53" t="s">
+      <c r="G78" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="52"/>
-    </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="14" t="s">
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="50"/>
+    </row>
+    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="52"/>
-    </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="14" t="s">
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="50"/>
+    </row>
+    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="53" t="s">
+      <c r="G80" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="52"/>
-    </row>
-    <row r="81" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="14" t="s">
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="50"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="53" t="s">
+      <c r="G81" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="52"/>
-    </row>
-    <row r="82" spans="1:10" ht="36" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="14" t="s">
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="50"/>
+    </row>
+    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G82" s="53" t="s">
+      <c r="G82" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="52"/>
-    </row>
-    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="14" t="s">
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="50"/>
+    </row>
+    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="53" t="s">
+      <c r="G83" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="52"/>
-    </row>
-    <row r="84" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="55" t="s">
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="50"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="58" t="s">
+      <c r="F84" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="58" t="s">
+      <c r="G84" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="52"/>
-    </row>
-    <row r="85" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="61" t="s">
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="50"/>
+    </row>
+    <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="62" t="s">
+      <c r="D85" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="63" t="s">
+      <c r="E85" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="53" t="s">
+      <c r="F85" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53" t="s">
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="J85" s="54"/>
-    </row>
-    <row r="86" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="28" t="s">
+      <c r="J85" s="52"/>
+    </row>
+    <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="59" t="s">
+      <c r="E86" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F86" s="60" t="s">
+      <c r="F86" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="52"/>
-    </row>
-    <row r="87" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="14" t="s">
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="50"/>
+    </row>
+    <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F87" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="52"/>
-    </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="14" t="s">
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="50"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="F88" s="46" t="s">
+      <c r="F88" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="52"/>
-    </row>
-    <row r="89" spans="1:10" ht="128.25" customHeight="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="14" t="s">
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="50"/>
+    </row>
+    <row r="89" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F89" s="46" t="s">
+      <c r="F89" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="52"/>
-    </row>
-    <row r="90" spans="1:10" ht="24" customHeight="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="14" t="s">
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="50"/>
+    </row>
+    <row r="90" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E90" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="52"/>
-    </row>
-    <row r="91" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="14" t="s">
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="50"/>
+    </row>
+    <row r="91" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="41" t="s">
+      <c r="E91" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="52"/>
-    </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="27" t="s">
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="50"/>
+    </row>
+    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E92" s="41" t="s">
+      <c r="E92" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F92" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="52"/>
-    </row>
-    <row r="93" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="14" t="s">
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="50"/>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F93" s="46" t="s">
+      <c r="F93" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="52"/>
-    </row>
-    <row r="94" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="27" t="s">
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="50"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="41" t="s">
+      <c r="E94" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="52"/>
-    </row>
-    <row r="95" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="14" t="s">
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="50"/>
+    </row>
+    <row r="95" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E95" s="41" t="s">
+      <c r="E95" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="52"/>
-    </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="27" t="s">
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="50"/>
+    </row>
+    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F96" s="46" t="s">
+      <c r="F96" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="52"/>
-    </row>
-    <row r="97" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="28" t="s">
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="50"/>
+    </row>
+    <row r="97" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F97" s="46" t="s">
+      <c r="F97" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="52"/>
-    </row>
-    <row r="98" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="14" t="s">
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="50"/>
+    </row>
+    <row r="98" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E98" s="41" t="s">
+      <c r="E98" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="46" t="s">
+      <c r="F98" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="J98" s="52"/>
-    </row>
-    <row r="99" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A99" s="3"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="14" t="s">
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="50"/>
+    </row>
+    <row r="99" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="52"/>
-    </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="14" t="s">
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="50"/>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F100" s="46" t="s">
+      <c r="F100" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="52"/>
-    </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="27" t="s">
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="50"/>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E101" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="52"/>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="14" t="s">
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="50"/>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F102" s="46" t="s">
+      <c r="F102" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="52"/>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="14" t="s">
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="50"/>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F103" s="46" t="s">
+      <c r="F103" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="52"/>
-    </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="27" t="s">
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="50"/>
+    </row>
+    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F104" s="46" t="s">
+      <c r="F104" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="52"/>
-    </row>
-    <row r="105" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A105" s="3"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="14" t="s">
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="50"/>
+    </row>
+    <row r="105" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="52"/>
-    </row>
-    <row r="106" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A106" s="3"/>
-      <c r="B106" s="13" t="s">
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="50"/>
+    </row>
+    <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="47" t="s">
+      <c r="E106" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
-      <c r="J106" s="52"/>
-    </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A107" s="3"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="14" t="s">
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="50"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E107" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F107" s="46" t="s">
+      <c r="F107" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="52"/>
-    </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A108" s="3"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="14" t="s">
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="50"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F108" s="46" t="s">
+      <c r="F108" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="52"/>
-    </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A109" s="3"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="35" t="s">
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="50"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="41" t="s">
+      <c r="E109" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F109" s="46" t="s">
+      <c r="F109" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="52"/>
-    </row>
-    <row r="110" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A110" s="3"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="14" t="s">
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="50"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E110" s="41" t="s">
+      <c r="E110" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F110" s="46" t="s">
+      <c r="F110" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="52"/>
-    </row>
-    <row r="111" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A111" s="3"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="14" t="s">
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="50"/>
+    </row>
+    <row r="111" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="52"/>
-    </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A112" s="7"/>
-      <c r="B112" s="19" t="s">
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="50"/>
+    </row>
+    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="D112" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="47" t="s">
+      <c r="E112" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G112" s="46" t="s">
+      <c r="G112" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H112" s="49">
+      <c r="H112" s="47">
         <v>42672</v>
       </c>
-      <c r="I112" s="46"/>
-      <c r="J112" s="52"/>
-    </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A113" s="7"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="21" t="s">
+      <c r="I112" s="44"/>
+      <c r="J112" s="50"/>
+    </row>
+    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="41" t="s">
+      <c r="E113" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F113" s="46" t="s">
+      <c r="F113" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G113" s="46" t="s">
+      <c r="G113" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H113" s="49">
+      <c r="H113" s="47">
         <v>42672</v>
       </c>
-      <c r="I113" s="46"/>
-      <c r="J113" s="52"/>
-    </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A114" s="7"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="21" t="s">
+      <c r="I113" s="44"/>
+      <c r="J113" s="50"/>
+    </row>
+    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E114" s="41" t="s">
+      <c r="E114" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F114" s="46" t="s">
+      <c r="F114" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="46" t="s">
+      <c r="G114" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H114" s="49">
+      <c r="H114" s="47">
         <v>42672</v>
       </c>
-      <c r="I114" s="46"/>
-      <c r="J114" s="52"/>
-    </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A115" s="7"/>
-      <c r="B115" s="10"/>
-      <c r="D115" s="21" t="s">
+      <c r="I114" s="44"/>
+      <c r="J114" s="50"/>
+    </row>
+    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="8"/>
+      <c r="D115" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="E115" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F115" s="46" t="s">
+      <c r="F115" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="46" t="s">
+      <c r="G115" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H115" s="49">
+      <c r="H115" s="47">
         <v>42672</v>
       </c>
-      <c r="I115" s="46"/>
-      <c r="J115" s="52"/>
-    </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="10"/>
-      <c r="D116" s="21" t="s">
+      <c r="I115" s="44"/>
+      <c r="J115" s="50"/>
+    </row>
+    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="8"/>
+      <c r="D116" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E116" s="41" t="s">
+      <c r="E116" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F116" s="46" t="s">
+      <c r="F116" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G116" s="46" t="s">
+      <c r="G116" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H116" s="49">
+      <c r="H116" s="47">
         <v>42672</v>
       </c>
-      <c r="I116" s="46"/>
-      <c r="J116" s="52"/>
-    </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A117" s="7"/>
-      <c r="B117" s="10"/>
-      <c r="D117" s="9" t="s">
+      <c r="I116" s="44"/>
+      <c r="J116" s="50"/>
+    </row>
+    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="8"/>
+      <c r="D117" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="E117" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F117" s="46" t="s">
+      <c r="F117" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G117" s="46" t="s">
+      <c r="G117" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H117" s="49">
+      <c r="H117" s="47">
         <v>42674</v>
       </c>
-      <c r="I117" s="46"/>
-      <c r="J117" s="52"/>
-    </row>
-    <row r="118" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="10"/>
-      <c r="D118" s="9" t="s">
+      <c r="I117" s="44"/>
+      <c r="J117" s="50"/>
+    </row>
+    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="8"/>
+      <c r="D118" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="E118" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F118" s="46" t="s">
+      <c r="F118" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G118" s="46" t="s">
+      <c r="G118" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H118" s="49">
+      <c r="H118" s="47">
         <v>42676</v>
       </c>
-      <c r="I118" s="46"/>
-      <c r="J118" s="52"/>
-    </row>
-    <row r="119" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A119" s="7"/>
-      <c r="B119" s="10"/>
-      <c r="D119" s="8" t="s">
+      <c r="I118" s="44"/>
+      <c r="J118" s="50"/>
+    </row>
+    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="8"/>
+      <c r="D119" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E119" s="41" t="s">
+      <c r="E119" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F119" s="46" t="s">
+      <c r="F119" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G119" s="46" t="s">
+      <c r="G119" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H119" s="49">
+      <c r="H119" s="47">
         <v>42676</v>
       </c>
-      <c r="I119" s="46"/>
-      <c r="J119" s="52"/>
-    </row>
-    <row r="120" spans="1:10" ht="24" customHeight="1">
-      <c r="A120" s="3"/>
-      <c r="B120" s="13" t="s">
+      <c r="I119" s="44"/>
+      <c r="J119" s="50"/>
+    </row>
+    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E120" s="39" t="s">
+      <c r="E120" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G120" s="46" t="s">
+      <c r="G120" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H120" s="49">
+      <c r="H120" s="47">
         <v>42651</v>
       </c>
-      <c r="I120" s="46"/>
-      <c r="J120" s="52"/>
-    </row>
-    <row r="121" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A121" s="3"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="26" t="s">
+      <c r="I120" s="44"/>
+      <c r="J120" s="50"/>
+    </row>
+    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E121" s="39" t="s">
+      <c r="E121" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G121" s="46" t="s">
+      <c r="G121" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H121" s="49">
+      <c r="H121" s="47">
         <v>42651</v>
       </c>
-      <c r="I121" s="46"/>
-      <c r="J121" s="52"/>
-    </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1">
-      <c r="A122" s="3"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="26" t="s">
+      <c r="I121" s="44"/>
+      <c r="J121" s="50"/>
+    </row>
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="39" t="s">
+      <c r="E122" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F122" s="46" t="s">
+      <c r="F122" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G122" s="46" t="s">
+      <c r="G122" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H122" s="49">
+      <c r="H122" s="47">
         <v>42670</v>
       </c>
-      <c r="I122" s="46"/>
-      <c r="J122" s="52"/>
-    </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1">
-      <c r="A123" s="3"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="26" t="s">
+      <c r="I122" s="44"/>
+      <c r="J122" s="50"/>
+    </row>
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E123" s="39" t="s">
+      <c r="E123" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G123" s="46" t="s">
+      <c r="G123" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H123" s="49">
+      <c r="H123" s="47">
         <v>42655</v>
       </c>
-      <c r="I123" s="46"/>
-      <c r="J123" s="52"/>
-    </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1">
-      <c r="A124" s="3"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="26" t="s">
+      <c r="I123" s="44"/>
+      <c r="J123" s="50"/>
+    </row>
+    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="39" t="s">
+      <c r="E124" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="46" t="s">
+      <c r="F124" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G124" s="46" t="s">
+      <c r="G124" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H124" s="49">
+      <c r="H124" s="47">
         <v>42655</v>
       </c>
-      <c r="I124" s="46"/>
-      <c r="J124" s="52"/>
-    </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1">
-      <c r="A125" s="3"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="68"/>
-      <c r="D125" s="26" t="s">
+      <c r="I124" s="44"/>
+      <c r="J124" s="50"/>
+    </row>
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E125" s="39" t="s">
+      <c r="E125" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G125" s="46" t="s">
+      <c r="G125" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H125" s="49">
+      <c r="H125" s="47">
         <v>42655</v>
       </c>
-      <c r="I125" s="46"/>
-      <c r="J125" s="52"/>
-    </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1">
-      <c r="A126" s="3"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="68"/>
-      <c r="D126" s="26" t="s">
+      <c r="I125" s="44"/>
+      <c r="J125" s="50"/>
+    </row>
+    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F126" s="46" t="s">
+      <c r="F126" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G126" s="46" t="s">
+      <c r="G126" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H126" s="49">
+      <c r="H126" s="47">
         <v>42656</v>
       </c>
-      <c r="I126" s="46"/>
-      <c r="J126" s="52"/>
-    </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1">
-      <c r="A127" s="3"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="26" t="s">
+      <c r="I126" s="44"/>
+      <c r="J126" s="50"/>
+    </row>
+    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E127" s="39" t="s">
+      <c r="E127" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F127" s="46" t="s">
+      <c r="F127" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="46" t="s">
+      <c r="G127" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H127" s="49">
+      <c r="H127" s="47">
         <v>42657</v>
       </c>
-      <c r="I127" s="46"/>
-      <c r="J127" s="52"/>
-    </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1">
-      <c r="A128" s="3"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="26" t="s">
+      <c r="I127" s="44"/>
+      <c r="J127" s="50"/>
+    </row>
+    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="E128" s="39" t="s">
+      <c r="E128" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F128" s="46" t="s">
+      <c r="F128" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G128" s="46" t="s">
+      <c r="G128" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H128" s="49">
+      <c r="H128" s="47">
         <v>42661</v>
       </c>
-      <c r="I128" s="46"/>
-      <c r="J128" s="52"/>
-    </row>
-    <row r="129" spans="1:10" ht="18" customHeight="1">
-      <c r="A129" s="3"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="26" t="s">
+      <c r="I128" s="44"/>
+      <c r="J128" s="50"/>
+    </row>
+    <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E129" s="39" t="s">
+      <c r="E129" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F129" s="46" t="s">
+      <c r="F129" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G129" s="46" t="s">
+      <c r="G129" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H129" s="49">
+      <c r="H129" s="47">
         <v>42661</v>
       </c>
-      <c r="I129" s="46"/>
-      <c r="J129" s="52"/>
-    </row>
-    <row r="130" spans="1:10" ht="18" customHeight="1">
-      <c r="A130" s="3"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="26" t="s">
+      <c r="I129" s="44"/>
+      <c r="J129" s="50"/>
+    </row>
+    <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="E130" s="39" t="s">
+      <c r="E130" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="F130" s="46" t="s">
+      <c r="F130" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="46" t="s">
+      <c r="G130" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H130" s="49">
+      <c r="H130" s="47">
         <v>42664</v>
       </c>
-      <c r="I130" s="46"/>
-      <c r="J130" s="52"/>
-    </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A131" s="3"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="26" t="s">
+      <c r="I130" s="44"/>
+      <c r="J130" s="50"/>
+    </row>
+    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="E131" s="39" t="s">
+      <c r="E131" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="46" t="s">
+      <c r="F131" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G131" s="46" t="s">
+      <c r="G131" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H131" s="49">
+      <c r="H131" s="47">
         <v>42667</v>
       </c>
-      <c r="I131" s="46"/>
-      <c r="J131" s="52"/>
-    </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A132" s="3"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="27" t="s">
+      <c r="I131" s="44"/>
+      <c r="J131" s="50"/>
+    </row>
+    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E132" s="39" t="s">
+      <c r="E132" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F132" s="46" t="s">
+      <c r="F132" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="52"/>
-    </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A133" s="3"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="26" t="s">
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="50"/>
+    </row>
+    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="E133" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F133" s="46" t="s">
+      <c r="F133" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="52"/>
-    </row>
-    <row r="134" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="19" t="s">
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="50"/>
+    </row>
+    <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E134" s="41" t="s">
+      <c r="E134" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F134" s="46" t="s">
+      <c r="F134" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="52"/>
-    </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A135" s="7"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="9" t="s">
+      <c r="G134" s="44"/>
+      <c r="H134" s="44"/>
+      <c r="I134" s="44"/>
+      <c r="J134" s="50"/>
+    </row>
+    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E135" s="41" t="s">
+      <c r="E135" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F135" s="46" t="s">
+      <c r="F135" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="52"/>
-    </row>
-    <row r="136" spans="1:10" ht="71.25" customHeight="1">
-      <c r="A136" s="7"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="9" t="s">
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+      <c r="J135" s="50"/>
+    </row>
+    <row r="136" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E136" s="41" t="s">
+      <c r="E136" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="46" t="s">
+      <c r="F136" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
-      <c r="J136" s="52"/>
-    </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A137" s="7"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="9" t="s">
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="44"/>
+      <c r="J136" s="50"/>
+    </row>
+    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E137" s="41" t="s">
+      <c r="E137" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F137" s="46" t="s">
+      <c r="F137" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G137" s="46"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="46"/>
-      <c r="J137" s="52"/>
-    </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A138" s="7"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="9" t="s">
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="50"/>
+    </row>
+    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="41" t="s">
+      <c r="E138" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F138" s="46" t="s">
+      <c r="F138" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
-      <c r="J138" s="52"/>
-    </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A139" s="7"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="8" t="s">
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44"/>
+      <c r="J138" s="50"/>
+    </row>
+    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="E139" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F139" s="46" t="s">
+      <c r="F139" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G139" s="46"/>
-      <c r="H139" s="46"/>
-      <c r="I139" s="46"/>
-      <c r="J139" s="52"/>
-    </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A140" s="7"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="9" t="s">
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="50"/>
+    </row>
+    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E140" s="41" t="s">
+      <c r="E140" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F140" s="46" t="s">
+      <c r="F140" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="52"/>
-    </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A141" s="7"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="9" t="s">
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
+      <c r="J140" s="50"/>
+    </row>
+    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E141" s="41" t="s">
+      <c r="E141" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F141" s="46" t="s">
+      <c r="F141" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="52"/>
-    </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A142" s="7"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="8" t="s">
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="50"/>
+    </row>
+    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E142" s="41" t="s">
+      <c r="E142" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F142" s="46" t="s">
+      <c r="F142" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="52"/>
-    </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A143" s="7"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="9" t="s">
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="50"/>
+    </row>
+    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="41" t="s">
+      <c r="E143" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F143" s="46" t="s">
+      <c r="F143" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G143" s="46"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="46"/>
-      <c r="J143" s="52"/>
-    </row>
-    <row r="144" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A144" s="7"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="9" t="s">
+      <c r="G143" s="44"/>
+      <c r="H143" s="44"/>
+      <c r="I143" s="44"/>
+      <c r="J143" s="50"/>
+    </row>
+    <row r="144" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="41" t="s">
+      <c r="E144" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F144" s="46" t="s">
+      <c r="F144" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="52"/>
-    </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A145" s="7"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="8" t="s">
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
+      <c r="I144" s="44"/>
+      <c r="J144" s="50"/>
+    </row>
+    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E145" s="41" t="s">
+      <c r="E145" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F145" s="46" t="s">
+      <c r="F145" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="52"/>
-    </row>
-    <row r="146" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A146" s="7"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="9" t="s">
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+      <c r="I145" s="44"/>
+      <c r="J145" s="50"/>
+    </row>
+    <row r="146" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E146" s="41" t="s">
+      <c r="E146" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F146" s="46" t="s">
+      <c r="F146" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="46"/>
-      <c r="J146" s="52"/>
-    </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A147" s="7"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="9" t="s">
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="44"/>
+      <c r="J146" s="50"/>
+    </row>
+    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E147" s="41" t="s">
+      <c r="E147" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F147" s="46" t="s">
+      <c r="F147" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
-      <c r="I147" s="46"/>
-      <c r="J147" s="52"/>
-    </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A148" s="7"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="8" t="s">
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+      <c r="I147" s="44"/>
+      <c r="J147" s="50"/>
+    </row>
+    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E148" s="41" t="s">
+      <c r="E148" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="46" t="s">
+      <c r="F148" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="46"/>
-      <c r="J148" s="52"/>
-    </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A149" s="7"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="9" t="s">
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="44"/>
+      <c r="J148" s="50"/>
+    </row>
+    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E149" s="41" t="s">
+      <c r="E149" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="46" t="s">
+      <c r="F149" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="52"/>
-    </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A150" s="7"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="8" t="s">
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="50"/>
+    </row>
+    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E150" s="41" t="s">
+      <c r="E150" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F150" s="46" t="s">
+      <c r="F150" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="46"/>
-      <c r="J150" s="52"/>
-    </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A151" s="7"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="9" t="s">
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="44"/>
+      <c r="J150" s="50"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E151" s="41" t="s">
+      <c r="E151" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F151" s="46" t="s">
+      <c r="F151" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="46"/>
-      <c r="J151" s="52"/>
-    </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A152" s="7"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="9" t="s">
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+      <c r="J151" s="50"/>
+    </row>
+    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="41" t="s">
+      <c r="E152" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F152" s="46" t="s">
+      <c r="F152" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="46"/>
-      <c r="J152" s="52"/>
-    </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A153" s="7"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="9" t="s">
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="50"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E153" s="41" t="s">
+      <c r="E153" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F153" s="46" t="s">
+      <c r="F153" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="46"/>
-      <c r="J153" s="52"/>
-    </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A154" s="7"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="9" t="s">
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
+      <c r="I153" s="44"/>
+      <c r="J153" s="50"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E154" s="41" t="s">
+      <c r="E154" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F154" s="46" t="s">
+      <c r="F154" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G154" s="46"/>
-      <c r="H154" s="46"/>
-      <c r="I154" s="46"/>
-      <c r="J154" s="52"/>
-    </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A155" s="7"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="8" t="s">
+      <c r="G154" s="44"/>
+      <c r="H154" s="44"/>
+      <c r="I154" s="44"/>
+      <c r="J154" s="50"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E155" s="41" t="s">
+      <c r="E155" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F155" s="46" t="s">
+      <c r="F155" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G155" s="46"/>
-      <c r="H155" s="46"/>
-      <c r="I155" s="46"/>
-      <c r="J155" s="52"/>
-    </row>
-    <row r="156" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A156" s="7"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="9" t="s">
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="50"/>
+    </row>
+    <row r="156" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E156" s="41" t="s">
+      <c r="E156" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F156" s="46" t="s">
+      <c r="F156" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G156" s="46"/>
-      <c r="H156" s="46"/>
-      <c r="I156" s="46"/>
-      <c r="J156" s="52"/>
-    </row>
-    <row r="157" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A157" s="7"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="9" t="s">
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="50"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E157" s="41" t="s">
+      <c r="E157" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F157" s="46" t="s">
+      <c r="F157" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G157" s="46"/>
-      <c r="H157" s="46"/>
-      <c r="I157" s="46"/>
-      <c r="J157" s="52"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6435,933 +6418,933 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B1:F119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="41.8984375" style="70" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="64" customWidth="1"/>
+    <col min="4" max="4" width="41.8984375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="64" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="64" customWidth="1"/>
     <col min="7" max="257" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" customHeight="1">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="78.75" customHeight="1">
-      <c r="B2" s="72">
+    <row r="2" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="66">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:6" ht="143.25" customHeight="1">
-      <c r="B3" s="72">
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="66">
         <v>2</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="2:6" ht="69">
-      <c r="B4" s="72">
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="2:6" ht="69" x14ac:dyDescent="0.2">
+      <c r="B4" s="66">
         <v>3</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="2:6" ht="117" customHeight="1">
-      <c r="B5" s="72">
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="2:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66">
         <v>4</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="2:6" ht="78.75" customHeight="1">
-      <c r="B6" s="72">
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="66">
         <v>5</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="2:6" ht="69">
-      <c r="B7" s="72">
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="2:6" ht="69" x14ac:dyDescent="0.2">
+      <c r="B7" s="66">
         <v>6</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1">
-      <c r="B8" s="72">
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="66">
         <v>7</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="2:6" ht="18" customHeight="1">
-      <c r="B9" s="72">
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="66">
         <v>8</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="69"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B11" s="69"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B14" s="69"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B15" s="69"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B16" s="69"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B17" s="69"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B18" s="69"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B20" s="69"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B22" s="69"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B23" s="69"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B24" s="69"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B25" s="69"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-    </row>
-    <row r="26" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B26" s="69"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B27" s="69"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-    </row>
-    <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="69"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-    </row>
-    <row r="29" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B29" s="69"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B30" s="69"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B31" s="69"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B32" s="69"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-    </row>
-    <row r="33" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B33" s="69"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B34" s="69"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B35" s="69"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B36" s="69"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-    </row>
-    <row r="37" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B37" s="69"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-    </row>
-    <row r="38" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B38" s="69"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-    </row>
-    <row r="39" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B39" s="69"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-    </row>
-    <row r="40" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B40" s="69"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B41" s="69"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B42" s="69"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-    </row>
-    <row r="43" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B43" s="69"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B44" s="69"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B45" s="69"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-    </row>
-    <row r="46" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B46" s="69"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-    </row>
-    <row r="47" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B47" s="69"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-    </row>
-    <row r="48" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B48" s="69"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-    </row>
-    <row r="49" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B49" s="69"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-    </row>
-    <row r="50" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B50" s="69"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-    </row>
-    <row r="51" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B51" s="69"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-    </row>
-    <row r="52" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B52" s="69"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-    </row>
-    <row r="53" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B53" s="69"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-    </row>
-    <row r="54" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B54" s="69"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-    </row>
-    <row r="55" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B55" s="69"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-    </row>
-    <row r="56" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B56" s="69"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-    </row>
-    <row r="57" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B57" s="69"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-    </row>
-    <row r="58" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B58" s="69"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-    </row>
-    <row r="59" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B59" s="69"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-    </row>
-    <row r="60" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B60" s="69"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-    </row>
-    <row r="61" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B61" s="69"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-    </row>
-    <row r="62" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B62" s="69"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-    </row>
-    <row r="63" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B63" s="69"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-    </row>
-    <row r="64" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B64" s="69"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-    </row>
-    <row r="65" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B65" s="69"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-    </row>
-    <row r="66" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B66" s="69"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-    </row>
-    <row r="67" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B67" s="69"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-    </row>
-    <row r="68" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B68" s="69"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-    </row>
-    <row r="69" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B69" s="69"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-    </row>
-    <row r="70" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B70" s="69"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-    </row>
-    <row r="71" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B71" s="69"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-    </row>
-    <row r="72" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B72" s="69"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-    </row>
-    <row r="73" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B73" s="69"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-    </row>
-    <row r="74" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B74" s="69"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-    </row>
-    <row r="75" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B75" s="69"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-    </row>
-    <row r="76" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B76" s="69"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-    </row>
-    <row r="77" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B77" s="69"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-    </row>
-    <row r="78" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B78" s="69"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-    </row>
-    <row r="79" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B79" s="69"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-    </row>
-    <row r="80" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B80" s="69"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-    </row>
-    <row r="81" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B81" s="69"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-    </row>
-    <row r="82" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B82" s="69"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-    </row>
-    <row r="83" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B83" s="69"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-    </row>
-    <row r="84" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B84" s="69"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-    </row>
-    <row r="85" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B85" s="69"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-    </row>
-    <row r="86" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B86" s="69"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-    </row>
-    <row r="87" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B87" s="69"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-    </row>
-    <row r="88" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B88" s="69"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-    </row>
-    <row r="89" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B89" s="69"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-    </row>
-    <row r="90" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B90" s="69"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-    </row>
-    <row r="91" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B91" s="69"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-    </row>
-    <row r="92" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B92" s="69"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-    </row>
-    <row r="93" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B93" s="69"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-    </row>
-    <row r="94" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B94" s="69"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-    </row>
-    <row r="95" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B95" s="69"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-    </row>
-    <row r="96" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B96" s="69"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-    </row>
-    <row r="97" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B97" s="69"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-    </row>
-    <row r="98" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B98" s="69"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-    </row>
-    <row r="99" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B99" s="69"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-    </row>
-    <row r="100" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B100" s="69"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-    </row>
-    <row r="101" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B101" s="69"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-    </row>
-    <row r="102" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B102" s="69"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-    </row>
-    <row r="103" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B103" s="69"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-    </row>
-    <row r="104" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B104" s="69"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-    </row>
-    <row r="105" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B105" s="69"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-    </row>
-    <row r="106" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B106" s="69"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-    </row>
-    <row r="107" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B107" s="69"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
-    </row>
-    <row r="108" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B108" s="69"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-    </row>
-    <row r="109" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B109" s="69"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-    </row>
-    <row r="110" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B110" s="69"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
-    </row>
-    <row r="111" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B111" s="69"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-    </row>
-    <row r="112" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B112" s="69"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-    </row>
-    <row r="113" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B113" s="69"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-    </row>
-    <row r="114" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B114" s="69"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-    </row>
-    <row r="115" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B115" s="69"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-    </row>
-    <row r="116" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B116" s="69"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53"/>
-    </row>
-    <row r="117" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B117" s="69"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-    </row>
-    <row r="118" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B118" s="69"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-    </row>
-    <row r="119" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B119" s="69"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="63"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="63"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="63"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="63"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="63"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="63"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="63"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="63"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="63"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="63"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="63"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="63"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="63"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="63"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="63"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="63"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="63"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="63"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="63"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="63"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="63"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="63"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="63"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="63"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="63"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="63"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="63"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="63"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="63"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="63"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="63"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="63"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="63"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="63"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="63"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="63"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="63"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="63"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="63"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="63"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+    </row>
+    <row r="51" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="63"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="63"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="63"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="63"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="63"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="63"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="63"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+    </row>
+    <row r="58" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="63"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+    </row>
+    <row r="59" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="63"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+    </row>
+    <row r="60" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="63"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+    </row>
+    <row r="61" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="63"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+    </row>
+    <row r="62" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="63"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+    </row>
+    <row r="63" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="63"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+    </row>
+    <row r="64" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="63"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+    </row>
+    <row r="65" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="63"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+    </row>
+    <row r="66" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="63"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="63"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+    </row>
+    <row r="68" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="63"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+    </row>
+    <row r="69" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="63"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+    </row>
+    <row r="70" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="63"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+    </row>
+    <row r="71" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="63"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+    </row>
+    <row r="72" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="63"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+    </row>
+    <row r="73" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="63"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+    </row>
+    <row r="74" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="63"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+    </row>
+    <row r="75" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="63"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+    </row>
+    <row r="76" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="63"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+    </row>
+    <row r="77" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="63"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+    </row>
+    <row r="78" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="63"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+    </row>
+    <row r="79" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="63"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+    </row>
+    <row r="80" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="63"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+    </row>
+    <row r="81" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="63"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+    </row>
+    <row r="82" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="63"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+    </row>
+    <row r="83" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="63"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+    </row>
+    <row r="84" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="63"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+    </row>
+    <row r="85" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="63"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+    </row>
+    <row r="86" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="63"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+    </row>
+    <row r="87" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="63"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+    </row>
+    <row r="88" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="63"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+    </row>
+    <row r="89" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="63"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+    </row>
+    <row r="90" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="63"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+    </row>
+    <row r="91" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="63"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+    </row>
+    <row r="92" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="63"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+    </row>
+    <row r="93" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="63"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+    </row>
+    <row r="94" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="63"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+    </row>
+    <row r="95" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="63"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+    </row>
+    <row r="96" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="63"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+    </row>
+    <row r="97" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="63"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+    </row>
+    <row r="98" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="63"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+    </row>
+    <row r="99" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="63"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+    </row>
+    <row r="100" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="63"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+    </row>
+    <row r="101" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="63"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+    </row>
+    <row r="102" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="63"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+    </row>
+    <row r="103" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="63"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+    </row>
+    <row r="104" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="63"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+    </row>
+    <row r="105" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="63"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+    </row>
+    <row r="106" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="63"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+    </row>
+    <row r="107" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="63"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+    </row>
+    <row r="108" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="63"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+    </row>
+    <row r="109" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="63"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+    </row>
+    <row r="110" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="63"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+    </row>
+    <row r="111" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="63"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+    </row>
+    <row r="112" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="63"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+    </row>
+    <row r="113" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="63"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+    </row>
+    <row r="114" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="63"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+    </row>
+    <row r="115" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="63"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+    </row>
+    <row r="116" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="63"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+    </row>
+    <row r="117" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="63"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+    </row>
+    <row r="118" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="63"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+    </row>
+    <row r="119" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="63"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7376,99 +7359,4 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="5" width="7.59765625" style="2" customWidth="1"/>
-    <col min="6" max="256" width="7.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -1169,92 +1169,164 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1：新增电话号码2
+    <t>客户接待页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户信息页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文交所信息页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
+ 2： 忘记取消商品的联动总金额功能
+  3：交定金的话对应库存不减</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠品种类可以选多个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束接待</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置接待时长为3个小时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1：新增电话号码2
 2：qq改为电宅
-3：地区精确到区级
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3：地区精确到区级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4：必填前加红色星号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户接待页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：用户详细信息应该加关联亲友字段、备用电话
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1：用户详细信息应该加关联亲友字段、备用电话
 2：电话号码名称统一（查询的电话为主，可以增加备用电话，但不做查询使用）
   3：购买记录中加接待人
   4：业务员统一改为接待
   5：撤单表格中加撤单时间（未加-待定）
-  6：来访记录中加赠品（每次登门都会领取赠品）
-  7：顺序调整（页面显示）：购买、来访、回购、撤单
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改客户信息页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1：msn、qq、网页—客户都觉得用不到
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  6：来访记录中加赠品（每次登门都会领取赠品）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  7：顺序调整（页面显示）：购买、来访、回购、撤单</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  1：msn、qq、网页—客户都觉得用不到
   2：增加地址（网页字段改过去）
-  3：增加性别：（男女）
+  3：增加性别：（男女）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>文交所信息页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：增加文交所下拉菜单格式
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：增加文交所下拉菜单格式
   2：多个文交所的情况会有一个是默认的；
   3：以身份证进行关联
   4：将客户姓名放到前面
   5：增加是否绑定银行卡
-  6：把绑定银行卡改为开户行名称
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买商品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：数据库加单位字段
+  6：把绑定银行卡改为开户行名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：数据库加单位字段
   2：配送弹窗中加单位
   3：赠品弹窗中售价改为库存数量
-  4：!!!选择赠品的地方加特殊审批流程
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
- 2： 忘记取消商品的联动总金额功能
-  3：交定金的话对应库存不减</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取赠品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠品种类可以选多个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束接待</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置接待时长为3个小时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tina</t>
+  4：!!!选择赠品的地方加特殊审批流程</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1332,6 +1404,20 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3201,7 +3287,7 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -6424,8 +6510,8 @@
   </sheetPr>
   <dimension ref="B1:F119"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6464,10 +6550,10 @@
         <v>279</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F2" s="51"/>
     </row>
@@ -6476,13 +6562,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F3" s="51"/>
     </row>
@@ -6491,13 +6577,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F4" s="51"/>
     </row>
@@ -6506,13 +6592,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F5" s="51"/>
     </row>
@@ -6521,13 +6607,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F6" s="51"/>
     </row>
@@ -6536,13 +6622,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>290</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>295</v>
       </c>
       <c r="F7" s="51"/>
     </row>
@@ -6551,13 +6637,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F8" s="51"/>
     </row>
@@ -6566,13 +6652,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F9" s="51"/>
     </row>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -15,7 +15,7 @@
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
     <sheet name="bug列表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1189,12 +1189,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
- 2： 忘记取消商品的联动总金额功能
-  3：交定金的话对应库存不减</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>领取赠品</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1212,79 +1206,6 @@
   </si>
   <si>
     <t>Tina</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1：新增电话号码2
-2：qq改为电宅
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3：地区精确到区级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-4：必填前加红色星号</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1：用户详细信息应该加关联亲友字段、备用电话
-2：电话号码名称统一（查询的电话为主，可以增加备用电话，但不做查询使用）
-  3：购买记录中加接待人
-  4：业务员统一改为接待
-  5：撤单表格中加撤单时间（未加-待定）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  6：来访记录中加赠品（每次登门都会领取赠品）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  7：顺序调整（页面显示）：购买、来访、回购、撤单</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1323,10 +1244,101 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1：数据库加单位字段
-  2：配送弹窗中加单位
-  3：赠品弹窗中售价改为库存数量
+    <t>1：新增电话号码2
+2：qq改为电宅
+3：地区精确到区级
+4：必填前加红色星号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1：用户详细信息应该加关联亲友字段、备用电话
+2：电话号码名称统一（查询的电话为主，可以增加备用电话，但不做查询使用）
+  3：购买记录中加接待人
+  4：业务员统一改为接待
+  5：撤单表格中加撤单时间（未加-待定）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  6：来访记录中加赠品（每次登门都会领取赠品）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  7：顺序调整（页面显示）：购买、来访、回购、撤单</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  1：数据库加单位字段
+  2：配送弹窗中加单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  3：赠品弹窗中售价改为库存数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
   4：!!!选择赠品的地方加特殊审批流程</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
+2： 忘记取消商品的联动总金额功能
+3：交定金的话对应库存不减</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1740,7 +1752,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1953,6 +1965,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6511,7 +6526,7 @@
   <dimension ref="B1:F119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6549,11 +6564,11 @@
       <c r="C2" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>291</v>
+      <c r="D2" s="71" t="s">
+        <v>292</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="51"/>
     </row>
@@ -6565,10 +6580,10 @@
         <v>280</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="51"/>
     </row>
@@ -6580,10 +6595,10 @@
         <v>281</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="51"/>
     </row>
@@ -6595,10 +6610,10 @@
         <v>282</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="51"/>
     </row>
@@ -6610,10 +6625,10 @@
         <v>283</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" s="51"/>
     </row>
@@ -6625,10 +6640,10 @@
         <v>284</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F7" s="51"/>
     </row>
@@ -6637,13 +6652,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>287</v>
-      </c>
       <c r="E8" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F8" s="51"/>
     </row>
@@ -6652,13 +6667,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="E9" s="51" t="s">
         <v>289</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>290</v>
       </c>
       <c r="F9" s="51"/>
     </row>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="296">
   <si>
     <t>系统</t>
   </si>
@@ -419,11 +419,6 @@
   </si>
   <si>
     <t>常规回购：需要在后台商品管理中对回购商品进行标记、并标明回购时间段。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">业务员在回购模块对可回购商品进行查询。
-</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1287,6 +1282,16 @@
       <t xml:space="preserve">
   7：顺序调整（页面显示）：购买、来访、回购、撤单</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
+2： 忘记取消商品的联动总金额功能
+3：交定金的话对应库存不减</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员在回购模块对可回购商品进行查询。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1333,12 +1338,6 @@
       <t xml:space="preserve">
   4：!!!选择赠品的地方加特殊审批流程</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
-2： 忘记取消商品的联动总金额功能
-3：交定金的话对应库存不减</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1954,6 +1953,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1965,9 +1967,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3302,9 +3301,9 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3343,31 +3342,31 @@
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>204</v>
-      </c>
       <c r="F2" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>221</v>
-      </c>
       <c r="J2" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3385,10 +3384,10 @@
         <v>96</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
@@ -3405,10 +3404,10 @@
         <v>96</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
@@ -3425,10 +3424,10 @@
         <v>96</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
@@ -3447,10 +3446,10 @@
         <v>96</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -3467,10 +3466,10 @@
         <v>96</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -3487,10 +3486,10 @@
         <v>96</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -3509,10 +3508,10 @@
         <v>96</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
@@ -3529,10 +3528,10 @@
         <v>96</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -3549,10 +3548,10 @@
         <v>96</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -3571,10 +3570,10 @@
         <v>96</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -3591,10 +3590,10 @@
         <v>96</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
@@ -3611,10 +3610,10 @@
         <v>96</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
@@ -3627,13 +3626,13 @@
         <v>97</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="37" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -3645,13 +3644,13 @@
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
       <c r="D16" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -3669,7 +3668,7 @@
         <v>99</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
@@ -3679,7 +3678,7 @@
     <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>8</v>
@@ -3691,17 +3690,17 @@
         <v>96</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H18" s="44"/>
       <c r="I18" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3709,23 +3708,23 @@
       <c r="B19" s="8"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3733,23 +3732,23 @@
       <c r="B20" s="8"/>
       <c r="C20" s="14"/>
       <c r="D20" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="J20" s="50" t="s">
         <v>237</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3757,16 +3756,16 @@
       <c r="B21" s="8"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
@@ -3777,23 +3776,23 @@
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3807,17 +3806,17 @@
         <v>96</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="J23" s="50" t="s">
         <v>240</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,17 +3830,17 @@
         <v>102</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3849,16 +3848,16 @@
       <c r="B25" s="8"/>
       <c r="C25" s="14"/>
       <c r="D25" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>207</v>
-      </c>
       <c r="F25" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
@@ -3875,17 +3874,17 @@
         <v>102</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H26" s="44"/>
       <c r="I26" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="50" t="s">
         <v>243</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3901,7 +3900,7 @@
         <v>100</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
@@ -3919,7 +3918,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -3937,7 +3936,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -3955,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -3966,7 +3965,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="8"/>
       <c r="C31" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>72</v>
@@ -3975,15 +3974,15 @@
         <v>102</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="49"/>
       <c r="J31" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,14 +3996,14 @@
         <v>102</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J32" s="50"/>
     </row>
@@ -4021,17 +4020,17 @@
         <v>102</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="50" t="s">
         <v>246</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4039,23 +4038,23 @@
       <c r="B34" s="8"/>
       <c r="C34" s="14"/>
       <c r="D34" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" s="50" t="s">
         <v>257</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4063,21 +4062,21 @@
       <c r="B35" s="8"/>
       <c r="C35" s="14"/>
       <c r="D35" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>256</v>
-      </c>
       <c r="F35" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
       <c r="J35" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4085,13 +4084,13 @@
       <c r="B36" s="8"/>
       <c r="C36" s="16"/>
       <c r="D36" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
@@ -4105,23 +4104,23 @@
         <v>7</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H37" s="44"/>
       <c r="I37" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4135,15 +4134,15 @@
         <v>96</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4157,15 +4156,15 @@
         <v>96</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
       <c r="J39" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,15 +4178,15 @@
         <v>96</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4201,7 +4200,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
@@ -4221,10 +4220,10 @@
         <v>96</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
@@ -4241,13 +4240,13 @@
         <v>96</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="62"/>
@@ -4259,16 +4258,16 @@
         <v>86</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
@@ -4279,16 +4278,16 @@
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
       <c r="D45" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -4299,16 +4298,16 @@
       <c r="B46" s="22"/>
       <c r="C46" s="14"/>
       <c r="D46" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
@@ -4319,13 +4318,13 @@
       <c r="B47" s="22"/>
       <c r="C47" s="14"/>
       <c r="D47" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>99</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
@@ -4337,14 +4336,14 @@
       <c r="B48" s="22"/>
       <c r="C48" s="16"/>
       <c r="D48" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
@@ -4353,7 +4352,7 @@
     <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>76</v>
@@ -4365,7 +4364,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
@@ -4383,7 +4382,7 @@
         <v>100</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
@@ -4397,16 +4396,16 @@
         <v>82</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
@@ -4417,16 +4416,16 @@
       <c r="B52" s="8"/>
       <c r="C52" s="16"/>
       <c r="D52" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E52" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
@@ -4445,17 +4444,17 @@
         <v>96</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H53" s="44"/>
       <c r="I53" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J53" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4463,23 +4462,23 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E54" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H54" s="44"/>
       <c r="I54" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="50" t="s">
         <v>271</v>
-      </c>
-      <c r="J54" s="50" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4493,15 +4492,15 @@
         <v>96</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
       <c r="J55" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4514,10 +4513,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
@@ -4529,13 +4528,13 @@
       <c r="B57" s="22"/>
       <c r="C57" s="14"/>
       <c r="D57" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
@@ -4547,13 +4546,13 @@
       <c r="B58" s="22"/>
       <c r="C58" s="14"/>
       <c r="D58" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
@@ -4565,13 +4564,13 @@
       <c r="B59" s="22"/>
       <c r="C59" s="14"/>
       <c r="D59" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G59" s="44"/>
       <c r="H59" s="44"/>
@@ -4583,13 +4582,13 @@
       <c r="B60" s="22"/>
       <c r="C60" s="14"/>
       <c r="D60" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
@@ -4601,13 +4600,13 @@
       <c r="B61" s="22"/>
       <c r="C61" s="14"/>
       <c r="D61" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
@@ -4619,13 +4618,13 @@
       <c r="B62" s="22"/>
       <c r="C62" s="14"/>
       <c r="D62" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G62" s="44"/>
       <c r="H62" s="44"/>
@@ -4637,13 +4636,13 @@
       <c r="B63" s="22"/>
       <c r="C63" s="16"/>
       <c r="D63" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G63" s="44"/>
       <c r="H63" s="44"/>
@@ -4663,7 +4662,7 @@
         <v>100</v>
       </c>
       <c r="F64" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
@@ -4675,13 +4674,13 @@
       <c r="B65" s="8"/>
       <c r="C65" s="17"/>
       <c r="D65" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G65" s="44"/>
       <c r="H65" s="44"/>
@@ -4693,13 +4692,13 @@
       <c r="B66" s="8"/>
       <c r="C66" s="17"/>
       <c r="D66" s="7" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="E66" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F66" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
@@ -4711,13 +4710,13 @@
       <c r="B67" s="8"/>
       <c r="C67" s="17"/>
       <c r="D67" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E67" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G67" s="44"/>
       <c r="H67" s="44"/>
@@ -4729,13 +4728,13 @@
       <c r="B68" s="8"/>
       <c r="C68" s="17"/>
       <c r="D68" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
@@ -4747,13 +4746,13 @@
       <c r="B69" s="8"/>
       <c r="C69" s="17"/>
       <c r="D69" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G69" s="44"/>
       <c r="H69" s="44"/>
@@ -4765,13 +4764,13 @@
       <c r="B70" s="8"/>
       <c r="C70" s="17"/>
       <c r="D70" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
@@ -4782,16 +4781,16 @@
       <c r="A71" s="5"/>
       <c r="B71" s="8"/>
       <c r="C71" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E71" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
@@ -4803,13 +4802,13 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F72" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
@@ -4821,13 +4820,13 @@
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F73" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
@@ -4839,15 +4838,17 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="44"/>
+        <v>224</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>222</v>
+      </c>
       <c r="H74" s="44"/>
       <c r="I74" s="44"/>
       <c r="J74" s="50"/>
@@ -4857,13 +4858,13 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F75" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
@@ -4875,13 +4876,13 @@
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E76" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F76" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -4893,13 +4894,13 @@
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" s="39" t="s">
         <v>100</v>
       </c>
       <c r="F77" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
@@ -4909,22 +4910,22 @@
     <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F78" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H78" s="44"/>
       <c r="I78" s="44"/>
@@ -4935,16 +4936,16 @@
       <c r="B79" s="14"/>
       <c r="C79" s="26"/>
       <c r="D79" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F79" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G79" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H79" s="44"/>
       <c r="I79" s="44"/>
@@ -4955,16 +4956,16 @@
       <c r="B80" s="14"/>
       <c r="C80" s="26"/>
       <c r="D80" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F80" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G80" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H80" s="44"/>
       <c r="I80" s="44"/>
@@ -4975,16 +4976,16 @@
       <c r="B81" s="14"/>
       <c r="C81" s="26"/>
       <c r="D81" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F81" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G81" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" s="44"/>
       <c r="I81" s="44"/>
@@ -4995,16 +4996,16 @@
       <c r="B82" s="14"/>
       <c r="C82" s="26"/>
       <c r="D82" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F82" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H82" s="44"/>
       <c r="I82" s="44"/>
@@ -5015,16 +5016,16 @@
       <c r="B83" s="14"/>
       <c r="C83" s="26"/>
       <c r="D83" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G83" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H83" s="44"/>
       <c r="I83" s="44"/>
@@ -5034,19 +5035,19 @@
       <c r="A84" s="1"/>
       <c r="B84" s="46"/>
       <c r="C84" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D84" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G84" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H84" s="56"/>
       <c r="I84" s="56"/>
@@ -5056,21 +5057,21 @@
       <c r="A85" s="1"/>
       <c r="B85" s="46"/>
       <c r="C85" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="E85" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="61" t="s">
+      <c r="F85" s="51" t="s">
         <v>252</v>
-      </c>
-      <c r="F85" s="51" t="s">
-        <v>253</v>
       </c>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
       <c r="I85" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J85" s="52"/>
     </row>
@@ -5078,16 +5079,16 @@
       <c r="A86" s="1"/>
       <c r="B86" s="14"/>
       <c r="C86" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E86" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F86" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G86" s="58"/>
       <c r="H86" s="58"/>
@@ -5099,13 +5100,13 @@
       <c r="B87" s="14"/>
       <c r="C87" s="26"/>
       <c r="D87" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
@@ -5117,13 +5118,13 @@
       <c r="B88" s="14"/>
       <c r="C88" s="26"/>
       <c r="D88" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
@@ -5135,13 +5136,13 @@
       <c r="B89" s="14"/>
       <c r="C89" s="26"/>
       <c r="D89" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
@@ -5153,13 +5154,13 @@
       <c r="B90" s="14"/>
       <c r="C90" s="26"/>
       <c r="D90" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="39" t="s">
-        <v>168</v>
-      </c>
       <c r="F90" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
@@ -5171,13 +5172,13 @@
       <c r="B91" s="14"/>
       <c r="C91" s="26"/>
       <c r="D91" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
@@ -5188,16 +5189,16 @@
       <c r="A92" s="1"/>
       <c r="B92" s="14"/>
       <c r="C92" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="E92" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G92" s="44"/>
       <c r="H92" s="44"/>
@@ -5209,13 +5210,13 @@
       <c r="B93" s="14"/>
       <c r="C93" s="27"/>
       <c r="D93" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G93" s="44"/>
       <c r="H93" s="44"/>
@@ -5226,16 +5227,16 @@
       <c r="A94" s="1"/>
       <c r="B94" s="14"/>
       <c r="C94" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E94" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G94" s="44"/>
       <c r="H94" s="44"/>
@@ -5247,13 +5248,13 @@
       <c r="B95" s="14"/>
       <c r="C95" s="26"/>
       <c r="D95" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G95" s="44"/>
       <c r="H95" s="44"/>
@@ -5267,13 +5268,13 @@
         <v>69</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G96" s="44"/>
       <c r="H96" s="44"/>
@@ -5284,16 +5285,16 @@
       <c r="A97" s="1"/>
       <c r="B97" s="14"/>
       <c r="C97" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
@@ -5305,13 +5306,13 @@
       <c r="B98" s="14"/>
       <c r="C98" s="26"/>
       <c r="D98" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
@@ -5323,13 +5324,13 @@
       <c r="B99" s="14"/>
       <c r="C99" s="26"/>
       <c r="D99" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G99" s="44"/>
       <c r="H99" s="44"/>
@@ -5341,13 +5342,13 @@
       <c r="B100" s="14"/>
       <c r="C100" s="27"/>
       <c r="D100" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
@@ -5358,16 +5359,16 @@
       <c r="A101" s="1"/>
       <c r="B101" s="14"/>
       <c r="C101" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F101" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G101" s="44"/>
       <c r="H101" s="44"/>
@@ -5379,13 +5380,13 @@
       <c r="B102" s="14"/>
       <c r="C102" s="26"/>
       <c r="D102" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F102" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G102" s="44"/>
       <c r="H102" s="44"/>
@@ -5397,13 +5398,13 @@
       <c r="B103" s="14"/>
       <c r="C103" s="27"/>
       <c r="D103" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F103" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G103" s="44"/>
       <c r="H103" s="44"/>
@@ -5414,16 +5415,16 @@
       <c r="A104" s="1"/>
       <c r="B104" s="14"/>
       <c r="C104" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="E104" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G104" s="44"/>
       <c r="H104" s="44"/>
@@ -5435,13 +5436,13 @@
       <c r="B105" s="14"/>
       <c r="C105" s="27"/>
       <c r="D105" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F105" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G105" s="44"/>
       <c r="H105" s="44"/>
@@ -5460,10 +5461,10 @@
         <v>14</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G106" s="44"/>
       <c r="H106" s="44"/>
@@ -5478,10 +5479,10 @@
         <v>15</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G107" s="44"/>
       <c r="H107" s="44"/>
@@ -5496,10 +5497,10 @@
         <v>16</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G108" s="44"/>
       <c r="H108" s="44"/>
@@ -5516,10 +5517,10 @@
         <v>18</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G109" s="44"/>
       <c r="H109" s="44"/>
@@ -5536,10 +5537,10 @@
         <v>20</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F110" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G110" s="44"/>
       <c r="H110" s="44"/>
@@ -5550,16 +5551,16 @@
       <c r="A111" s="1"/>
       <c r="B111" s="29"/>
       <c r="C111" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F111" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G111" s="44"/>
       <c r="H111" s="44"/>
@@ -5571,20 +5572,20 @@
       <c r="B112" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="67" t="s">
-        <v>154</v>
+      <c r="C112" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F112" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G112" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H112" s="47">
         <v>42672</v>
@@ -5595,18 +5596,18 @@
     <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="68"/>
+      <c r="C113" s="69"/>
       <c r="D113" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F113" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G113" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H113" s="47">
         <v>42672</v>
@@ -5617,18 +5618,18 @@
     <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="68"/>
+      <c r="C114" s="69"/>
       <c r="D114" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F114" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G114" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H114" s="47">
         <v>42672</v>
@@ -5643,13 +5644,13 @@
         <v>24</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F115" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G115" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H115" s="47">
         <v>42672</v>
@@ -5664,13 +5665,13 @@
         <v>25</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G116" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H116" s="47">
         <v>42672</v>
@@ -5685,13 +5686,13 @@
         <v>26</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F117" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H117" s="47">
         <v>42674</v>
@@ -5706,13 +5707,13 @@
         <v>27</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F118" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G118" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H118" s="47">
         <v>42676</v>
@@ -5727,13 +5728,13 @@
         <v>28</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F119" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G119" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H119" s="47">
         <v>42676</v>
@@ -5746,20 +5747,20 @@
       <c r="B120" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="69" t="s">
-        <v>155</v>
+      <c r="C120" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E120" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F120" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G120" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H120" s="47">
         <v>42651</v>
@@ -5770,18 +5771,18 @@
     <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="28"/>
-      <c r="C121" s="70"/>
+      <c r="C121" s="71"/>
       <c r="D121" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E121" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F121" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G121" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H121" s="47">
         <v>42651</v>
@@ -5792,18 +5793,18 @@
     <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="28"/>
-      <c r="C122" s="70"/>
+      <c r="C122" s="71"/>
       <c r="D122" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E122" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F122" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G122" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H122" s="47">
         <v>42670</v>
@@ -5814,18 +5815,18 @@
     <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="28"/>
-      <c r="C123" s="70"/>
+      <c r="C123" s="71"/>
       <c r="D123" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E123" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F123" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G123" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H123" s="47">
         <v>42655</v>
@@ -5836,18 +5837,18 @@
     <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="28"/>
-      <c r="C124" s="70"/>
+      <c r="C124" s="71"/>
       <c r="D124" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E124" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F124" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G124" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H124" s="47">
         <v>42655</v>
@@ -5858,18 +5859,18 @@
     <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="28"/>
-      <c r="C125" s="70"/>
+      <c r="C125" s="71"/>
       <c r="D125" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E125" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F125" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G125" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H125" s="47">
         <v>42655</v>
@@ -5880,18 +5881,18 @@
     <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="28"/>
-      <c r="C126" s="70"/>
+      <c r="C126" s="71"/>
       <c r="D126" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E126" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F126" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G126" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H126" s="47">
         <v>42656</v>
@@ -5902,18 +5903,18 @@
     <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="28"/>
-      <c r="C127" s="70"/>
+      <c r="C127" s="71"/>
       <c r="D127" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E127" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F127" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G127" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H127" s="47">
         <v>42657</v>
@@ -5924,18 +5925,18 @@
     <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="28"/>
-      <c r="C128" s="70"/>
+      <c r="C128" s="71"/>
       <c r="D128" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E128" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G128" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H128" s="47">
         <v>42661</v>
@@ -5946,18 +5947,18 @@
     <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="28"/>
-      <c r="C129" s="70"/>
+      <c r="C129" s="71"/>
       <c r="D129" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E129" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F129" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H129" s="47">
         <v>42661</v>
@@ -5970,16 +5971,16 @@
       <c r="B130" s="28"/>
       <c r="C130" s="42"/>
       <c r="D130" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E130" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="E130" s="37" t="s">
-        <v>211</v>
-      </c>
       <c r="F130" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G130" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H130" s="47">
         <v>42664</v>
@@ -5992,16 +5993,16 @@
       <c r="B131" s="28"/>
       <c r="C131" s="26"/>
       <c r="D131" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E131" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G131" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H131" s="47">
         <v>42667</v>
@@ -6013,16 +6014,16 @@
       <c r="A132" s="1"/>
       <c r="B132" s="28"/>
       <c r="C132" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D132" s="24" t="s">
-        <v>152</v>
-      </c>
       <c r="E132" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F132" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G132" s="44"/>
       <c r="H132" s="44"/>
@@ -6034,13 +6035,13 @@
       <c r="B133" s="29"/>
       <c r="C133" s="27"/>
       <c r="D133" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E133" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F133" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G133" s="44"/>
       <c r="H133" s="44"/>
@@ -6059,10 +6060,10 @@
         <v>31</v>
       </c>
       <c r="E134" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F134" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G134" s="44"/>
       <c r="H134" s="44"/>
@@ -6074,13 +6075,13 @@
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E135" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G135" s="44"/>
       <c r="H135" s="44"/>
@@ -6092,13 +6093,13 @@
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E136" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F136" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G136" s="44"/>
       <c r="H136" s="44"/>
@@ -6113,10 +6114,10 @@
         <v>32</v>
       </c>
       <c r="E137" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F137" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G137" s="44"/>
       <c r="H137" s="44"/>
@@ -6131,10 +6132,10 @@
         <v>33</v>
       </c>
       <c r="E138" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F138" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G138" s="44"/>
       <c r="H138" s="44"/>
@@ -6151,10 +6152,10 @@
         <v>35</v>
       </c>
       <c r="E139" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F139" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G139" s="44"/>
       <c r="H139" s="44"/>
@@ -6169,10 +6170,10 @@
         <v>36</v>
       </c>
       <c r="E140" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F140" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G140" s="44"/>
       <c r="H140" s="44"/>
@@ -6187,10 +6188,10 @@
         <v>37</v>
       </c>
       <c r="E141" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F141" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G141" s="44"/>
       <c r="H141" s="44"/>
@@ -6207,10 +6208,10 @@
         <v>39</v>
       </c>
       <c r="E142" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F142" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G142" s="44"/>
       <c r="H142" s="44"/>
@@ -6225,10 +6226,10 @@
         <v>40</v>
       </c>
       <c r="E143" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F143" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G143" s="44"/>
       <c r="H143" s="44"/>
@@ -6243,10 +6244,10 @@
         <v>41</v>
       </c>
       <c r="E144" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F144" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G144" s="44"/>
       <c r="H144" s="44"/>
@@ -6263,10 +6264,10 @@
         <v>43</v>
       </c>
       <c r="E145" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F145" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G145" s="44"/>
       <c r="H145" s="44"/>
@@ -6278,13 +6279,13 @@
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E146" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F146" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G146" s="44"/>
       <c r="H146" s="44"/>
@@ -6299,10 +6300,10 @@
         <v>44</v>
       </c>
       <c r="E147" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F147" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G147" s="44"/>
       <c r="H147" s="44"/>
@@ -6319,10 +6320,10 @@
         <v>46</v>
       </c>
       <c r="E148" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F148" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G148" s="44"/>
       <c r="H148" s="44"/>
@@ -6337,10 +6338,10 @@
         <v>47</v>
       </c>
       <c r="E149" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F149" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G149" s="44"/>
       <c r="H149" s="44"/>
@@ -6357,10 +6358,10 @@
         <v>49</v>
       </c>
       <c r="E150" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F150" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G150" s="44"/>
       <c r="H150" s="44"/>
@@ -6375,10 +6376,10 @@
         <v>50</v>
       </c>
       <c r="E151" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F151" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G151" s="44"/>
       <c r="H151" s="44"/>
@@ -6393,10 +6394,10 @@
         <v>51</v>
       </c>
       <c r="E152" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F152" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G152" s="44"/>
       <c r="H152" s="44"/>
@@ -6411,10 +6412,10 @@
         <v>52</v>
       </c>
       <c r="E153" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F153" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G153" s="44"/>
       <c r="H153" s="44"/>
@@ -6431,10 +6432,10 @@
         <v>54</v>
       </c>
       <c r="E154" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F154" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G154" s="44"/>
       <c r="H154" s="44"/>
@@ -6451,10 +6452,10 @@
         <v>56</v>
       </c>
       <c r="E155" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F155" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G155" s="44"/>
       <c r="H155" s="44"/>
@@ -6469,10 +6470,10 @@
         <v>57</v>
       </c>
       <c r="E156" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F156" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G156" s="44"/>
       <c r="H156" s="44"/>
@@ -6489,10 +6490,10 @@
         <v>59</v>
       </c>
       <c r="E157" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F157" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G157" s="44"/>
       <c r="H157" s="44"/>
@@ -6525,8 +6526,8 @@
   </sheetPr>
   <dimension ref="B1:F119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6542,19 +6543,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>276</v>
-      </c>
       <c r="F1" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6562,13 +6563,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>292</v>
+        <v>278</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>291</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" s="51"/>
     </row>
@@ -6577,13 +6578,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="51"/>
     </row>
@@ -6592,13 +6593,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="51"/>
     </row>
@@ -6607,13 +6608,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="51"/>
     </row>
@@ -6622,13 +6623,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" s="51"/>
     </row>
@@ -6637,13 +6638,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" s="51"/>
     </row>
@@ -6652,13 +6653,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>286</v>
-      </c>
       <c r="E8" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" s="51"/>
     </row>
@@ -6667,13 +6668,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="E9" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>289</v>
       </c>
       <c r="F9" s="51"/>
     </row>

--- a/src/test/doc/项目进度.xlsx
+++ b/src/test/doc/项目进度.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="326">
   <si>
     <t>系统</t>
   </si>
@@ -1253,12 +1253,137 @@
     <t>Tina</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>统计功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计以日为单位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.柱状图考虑换成折线图</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.出库明细统计改为（销售结算表）还有出库明细表
+出库明细加名称和日期条件查询</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一名称：接待、展厅、业务员—改为接待  只有两项（客服、接待）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">顶部菜单可以合并
+（接待统计和业务员统计合并）（机构业绩统计、个人业绩）
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>登门出单统计：
+ 将查询数据改为时间范围查询
+  列表加接待时间计算、合计项</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白客户</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版中可以对电话位数进行限制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定导出时间分段导出—按时间分批导出</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中上次电联时间改为上次导入时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>成单锁定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的Excel表格和之前客户给的表格样式统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单都改为出单字体</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员业务每日统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长以分为单位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>把详细情况显示出来（对应客户类型下的数量）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管审批的时候也要有详细情况</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独的审批页面（页面中包含所有详细）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管首页也要有个统计的页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击打印的时候，少了一项全款已付货未取</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印的时候选项分人打印（财务和库房）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审批的时候出现错误直接删除（不要审核错误）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货加审批/删除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印：针孔打印机  调用打印机接口问题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入导出优化，导出多个sheet页</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批页面转到统计页面，在下面有个审批按钮（总结下面的）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏政委</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗文强</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1330,6 +1455,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1351,7 +1497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1656,6 +1802,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1665,7 +1850,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1861,6 +2046,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1873,17 +2070,35 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5487,7 +5702,7 @@
       <c r="B112" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="65" t="s">
+      <c r="C112" s="69" t="s">
         <v>154</v>
       </c>
       <c r="D112" s="21" t="s">
@@ -5511,7 +5726,7 @@
     <row r="113" spans="1:10" ht="21.95" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="10"/>
-      <c r="C113" s="66"/>
+      <c r="C113" s="70"/>
       <c r="D113" s="21" t="s">
         <v>22</v>
       </c>
@@ -5533,7 +5748,7 @@
     <row r="114" spans="1:10" ht="21.95" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="10"/>
-      <c r="C114" s="66"/>
+      <c r="C114" s="70"/>
       <c r="D114" s="21" t="s">
         <v>23</v>
       </c>
@@ -5662,7 +5877,7 @@
       <c r="B120" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="71" t="s">
         <v>155</v>
       </c>
       <c r="D120" s="26" t="s">
@@ -5686,7 +5901,7 @@
     <row r="121" spans="1:10" ht="25.5" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="30"/>
-      <c r="C121" s="68"/>
+      <c r="C121" s="72"/>
       <c r="D121" s="26" t="s">
         <v>147</v>
       </c>
@@ -5708,7 +5923,7 @@
     <row r="122" spans="1:10" ht="18" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="30"/>
-      <c r="C122" s="68"/>
+      <c r="C122" s="72"/>
       <c r="D122" s="26" t="s">
         <v>143</v>
       </c>
@@ -5730,7 +5945,7 @@
     <row r="123" spans="1:10" ht="18" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="30"/>
-      <c r="C123" s="68"/>
+      <c r="C123" s="72"/>
       <c r="D123" s="26" t="s">
         <v>149</v>
       </c>
@@ -5752,7 +5967,7 @@
     <row r="124" spans="1:10" ht="18" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="30"/>
-      <c r="C124" s="68"/>
+      <c r="C124" s="72"/>
       <c r="D124" s="26" t="s">
         <v>150</v>
       </c>
@@ -5774,7 +5989,7 @@
     <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="30"/>
-      <c r="C125" s="68"/>
+      <c r="C125" s="72"/>
       <c r="D125" s="26" t="s">
         <v>144</v>
       </c>
@@ -5796,7 +6011,7 @@
     <row r="126" spans="1:10" ht="18" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="30"/>
-      <c r="C126" s="68"/>
+      <c r="C126" s="72"/>
       <c r="D126" s="26" t="s">
         <v>145</v>
       </c>
@@ -5818,7 +6033,7 @@
     <row r="127" spans="1:10" ht="18" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="30"/>
-      <c r="C127" s="68"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="26" t="s">
         <v>146</v>
       </c>
@@ -5840,7 +6055,7 @@
     <row r="128" spans="1:10" ht="18" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="30"/>
-      <c r="C128" s="68"/>
+      <c r="C128" s="72"/>
       <c r="D128" s="26" t="s">
         <v>208</v>
       </c>
@@ -5862,7 +6077,7 @@
     <row r="129" spans="1:10" ht="18" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="30"/>
-      <c r="C129" s="68"/>
+      <c r="C129" s="72"/>
       <c r="D129" s="26" t="s">
         <v>209</v>
       </c>
@@ -6442,17 +6657,17 @@
   <dimension ref="B1:F119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="41.8984375" style="70" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="41.8984375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="66" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="66" customWidth="1"/>
     <col min="7" max="257" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6474,7 +6689,7 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="78.75" customHeight="1">
-      <c r="B2" s="72">
+      <c r="B2" s="68">
         <v>1</v>
       </c>
       <c r="C2" s="62" t="s">
@@ -6489,7 +6704,7 @@
       <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="143.25" customHeight="1">
-      <c r="B3" s="72">
+      <c r="B3" s="68">
         <v>2</v>
       </c>
       <c r="C3" s="62" t="s">
@@ -6504,7 +6719,7 @@
       <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6" ht="69">
-      <c r="B4" s="72">
+      <c r="B4" s="68">
         <v>3</v>
       </c>
       <c r="C4" s="62" t="s">
@@ -6519,7 +6734,7 @@
       <c r="F4" s="53"/>
     </row>
     <row r="5" spans="2:6" ht="117" customHeight="1">
-      <c r="B5" s="72">
+      <c r="B5" s="68">
         <v>4</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -6534,10 +6749,10 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="2:6" ht="78.75" customHeight="1">
-      <c r="B6" s="72">
+      <c r="B6" s="68">
         <v>5</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="67" t="s">
         <v>287</v>
       </c>
       <c r="D6" s="62" t="s">
@@ -6549,7 +6764,7 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="2:6" ht="69">
-      <c r="B7" s="72">
+      <c r="B7" s="68">
         <v>6</v>
       </c>
       <c r="C7" s="62" t="s">
@@ -6564,7 +6779,7 @@
       <c r="F7" s="53"/>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1">
-      <c r="B8" s="72">
+      <c r="B8" s="68">
         <v>7</v>
       </c>
       <c r="C8" s="62" t="s">
@@ -6579,7 +6794,7 @@
       <c r="F8" s="53"/>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1">
-      <c r="B9" s="72">
+      <c r="B9" s="68">
         <v>8</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -6594,770 +6809,914 @@
       <c r="F9" s="53"/>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="69"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="68">
+        <v>9</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B11" s="69"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="53"/>
+    <row r="11" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B11" s="68">
+        <v>10</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="53"/>
+    <row r="12" spans="2:6" ht="39.75" customHeight="1">
+      <c r="B12" s="68">
+        <v>11</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="F12" s="53"/>
     </row>
-    <row r="13" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="53"/>
+    <row r="13" spans="2:6" ht="39.75" customHeight="1">
+      <c r="B13" s="68">
+        <v>12</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B14" s="69"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="53"/>
+    <row r="14" spans="2:6" ht="39" customHeight="1">
+      <c r="B14" s="68">
+        <v>13</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B15" s="69"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="53"/>
+    <row r="15" spans="2:6" ht="54.75" customHeight="1">
+      <c r="B15" s="68">
+        <v>14</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>324</v>
+      </c>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B16" s="69"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="53"/>
+    <row r="16" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B16" s="68">
+        <v>15</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B17" s="69"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="53"/>
+    <row r="17" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B17" s="68">
+        <v>16</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F17" s="53"/>
     </row>
-    <row r="18" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B18" s="69"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B18" s="68">
+        <v>17</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="53"/>
+    <row r="19" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B19" s="68">
+        <v>18</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F19" s="53"/>
     </row>
-    <row r="20" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B20" s="69"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="53"/>
+    <row r="20" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B20" s="68">
+        <v>19</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F20" s="53"/>
     </row>
-    <row r="21" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="53"/>
+    <row r="21" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B21" s="68">
+        <v>20</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B22" s="69"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="53"/>
+    <row r="22" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B22" s="68">
+        <v>21</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F22" s="53"/>
     </row>
-    <row r="23" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B23" s="69"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="53"/>
+    <row r="23" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B23" s="68">
+        <v>22</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F23" s="53"/>
     </row>
-    <row r="24" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B24" s="69"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="53"/>
+    <row r="24" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B24" s="68">
+        <v>23</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B25" s="69"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="53"/>
+    <row r="25" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B25" s="68">
+        <v>24</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B26" s="69"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="53"/>
+    <row r="26" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B26" s="68">
+        <v>25</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F26" s="53"/>
     </row>
-    <row r="27" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B27" s="69"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="53"/>
+    <row r="27" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B27" s="68">
+        <v>26</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F27" s="53"/>
     </row>
-    <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="69"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="53"/>
+    <row r="28" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B28" s="68">
+        <v>27</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F28" s="53"/>
     </row>
-    <row r="29" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B29" s="69"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="53"/>
+    <row r="29" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B29" s="68">
+        <v>28</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F29" s="53"/>
     </row>
-    <row r="30" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B30" s="69"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="53"/>
+    <row r="30" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B30" s="68">
+        <v>29</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F30" s="53"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B31" s="69"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="53"/>
+    <row r="31" spans="2:6" ht="24.75" customHeight="1">
+      <c r="B31" s="68">
+        <v>30</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>325</v>
+      </c>
       <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B32" s="69"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B33" s="69"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B34" s="69"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
     </row>
     <row r="35" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B35" s="69"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
     </row>
     <row r="36" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B36" s="69"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
     </row>
     <row r="37" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B37" s="69"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
     </row>
     <row r="38" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B38" s="69"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="62"/>
       <c r="D38" s="62"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
     </row>
     <row r="39" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B39" s="69"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B40" s="69"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="62"/>
       <c r="D40" s="62"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
     </row>
     <row r="41" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B41" s="69"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="62"/>
       <c r="D41" s="62"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
     </row>
     <row r="42" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B42" s="69"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B43" s="69"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="62"/>
       <c r="D43" s="62"/>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
     </row>
     <row r="44" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B44" s="69"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="62"/>
       <c r="D44" s="62"/>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
     </row>
     <row r="45" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B45" s="69"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="62"/>
       <c r="D45" s="62"/>
       <c r="E45" s="53"/>
       <c r="F45" s="53"/>
     </row>
     <row r="46" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B46" s="69"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="62"/>
       <c r="D46" s="62"/>
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
     </row>
     <row r="47" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B47" s="69"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="62"/>
       <c r="D47" s="62"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
     </row>
     <row r="48" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B48" s="69"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="62"/>
       <c r="D48" s="62"/>
       <c r="E48" s="53"/>
       <c r="F48" s="53"/>
     </row>
     <row r="49" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B49" s="69"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="62"/>
       <c r="D49" s="62"/>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
     </row>
     <row r="50" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B50" s="69"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="62"/>
       <c r="D50" s="62"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B51" s="69"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
     </row>
     <row r="52" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B52" s="69"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="62"/>
       <c r="D52" s="62"/>
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
     </row>
     <row r="53" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B53" s="69"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="62"/>
       <c r="D53" s="62"/>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
     </row>
     <row r="54" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B54" s="69"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="62"/>
       <c r="D54" s="62"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
     </row>
     <row r="55" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B55" s="69"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="62"/>
       <c r="D55" s="62"/>
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
     </row>
     <row r="56" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B56" s="69"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="62"/>
       <c r="D56" s="62"/>
       <c r="E56" s="53"/>
       <c r="F56" s="53"/>
     </row>
     <row r="57" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B57" s="69"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="62"/>
       <c r="D57" s="62"/>
       <c r="E57" s="53"/>
       <c r="F57" s="53"/>
     </row>
     <row r="58" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B58" s="69"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="62"/>
       <c r="D58" s="62"/>
       <c r="E58" s="53"/>
       <c r="F58" s="53"/>
     </row>
     <row r="59" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B59" s="69"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="62"/>
       <c r="D59" s="62"/>
       <c r="E59" s="53"/>
       <c r="F59" s="53"/>
     </row>
     <row r="60" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B60" s="69"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="62"/>
       <c r="D60" s="62"/>
       <c r="E60" s="53"/>
       <c r="F60" s="53"/>
     </row>
     <row r="61" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B61" s="69"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="62"/>
       <c r="D61" s="62"/>
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B62" s="69"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="62"/>
       <c r="D62" s="62"/>
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B63" s="69"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="62"/>
       <c r="D63" s="62"/>
       <c r="E63" s="53"/>
       <c r="F63" s="53"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B64" s="69"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="62"/>
       <c r="D64" s="62"/>
       <c r="E64" s="53"/>
       <c r="F64" s="53"/>
     </row>
     <row r="65" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B65" s="69"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="62"/>
       <c r="D65" s="62"/>
       <c r="E65" s="53"/>
       <c r="F65" s="53"/>
     </row>
     <row r="66" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B66" s="69"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="62"/>
       <c r="D66" s="62"/>
       <c r="E66" s="53"/>
       <c r="F66" s="53"/>
     </row>
     <row r="67" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B67" s="69"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="62"/>
       <c r="D67" s="62"/>
       <c r="E67" s="53"/>
       <c r="F67" s="53"/>
     </row>
     <row r="68" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B68" s="69"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="62"/>
       <c r="D68" s="62"/>
       <c r="E68" s="53"/>
       <c r="F68" s="53"/>
     </row>
     <row r="69" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B69" s="69"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="53"/>
       <c r="F69" s="53"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B70" s="69"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="53"/>
       <c r="F70" s="53"/>
     </row>
     <row r="71" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B71" s="69"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="53"/>
       <c r="F71" s="53"/>
     </row>
     <row r="72" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B72" s="69"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="53"/>
       <c r="F72" s="53"/>
     </row>
     <row r="73" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B73" s="69"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="62"/>
       <c r="D73" s="62"/>
       <c r="E73" s="53"/>
       <c r="F73" s="53"/>
     </row>
     <row r="74" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B74" s="69"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="62"/>
       <c r="D74" s="62"/>
       <c r="E74" s="53"/>
       <c r="F74" s="53"/>
     </row>
     <row r="75" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B75" s="69"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="62"/>
       <c r="D75" s="62"/>
       <c r="E75" s="53"/>
       <c r="F75" s="53"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B76" s="69"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="62"/>
       <c r="D76" s="62"/>
       <c r="E76" s="53"/>
       <c r="F76" s="53"/>
     </row>
     <row r="77" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B77" s="69"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="62"/>
       <c r="D77" s="62"/>
       <c r="E77" s="53"/>
       <c r="F77" s="53"/>
     </row>
     <row r="78" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B78" s="69"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="62"/>
       <c r="D78" s="62"/>
       <c r="E78" s="53"/>
       <c r="F78" s="53"/>
     </row>
     <row r="79" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B79" s="69"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="62"/>
       <c r="D79" s="62"/>
       <c r="E79" s="53"/>
       <c r="F79" s="53"/>
     </row>
     <row r="80" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B80" s="69"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="62"/>
       <c r="D80" s="62"/>
       <c r="E80" s="53"/>
       <c r="F80" s="53"/>
     </row>
     <row r="81" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B81" s="69"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
       <c r="E81" s="53"/>
       <c r="F81" s="53"/>
     </row>
     <row r="82" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B82" s="69"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="62"/>
       <c r="D82" s="62"/>
       <c r="E82" s="53"/>
       <c r="F82" s="53"/>
     </row>
     <row r="83" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B83" s="69"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="62"/>
       <c r="D83" s="62"/>
       <c r="E83" s="53"/>
       <c r="F83" s="53"/>
     </row>
     <row r="84" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B84" s="69"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
       <c r="E84" s="53"/>
       <c r="F84" s="53"/>
     </row>
     <row r="85" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B85" s="69"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="62"/>
       <c r="D85" s="62"/>
       <c r="E85" s="53"/>
       <c r="F85" s="53"/>
     </row>
     <row r="86" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B86" s="69"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="62"/>
       <c r="D86" s="62"/>
       <c r="E86" s="53"/>
       <c r="F86" s="53"/>
     </row>
     <row r="87" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B87" s="69"/>
+      <c r="B87" s="65"/>
       <c r="C87" s="62"/>
       <c r="D87" s="62"/>
       <c r="E87" s="53"/>
       <c r="F87" s="53"/>
     </row>
     <row r="88" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B88" s="69"/>
+      <c r="B88" s="65"/>
       <c r="C88" s="62"/>
       <c r="D88" s="62"/>
       <c r="E88" s="53"/>
       <c r="F88" s="53"/>
     </row>
     <row r="89" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B89" s="69"/>
+      <c r="B89" s="65"/>
       <c r="C89" s="62"/>
       <c r="D89" s="62"/>
       <c r="E89" s="53"/>
       <c r="F89" s="53"/>
     </row>
     <row r="90" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B90" s="69"/>
+      <c r="B90" s="65"/>
       <c r="C90" s="62"/>
       <c r="D90" s="62"/>
       <c r="E90" s="53"/>
       <c r="F90" s="53"/>
     </row>
     <row r="91" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B91" s="69"/>
+      <c r="B91" s="65"/>
       <c r="C91" s="62"/>
       <c r="D91" s="62"/>
       <c r="E91" s="53"/>
       <c r="F91" s="53"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B92" s="69"/>
+      <c r="B92" s="65"/>
       <c r="C92" s="62"/>
       <c r="D92" s="62"/>
       <c r="E92" s="53"/>
       <c r="F92" s="53"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B93" s="69"/>
+      <c r="B93" s="65"/>
       <c r="C93" s="62"/>
       <c r="D93" s="62"/>
       <c r="E93" s="53"/>
       <c r="F93" s="53"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B94" s="69"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="62"/>
       <c r="D94" s="62"/>
       <c r="E94" s="53"/>
       <c r="F94" s="53"/>
     </row>
     <row r="95" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B95" s="69"/>
+      <c r="B95" s="65"/>
       <c r="C95" s="62"/>
       <c r="D95" s="62"/>
       <c r="E95" s="53"/>
       <c r="F95" s="53"/>
     </row>
     <row r="96" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B96" s="69"/>
+      <c r="B96" s="65"/>
       <c r="C96" s="62"/>
       <c r="D96" s="62"/>
       <c r="E96" s="53"/>
       <c r="F96" s="53"/>
     </row>
     <row r="97" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B97" s="69"/>
+      <c r="B97" s="65"/>
       <c r="C97" s="62"/>
       <c r="D97" s="62"/>
       <c r="E97" s="53"/>
       <c r="F97" s="53"/>
     </row>
     <row r="98" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B98" s="69"/>
+      <c r="B98" s="65"/>
       <c r="C98" s="62"/>
       <c r="D98" s="62"/>
       <c r="E98" s="53"/>
       <c r="F98" s="53"/>
     </row>
     <row r="99" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B99" s="69"/>
+      <c r="B99" s="65"/>
       <c r="C99" s="62"/>
       <c r="D99" s="62"/>
       <c r="E99" s="53"/>
       <c r="F99" s="53"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B100" s="69"/>
+      <c r="B100" s="65"/>
       <c r="C100" s="62"/>
       <c r="D100" s="62"/>
       <c r="E100" s="53"/>
       <c r="F100" s="53"/>
     </row>
     <row r="101" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B101" s="69"/>
+      <c r="B101" s="65"/>
       <c r="C101" s="62"/>
       <c r="D101" s="62"/>
       <c r="E101" s="53"/>
       <c r="F101" s="53"/>
     </row>
     <row r="102" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B102" s="69"/>
+      <c r="B102" s="65"/>
       <c r="C102" s="62"/>
       <c r="D102" s="62"/>
       <c r="E102" s="53"/>
       <c r="F102" s="53"/>
     </row>
     <row r="103" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B103" s="69"/>
+      <c r="B103" s="65"/>
       <c r="C103" s="62"/>
       <c r="D103" s="62"/>
       <c r="E103" s="53"/>
       <c r="F103" s="53"/>
     </row>
     <row r="104" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B104" s="69"/>
+      <c r="B104" s="65"/>
       <c r="C104" s="62"/>
       <c r="D104" s="62"/>
       <c r="E104" s="53"/>
       <c r="F104" s="53"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B105" s="69"/>
+      <c r="B105" s="65"/>
       <c r="C105" s="62"/>
       <c r="D105" s="62"/>
       <c r="E105" s="53"/>
       <c r="F105" s="53"/>
     </row>
     <row r="106" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B106" s="69"/>
+      <c r="B106" s="65"/>
       <c r="C106" s="62"/>
       <c r="D106" s="62"/>
       <c r="E106" s="53"/>
       <c r="F106" s="53"/>
     </row>
     <row r="107" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B107" s="69"/>
+      <c r="B107" s="65"/>
       <c r="C107" s="62"/>
       <c r="D107" s="62"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
     </row>
     <row r="108" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B108" s="69"/>
+      <c r="B108" s="65"/>
       <c r="C108" s="62"/>
       <c r="D108" s="62"/>
       <c r="E108" s="53"/>
       <c r="F108" s="53"/>
     </row>
     <row r="109" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B109" s="69"/>
+      <c r="B109" s="65"/>
       <c r="C109" s="62"/>
       <c r="D109" s="62"/>
       <c r="E109" s="53"/>
       <c r="F109" s="53"/>
     </row>
     <row r="110" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B110" s="69"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="62"/>
       <c r="D110" s="62"/>
       <c r="E110" s="53"/>
       <c r="F110" s="53"/>
     </row>
     <row r="111" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B111" s="69"/>
+      <c r="B111" s="65"/>
       <c r="C111" s="62"/>
       <c r="D111" s="62"/>
       <c r="E111" s="53"/>
       <c r="F111" s="53"/>
     </row>
     <row r="112" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B112" s="69"/>
+      <c r="B112" s="65"/>
       <c r="C112" s="62"/>
       <c r="D112" s="62"/>
       <c r="E112" s="53"/>
       <c r="F112" s="53"/>
     </row>
     <row r="113" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B113" s="69"/>
+      <c r="B113" s="65"/>
       <c r="C113" s="62"/>
       <c r="D113" s="62"/>
       <c r="E113" s="53"/>
       <c r="F113" s="53"/>
     </row>
     <row r="114" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B114" s="69"/>
+      <c r="B114" s="65"/>
       <c r="C114" s="62"/>
       <c r="D114" s="62"/>
       <c r="E114" s="53"/>
       <c r="F114" s="53"/>
     </row>
     <row r="115" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B115" s="69"/>
+      <c r="B115" s="65"/>
       <c r="C115" s="62"/>
       <c r="D115" s="62"/>
       <c r="E115" s="53"/>
       <c r="F115" s="53"/>
     </row>
     <row r="116" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B116" s="69"/>
+      <c r="B116" s="65"/>
       <c r="C116" s="62"/>
       <c r="D116" s="62"/>
       <c r="E116" s="53"/>
       <c r="F116" s="53"/>
     </row>
     <row r="117" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B117" s="69"/>
+      <c r="B117" s="65"/>
       <c r="C117" s="62"/>
       <c r="D117" s="62"/>
       <c r="E117" s="53"/>
       <c r="F117" s="53"/>
     </row>
     <row r="118" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B118" s="69"/>
+      <c r="B118" s="65"/>
       <c r="C118" s="62"/>
       <c r="D118" s="62"/>
       <c r="E118" s="53"/>
       <c r="F118" s="53"/>
     </row>
     <row r="119" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B119" s="69"/>
+      <c r="B119" s="65"/>
       <c r="C119" s="62"/>
       <c r="D119" s="62"/>
       <c r="E119" s="53"/>
